--- a/decay_tests.xlsx
+++ b/decay_tests.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Popularity</t>
   </si>
@@ -77,6 +77,9 @@
   <si>
     <t>Base:</t>
   </si>
+  <si>
+    <t>Gravity:</t>
+  </si>
 </sst>
 </file>
 
@@ -124,8 +127,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -141,13 +148,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -179,6 +190,11 @@
               <a:rPr lang="en-US"/>
               <a:t>decay</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> tests</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -200,7 +216,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hn_score</c:v>
+                  <c:v>newton_score</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -234,298 +250,298 @@
                   <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>29.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="26">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>23.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="48">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>39.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="58">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>12.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="87">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>64.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="91">
                   <c:v>42.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="92">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>15.0</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="95">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>65.0</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>39.0</c:v>
-                </c:pt>
                 <c:pt idx="97">
-                  <c:v>18.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>56.0</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,49 +553,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>42.04482076268573</c:v>
+                  <c:v>63.3938145260609</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.60214239864063</c:v>
+                  <c:v>36.02342668053714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>36.02342668053714</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.88162309603443</c:v>
+                  <c:v>31.70721882632573</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.86401568298155</c:v>
+                  <c:v>32.88473898593941</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.0</c:v>
+                  <c:v>44.02348230976452</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100.0</c:v>
+                  <c:v>51.87373441997349</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.88188204120155</c:v>
+                  <c:v>48.2253086419753</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.35533905932738</c:v>
+                  <c:v>50.01626588236151</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.86961840084806</c:v>
+                  <c:v>57.87037037037037</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.32582478842018</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100.0</c:v>
+                  <c:v>60.01951905883381</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.04482076268573</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>100.0</c:v>
@@ -588,255 +604,880 @@
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.07420411156057</c:v>
+                  <c:v>38.04866259159088</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.88162309603443</c:v>
+                  <c:v>27.90816472336534</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100.0</c:v>
+                  <c:v>31.70721882632573</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.86401568298155</c:v>
+                  <c:v>32.2906118720873</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>100.0</c:v>
+                  <c:v>29.47716086331057</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100.0</c:v>
+                  <c:v>51.87373441997349</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.07550320942994</c:v>
+                  <c:v>58.93514908258241</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100.0</c:v>
+                  <c:v>49.11262423548536</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.07550320942994</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>35.35533905932738</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.53126156527075</c:v>
+                  <c:v>37.36123910006978</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>100.0</c:v>
+                  <c:v>36.68623525813711</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.5</c:v>
+                  <c:v>49.11262423548536</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>100.0</c:v>
+                  <c:v>60.01951905883381</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25.0</c:v>
+                  <c:v>44.83348692008373</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>100.0</c:v>
+                  <c:v>33.48979766803841</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18.94645708137997</c:v>
+                  <c:v>45.65839510990905</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14.35872943746294</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>13.39716828170366</c:v>
+                  <c:v>31.70721882632573</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>100.0</c:v>
+                  <c:v>30.57186271511425</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>19.61460244741876</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.838834764831844</c:v>
+                  <c:v>30.01952223378095</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17.07550320942994</c:v>
+                  <c:v>28.9445983115518</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>100.0</c:v>
+                  <c:v>63.3938145260609</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30.7786103336229</c:v>
+                  <c:v>43.22811201664457</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>31.86401568298155</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>19.61460244741876</c:v>
+                  <c:v>47.35402413975275</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>22.53126156527075</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>29.73017787506803</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>37.89291416275995</c:v>
+                  <c:v>46.49848109580571</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18.94645708137997</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>24.14840822312114</c:v>
+                  <c:v>48.2253086419753</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>35.35533905932738</c:v>
+                  <c:v>53.80018430410048</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>10.51120519067143</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>100.0</c:v>
+                  <c:v>49.11262423548536</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>100.0</c:v>
+                  <c:v>38.04866259159088</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>30.7786103336229</c:v>
+                  <c:v>44.83348692008373</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.537751604714968</c:v>
+                  <c:v>58.93514908258241</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9.473228540689984</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>25.0</c:v>
+                  <c:v>30.57186271511425</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>16.49384888466118</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42.04482076268573</c:v>
+                  <c:v>42.4471116431672</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>16.49384888466118</c:v>
+                  <c:v>43.22811201664457</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>22.53126156527075</c:v>
+                  <c:v>26.90884322673942</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>34.1510064188599</c:v>
+                  <c:v>58.93514908258241</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>16.49384888466118</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>32.98769776932236</c:v>
+                  <c:v>53.80018430410048</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>19.61460244741876</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.537751604714968</c:v>
+                  <c:v>29.47716086331057</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>37.89291416275995</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>13.39716828170366</c:v>
+                  <c:v>34.10598905242038</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.15315495445294</c:v>
+                  <c:v>63.3938145260609</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>100.0</c:v>
+                  <c:v>44.83348692008373</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42.04482076268573</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>10.15315495445294</c:v>
+                  <c:v>29.47716086331057</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>21.76376408240311</c:v>
+                  <c:v>32.88473898593941</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>10.15315495445294</c:v>
+                  <c:v>55.79817731496685</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>13.86961840084806</c:v>
+                  <c:v>61.12384076616077</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>11.6629123942101</c:v>
+                  <c:v>50.93653397180064</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.473228540689984</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>100.0</c:v>
+                  <c:v>60.01951905883381</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>25.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>32.98769776932236</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>100.0</c:v>
+                  <c:v>57.87037037037037</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>28.71745887492588</c:v>
+                  <c:v>53.80018430410048</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>29.73017787506803</c:v>
+                  <c:v>28.9445983115518</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>26.79433656340733</c:v>
+                  <c:v>31.13436591672482</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14.35872943746294</c:v>
+                  <c:v>46.49848109580571</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>35.35533905932738</c:v>
+                  <c:v>47.35402413975275</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>40.61261981781177</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>11.6629123942101</c:v>
+                  <c:v>30.01952223378095</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>25.88162309603443</c:v>
+                  <c:v>30.57186271511425</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>100.0</c:v>
+                  <c:v>40.92718686290447</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>14.35872943746294</c:v>
+                  <c:v>28.42165754368366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>hn_score</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>69.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>70.71067811865474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.40776559556978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.40776559556978</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.8113883008419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.22214211307626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.32007163556104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.73500981126146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.2535625036333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.81988897471611</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.79644730092272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.72135954999578</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.25741858350554</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.58649914978946</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.8113883008419</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.01281538050871</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.07556722888818</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.73500981126146</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.82482904638631</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.96053020267749</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.67766952966369</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44.72135954999578</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.82178902359924</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16.43989873053573</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.36067977499789</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.8113883008419</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.43033499620919</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.24985703326047</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.9071198499986</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>70.71067811865474</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20.85144140570748</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23.57022603955159</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22.94157338705617</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24.2535625036333</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30.15113445777636</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18.25741858350554</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21.82178902359924</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>40.82482904638631</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.43033499620919</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20.41241452319315</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20.85144140570748</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.28571428571429</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40.82482904638631</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>30.15113445777636</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.07556722888818</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>70.71067811865474</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>21.82178902359924</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.07556722888818</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16.22214211307626</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>33.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26.72612419124244</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44.72135954999578</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>37.79644730092272</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>30.15113445777636</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14.9071198499986</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>15.61737618886061</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>22.94157338705617</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23.57022603955159</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>15.24985703326047</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15.43033499620919</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19.6116135138184</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>14.74419561548971</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -970,9 +1611,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>665691</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -1320,7 +1961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1340,10 +1981,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
@@ -1364,12 +2005,16 @@
       </c>
       <c r="G2">
         <f>IF(F2&gt;24, C2*POWER($A$6,(-$A$3*F2)), C2)</f>
-        <v>42.044820762685731</v>
+        <v>63.393814526060901</v>
+      </c>
+      <c r="H2">
+        <f>IF(F2&gt;24, C2/POWER(F2-23,$A$12), C2)</f>
+        <v>70.710678118654741</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -1382,11 +2027,15 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F34" ca="1" si="0">RANDBETWEEN(1,72)</f>
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="1">IF(F3&gt;24, C3*POWER($A$6,(-$A$3*F3)), C3)</f>
-        <v>36.60214239864063</v>
+        <v>36.023426680537142</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" ca="1" si="2">IF(F3&gt;24, C3/POWER(F3-23,$A$12), C3)</f>
+        <v>17.407765595569785</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
@@ -1401,11 +2050,15 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>36.023426680537142</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="2"/>
+        <v>17.407765595569785</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
@@ -1417,20 +2070,24 @@
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(100,430)</f>
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="2"/>
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -1443,11 +2100,15 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>25.881623096034435</v>
+        <v>31.707218826325729</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.811388300841896</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
@@ -1462,11 +2123,15 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>31.864015682981549</v>
+        <v>32.884738985939407</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="2"/>
+        <v>16.222142113076256</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
@@ -1481,11 +2146,15 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>44.023482309764518</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="2"/>
+        <v>21.320071635561042</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
@@ -1500,11 +2169,15 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>51.873734419973495</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="2"/>
+        <v>27.735009811261456</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
@@ -1512,50 +2185,68 @@
         <v>100</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D15" ca="1" si="2">RANDBETWEEN(100,430)</f>
-        <v>190</v>
+        <f t="shared" ref="D10:D15" ca="1" si="3">RANDBETWEEN(100,430)</f>
+        <v>213</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>10.881882041201553</v>
+        <v>48.22530864197531</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="2"/>
+        <v>24.253562503633297</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
       <c r="C11">
         <v>100</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="2"/>
-        <v>267</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>132</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>35.355339059327378</v>
+        <v>50.016265882361509</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="2"/>
+        <v>25.819888974716111</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A12">
+        <v>0.5</v>
+      </c>
       <c r="C12">
         <v>100</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="2"/>
-        <v>407</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>308</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>13.869618400848061</v>
+        <v>57.870370370370374</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="2"/>
+        <v>37.796447300922722</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
@@ -1563,15 +2254,19 @@
         <v>100</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="2"/>
-        <v>186</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>264</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -1580,16 +2275,20 @@
         <v>100</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>306</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>23.325824788420185</v>
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
@@ -1597,16 +2296,20 @@
         <v>100</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="2"/>
-        <v>228</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>275</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>60.019519058833815</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="2"/>
+        <v>44.721359549995789</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
@@ -1621,48 +2324,60 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>42.044820762685731</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="12.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="12.75" customHeight="1">
       <c r="C17">
         <v>100</v>
       </c>
       <c r="D17">
         <f ca="1">RANDBETWEEN(100,430)</f>
-        <v>412</v>
+        <v>184</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:7" ht="12.75" customHeight="1">
+      <c r="H17">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="12.75" customHeight="1">
       <c r="C18">
         <v>100</v>
       </c>
       <c r="D18">
         <f ca="1">RANDBETWEEN(100,430)</f>
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" ht="12.75" customHeight="1">
+      <c r="H18">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="12.75" customHeight="1">
       <c r="C19">
         <v>100</v>
       </c>
@@ -1674,48 +2389,60 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>12.074204111560565</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="12.75" customHeight="1">
+        <v>38.048662591590876</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="2"/>
+        <v>18.257418583505537</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="12.75" customHeight="1">
       <c r="C20">
         <v>100</v>
       </c>
       <c r="D20">
         <f ca="1">RANDBETWEEN(100,430)</f>
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>25.881623096034435</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="12.75" customHeight="1">
+        <v>27.908164723365342</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="2"/>
+        <v>14.586499149789455</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="12.75" customHeight="1">
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21">
         <f ca="1">RANDBETWEEN(100,430)</f>
-        <v>409</v>
+        <v>169</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" ht="12.75" customHeight="1">
+        <v>31.707218826325729</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.811388300841896</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="12.75" customHeight="1">
       <c r="C22">
         <v>100</v>
       </c>
@@ -1727,1029 +2454,1345 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>31.864015682981549</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" ht="12.75" customHeight="1">
+        <v>32.290611872087304</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="2"/>
+        <v>16.012815380508712</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="12.75" customHeight="1">
       <c r="C23">
         <v>100</v>
       </c>
       <c r="D23">
         <f ca="1">RANDBETWEEN(100,430)</f>
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" ht="12.75" customHeight="1">
+        <v>29.477160863310566</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.075567228888181</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="12.75" customHeight="1">
       <c r="C24">
         <v>100</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:7" ht="12.75" customHeight="1">
+      <c r="H24">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="12.75" customHeight="1">
       <c r="C25">
         <v>100</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" ht="12.75" customHeight="1">
+        <v>51.873734419973495</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="2"/>
+        <v>27.735009811261456</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="12.75" customHeight="1">
       <c r="C26">
         <v>100</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="3:7" ht="12.75" customHeight="1">
+      <c r="H26">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="12.75" customHeight="1">
       <c r="C27">
         <v>100</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>17.075503209429939</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" ht="12.75" customHeight="1">
+        <v>58.935149082582413</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="2"/>
+        <v>40.824829046386306</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="12.75" customHeight="1">
       <c r="C28">
         <v>100</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" ht="12.75" customHeight="1">
+        <v>49.112624235485356</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="12.75" customHeight="1">
       <c r="C29">
         <v>100</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="3:7" ht="12.75" customHeight="1">
+      <c r="H29">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="12.75" customHeight="1">
       <c r="C30">
         <v>100</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>17.075503209429939</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" ht="12.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="12.75" customHeight="1">
       <c r="C31">
         <v>100</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>35.355339059327378</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" ht="12.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="12.75" customHeight="1">
       <c r="C32">
         <v>100</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>22.531261565270754</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" ht="12.75" customHeight="1">
+        <v>37.361239100069781</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="2"/>
+        <v>17.960530202677493</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="12.75" customHeight="1">
       <c r="C33">
         <v>100</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" ht="12.75" customHeight="1">
+        <v>36.68623525813711</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="2"/>
+        <v>17.677669529663685</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="12.75" customHeight="1">
       <c r="C34">
         <v>100</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="1"/>
+        <v>49.112624235485356</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F66" ca="1" si="4">RANDBETWEEN(1,72)</f>
+        <v>28</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="1"/>
+        <v>60.019519058833815</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="2"/>
+        <v>44.721359549995789</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="1"/>
+        <v>44.833486920083729</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="2"/>
+        <v>21.821789023599241</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="4"/>
         <v>60</v>
       </c>
-      <c r="G34">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="F35">
-        <f t="shared" ref="F35:F66" ca="1" si="3">RANDBETWEEN(1,72)</f>
-        <v>9</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="F36">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G36">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C37">
-        <v>100</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ca="1" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="G37">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C38">
-        <v>100</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" ht="12.75" customHeight="1">
+        <v>33.489797668038413</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="2"/>
+        <v>16.439898730535731</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" ht="12.75" customHeight="1">
       <c r="C39">
         <v>100</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ca="1" si="1"/>
-        <v>18.946457081379968</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C40">
-        <v>100</v>
-      </c>
-      <c r="F40">
-        <f t="shared" ca="1" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="G40">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.358729437462939</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C41">
-        <v>100</v>
-      </c>
-      <c r="F41">
-        <f t="shared" ca="1" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="G41">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.397168281703662</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C42">
-        <v>100</v>
-      </c>
-      <c r="F42">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="G42">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C43">
-        <v>100</v>
-      </c>
-      <c r="F43">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="G43">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C44">
-        <v>100</v>
-      </c>
-      <c r="F44">
-        <f t="shared" ca="1" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="G44">
-        <f t="shared" ca="1" si="1"/>
-        <v>19.614602447418765</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C45">
-        <v>100</v>
-      </c>
-      <c r="F45">
-        <f t="shared" ca="1" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="G45">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.8388347648318444</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C46">
-        <v>100</v>
-      </c>
-      <c r="F46">
-        <f t="shared" ca="1" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="G46">
-        <f t="shared" ca="1" si="1"/>
-        <v>17.075503209429939</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C47">
-        <v>100</v>
-      </c>
-      <c r="F47">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G47">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C48">
-        <v>100</v>
-      </c>
-      <c r="F48">
-        <f t="shared" ca="1" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="G48">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.7786103336229</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C49">
-        <v>100</v>
-      </c>
-      <c r="F49">
-        <f t="shared" ca="1" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="G49">
-        <f t="shared" ca="1" si="1"/>
-        <v>31.864015682981549</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C50">
-        <v>100</v>
-      </c>
-      <c r="F50">
-        <f t="shared" ca="1" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="G50">
-        <f t="shared" ca="1" si="1"/>
-        <v>19.614602447418765</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C51">
-        <v>100</v>
-      </c>
-      <c r="F51">
-        <f t="shared" ca="1" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="G51">
-        <f t="shared" ca="1" si="1"/>
-        <v>22.531261565270754</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C52">
-        <v>100</v>
-      </c>
-      <c r="F52">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G52">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C53">
-        <v>100</v>
-      </c>
-      <c r="F53">
-        <f t="shared" ca="1" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="G53">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.730177875068026</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C54">
-        <v>100</v>
-      </c>
-      <c r="F54">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="G54">
-        <f t="shared" ca="1" si="1"/>
-        <v>37.892914162759958</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C55">
-        <v>100</v>
-      </c>
-      <c r="F55">
-        <f t="shared" ca="1" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="G55">
-        <f t="shared" ca="1" si="1"/>
-        <v>18.946457081379968</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C56">
-        <v>100</v>
-      </c>
-      <c r="F56">
-        <f t="shared" ca="1" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="G56">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.148408223121137</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C57">
-        <v>100</v>
-      </c>
-      <c r="F57">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="G57">
-        <f t="shared" ca="1" si="1"/>
-        <v>35.355339059327378</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C58">
-        <v>100</v>
-      </c>
-      <c r="F58">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="G58">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.511205190671435</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C59">
-        <v>100</v>
-      </c>
-      <c r="F59">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C60">
-        <v>100</v>
-      </c>
-      <c r="F60">
-        <f t="shared" ca="1" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="G60">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C61">
-        <v>100</v>
-      </c>
-      <c r="F61">
-        <f t="shared" ca="1" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="G61">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.7786103336229</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C62">
-        <v>100</v>
-      </c>
-      <c r="F62">
-        <f t="shared" ca="1" si="3"/>
-        <v>71</v>
-      </c>
-      <c r="G62">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.537751604714968</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C63">
-        <v>100</v>
-      </c>
-      <c r="F63">
-        <f t="shared" ca="1" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="G63">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.4732285406899841</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C64">
-        <v>100</v>
-      </c>
-      <c r="F64">
-        <f t="shared" ca="1" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="G64">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C65">
-        <v>100</v>
-      </c>
-      <c r="F65">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="G65">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.49384888466118</v>
-      </c>
-    </row>
-    <row r="66" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C66">
-        <v>100</v>
-      </c>
-      <c r="F66">
-        <f t="shared" ca="1" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="G66">
-        <f t="shared" ca="1" si="1"/>
-        <v>42.044820762685731</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C67">
-        <v>100</v>
-      </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F100" ca="1" si="4">RANDBETWEEN(1,72)</f>
-        <v>52</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G100" ca="1" si="5">IF(F67&gt;24, C67*POWER($A$6,(-$A$3*F67)), C67)</f>
-        <v>16.49384888466118</v>
-      </c>
-    </row>
-    <row r="68" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C68">
-        <v>100</v>
-      </c>
-      <c r="F68">
         <f t="shared" ca="1" si="4"/>
         <v>43</v>
       </c>
-      <c r="G68">
-        <f t="shared" ca="1" si="5"/>
-        <v>22.531261565270754</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C69">
-        <v>100</v>
-      </c>
-      <c r="F69">
+      <c r="G39">
+        <f t="shared" ca="1" si="1"/>
+        <v>45.658395109909058</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="2"/>
+        <v>22.360679774997894</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="F40">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="G69">
-        <f t="shared" ca="1" si="5"/>
-        <v>34.151006418859893</v>
-      </c>
-    </row>
-    <row r="70" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C70">
-        <v>100</v>
-      </c>
-      <c r="F70">
+        <v>21</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="F41">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
-      </c>
-      <c r="G70">
-        <f t="shared" ca="1" si="5"/>
-        <v>16.49384888466118</v>
-      </c>
-    </row>
-    <row r="71" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C71">
-        <v>100</v>
-      </c>
-      <c r="F71">
+        <v>63</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="1"/>
+        <v>31.707218826325729</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.811388300841896</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="F42">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="G71">
-        <f t="shared" ca="1" si="5"/>
-        <v>32.987697769322359</v>
-      </c>
-    </row>
-    <row r="72" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C72">
-        <v>100</v>
-      </c>
-      <c r="F72">
+        <v>22</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="1"/>
+        <v>30.57186271511425</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.43033499620919</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="1"/>
+        <v>30.019522233780954</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.249857033260467</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="1"/>
+        <v>28.9445983115518</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="2"/>
+        <v>14.907119849998598</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="1"/>
+        <v>63.393814526060901</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="2"/>
+        <v>70.710678118654741</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="1"/>
+        <v>43.228112016644573</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="2"/>
+        <v>20.85144140570748</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C50">
+        <v>100</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="1"/>
+        <v>47.354024139752745</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="2"/>
+        <v>23.570226039551585</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C52">
+        <v>100</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C54">
+        <v>100</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ca="1" si="1"/>
+        <v>46.498481095805708</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ca="1" si="2"/>
+        <v>22.941573387056174</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C55">
+        <v>100</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C56">
+        <v>100</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ca="1" si="1"/>
+        <v>48.22530864197531</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ca="1" si="2"/>
+        <v>24.253562503633297</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C57">
+        <v>100</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="G57">
+        <f t="shared" ca="1" si="1"/>
+        <v>53.800184304100483</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ca="1" si="2"/>
+        <v>30.151134457776362</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C58">
+        <v>100</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C59">
+        <v>100</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="G59">
+        <f t="shared" ca="1" si="1"/>
+        <v>49.112624235485356</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C60">
+        <v>100</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ca="1" si="1"/>
+        <v>38.048662591590876</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ca="1" si="2"/>
+        <v>18.257418583505537</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C61">
+        <v>100</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="G61">
+        <f t="shared" ca="1" si="1"/>
+        <v>44.833486920083729</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ca="1" si="2"/>
+        <v>21.821789023599241</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C62">
+        <v>100</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ca="1" si="1"/>
+        <v>58.935149082582413</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ca="1" si="2"/>
+        <v>40.824829046386306</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C63">
+        <v>100</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H63">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C64">
+        <v>100</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ca="1" si="1"/>
+        <v>30.57186271511425</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.43033499620919</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C65">
+        <v>100</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="F66">
         <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
+      <c r="G66">
+        <f t="shared" ca="1" si="1"/>
+        <v>42.447111643167204</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ca="1" si="2"/>
+        <v>20.412414523193153</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F100" ca="1" si="5">RANDBETWEEN(1,72)</f>
+        <v>46</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G100" ca="1" si="6">IF(F67&gt;24, C67*POWER($A$6,(-$A$3*F67)), C67)</f>
+        <v>43.228112016644573</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H100" ca="1" si="7">IF(F67&gt;24, C67/POWER(F67-23,$A$12), C67)</f>
+        <v>20.85144140570748</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C68">
+        <v>100</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ca="1" si="6"/>
+        <v>26.908843226739421</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ca="1" si="7"/>
+        <v>14.285714285714286</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C69">
+        <v>100</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ca="1" si="6"/>
+        <v>58.935149082582413</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ca="1" si="7"/>
+        <v>40.824829046386306</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C70">
+        <v>100</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C71">
+        <v>100</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ca="1" si="6"/>
+        <v>53.800184304100483</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ca="1" si="7"/>
+        <v>30.151134457776362</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C72">
+        <v>100</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
       <c r="G72">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C73">
+        <v>100</v>
+      </c>
+      <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>19.614602447418765</v>
-      </c>
-    </row>
-    <row r="73" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C73">
-        <v>100</v>
-      </c>
-      <c r="F73">
-        <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G73">
+        <f t="shared" ca="1" si="6"/>
+        <v>29.477160863310566</v>
+      </c>
+      <c r="H73">
+        <f t="shared" ca="1" si="7"/>
+        <v>15.075567228888181</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C74">
+        <v>100</v>
+      </c>
+      <c r="F74">
         <f t="shared" ca="1" si="5"/>
-        <v>8.537751604714968</v>
-      </c>
-    </row>
-    <row r="74" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C74">
-        <v>100</v>
-      </c>
-      <c r="F74">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G74">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="H74">
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C75">
+        <v>100</v>
+      </c>
+      <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C75">
-        <v>100</v>
-      </c>
-      <c r="F75">
-        <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G75">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C76">
+        <v>100</v>
+      </c>
+      <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>37.892914162759958</v>
-      </c>
-    </row>
-    <row r="76" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C76">
-        <v>100</v>
-      </c>
-      <c r="F76">
-        <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G76">
-        <f t="shared" ca="1" si="5"/>
-        <v>13.397168281703662</v>
-      </c>
-    </row>
-    <row r="77" spans="3:7" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.105989052420384</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ca="1" si="7"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" ht="12.75" customHeight="1">
       <c r="C77">
         <v>100</v>
       </c>
       <c r="F77">
-        <f t="shared" ca="1" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="G77">
-        <f t="shared" ca="1" si="5"/>
-        <v>10.153154954452942</v>
-      </c>
-    </row>
-    <row r="78" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C78">
-        <v>100</v>
-      </c>
-      <c r="F78">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="G78">
-        <f t="shared" ca="1" si="5"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C79">
-        <v>100</v>
-      </c>
-      <c r="F79">
-        <f t="shared" ca="1" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="G79">
-        <f t="shared" ca="1" si="5"/>
-        <v>42.044820762685731</v>
-      </c>
-    </row>
-    <row r="80" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C80">
-        <v>100</v>
-      </c>
-      <c r="F80">
-        <f t="shared" ca="1" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="G80">
-        <f t="shared" ca="1" si="5"/>
-        <v>10.153154954452942</v>
-      </c>
-    </row>
-    <row r="81" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C81">
-        <v>100</v>
-      </c>
-      <c r="F81">
-        <f t="shared" ca="1" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="G81">
-        <f t="shared" ca="1" si="5"/>
-        <v>21.763764082403107</v>
-      </c>
-    </row>
-    <row r="82" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C82">
-        <v>100</v>
-      </c>
-      <c r="F82">
-        <f t="shared" ca="1" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="G82">
-        <f t="shared" ca="1" si="5"/>
-        <v>10.153154954452942</v>
-      </c>
-    </row>
-    <row r="83" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C83">
-        <v>100</v>
-      </c>
-      <c r="F83">
-        <f t="shared" ca="1" si="4"/>
-        <v>57</v>
-      </c>
-      <c r="G83">
-        <f t="shared" ca="1" si="5"/>
-        <v>13.869618400848061</v>
-      </c>
-    </row>
-    <row r="84" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C84">
-        <v>100</v>
-      </c>
-      <c r="F84">
-        <f t="shared" ca="1" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="G84">
-        <f t="shared" ca="1" si="5"/>
-        <v>11.662912394210096</v>
-      </c>
-    </row>
-    <row r="85" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C85">
-        <v>100</v>
-      </c>
-      <c r="F85">
-        <f t="shared" ca="1" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="G85">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.4732285406899841</v>
-      </c>
-    </row>
-    <row r="86" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C86">
-        <v>100</v>
-      </c>
-      <c r="F86">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="G86">
-        <f t="shared" ca="1" si="5"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C87">
-        <v>100</v>
-      </c>
-      <c r="F87">
-        <f t="shared" ca="1" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="G87">
         <f t="shared" ca="1" si="5"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="88" spans="3:7" ht="12.75" customHeight="1">
+      <c r="G77">
+        <f t="shared" ca="1" si="6"/>
+        <v>63.393814526060901</v>
+      </c>
+      <c r="H77">
+        <f t="shared" ca="1" si="7"/>
+        <v>70.710678118654741</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C78">
+        <v>100</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ca="1" si="6"/>
+        <v>44.833486920083729</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ca="1" si="7"/>
+        <v>21.821789023599241</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C79">
+        <v>100</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C80">
+        <v>100</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ca="1" si="6"/>
+        <v>29.477160863310566</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ca="1" si="7"/>
+        <v>15.075567228888181</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C81">
+        <v>100</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="G81">
+        <f t="shared" ca="1" si="6"/>
+        <v>32.884738985939407</v>
+      </c>
+      <c r="H81">
+        <f t="shared" ca="1" si="7"/>
+        <v>16.222142113076256</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C82">
+        <v>100</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ca="1" si="6"/>
+        <v>55.798177314966857</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ca="1" si="7"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C83">
+        <v>100</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ca="1" si="6"/>
+        <v>61.123840766160775</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ca="1" si="7"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C84">
+        <v>100</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ca="1" si="6"/>
+        <v>50.936533971800642</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ca="1" si="7"/>
+        <v>26.726124191242437</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C85">
+        <v>100</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C86">
+        <v>100</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ca="1" si="6"/>
+        <v>60.019519058833815</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ca="1" si="7"/>
+        <v>44.721359549995789</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C87">
+        <v>100</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" ht="12.75" customHeight="1">
       <c r="C88">
         <v>100</v>
       </c>
       <c r="F88">
-        <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
       </c>
       <c r="G88">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C89">
+        <v>100</v>
+      </c>
+      <c r="F89">
         <f t="shared" ca="1" si="5"/>
-        <v>32.987697769322359</v>
-      </c>
-    </row>
-    <row r="89" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C89">
-        <v>100</v>
-      </c>
-      <c r="F89">
-        <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G89">
+        <f t="shared" ca="1" si="6"/>
+        <v>57.870370370370374</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ca="1" si="7"/>
+        <v>37.796447300922722</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C90">
+        <v>100</v>
+      </c>
+      <c r="F90">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C90">
-        <v>100</v>
-      </c>
-      <c r="F90">
-        <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G90">
+        <f t="shared" ca="1" si="6"/>
+        <v>53.800184304100483</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ca="1" si="7"/>
+        <v>30.151134457776362</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C91">
+        <v>100</v>
+      </c>
+      <c r="F91">
         <f t="shared" ca="1" si="5"/>
-        <v>28.717458874925878</v>
-      </c>
-    </row>
-    <row r="91" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C91">
-        <v>100</v>
-      </c>
-      <c r="F91">
-        <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="G91">
+        <f t="shared" ca="1" si="6"/>
+        <v>28.9445983115518</v>
+      </c>
+      <c r="H91">
+        <f t="shared" ca="1" si="7"/>
+        <v>14.907119849998598</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C92">
+        <v>100</v>
+      </c>
+      <c r="F92">
         <f t="shared" ca="1" si="5"/>
-        <v>29.730177875068026</v>
-      </c>
-    </row>
-    <row r="92" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C92">
-        <v>100</v>
-      </c>
-      <c r="F92">
-        <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G92">
+        <f t="shared" ca="1" si="6"/>
+        <v>31.134365916724821</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ca="1" si="7"/>
+        <v>15.617376188860607</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C93">
+        <v>100</v>
+      </c>
+      <c r="F93">
         <f t="shared" ca="1" si="5"/>
-        <v>26.794336563407327</v>
-      </c>
-    </row>
-    <row r="93" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C93">
-        <v>100</v>
-      </c>
-      <c r="F93">
-        <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G93">
+        <f t="shared" ca="1" si="6"/>
+        <v>46.498481095805708</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ca="1" si="7"/>
+        <v>22.941573387056174</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C94">
+        <v>100</v>
+      </c>
+      <c r="F94">
         <f t="shared" ca="1" si="5"/>
-        <v>14.358729437462939</v>
-      </c>
-    </row>
-    <row r="94" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C94">
-        <v>100</v>
-      </c>
-      <c r="F94">
-        <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G94">
+        <f t="shared" ca="1" si="6"/>
+        <v>47.354024139752745</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="7"/>
+        <v>23.570226039551585</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C95">
+        <v>100</v>
+      </c>
+      <c r="F95">
         <f t="shared" ca="1" si="5"/>
-        <v>35.355339059327378</v>
-      </c>
-    </row>
-    <row r="95" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C95">
-        <v>100</v>
-      </c>
-      <c r="F95">
-        <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G95">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C96">
+        <v>100</v>
+      </c>
+      <c r="F96">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C96">
-        <v>100</v>
-      </c>
-      <c r="F96">
-        <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G96">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C97">
+        <v>100</v>
+      </c>
+      <c r="F97">
         <f t="shared" ca="1" si="5"/>
-        <v>40.612619817811776</v>
-      </c>
-    </row>
-    <row r="97" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C97">
-        <v>100</v>
-      </c>
-      <c r="F97">
-        <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G97">
+        <f t="shared" ca="1" si="6"/>
+        <v>30.019522233780954</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ca="1" si="7"/>
+        <v>15.249857033260467</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C98">
+        <v>100</v>
+      </c>
+      <c r="F98">
         <f t="shared" ca="1" si="5"/>
-        <v>11.662912394210096</v>
-      </c>
-    </row>
-    <row r="98" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C98">
-        <v>100</v>
-      </c>
-      <c r="F98">
-        <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G98">
+        <f t="shared" ca="1" si="6"/>
+        <v>30.57186271511425</v>
+      </c>
+      <c r="H98">
+        <f t="shared" ca="1" si="7"/>
+        <v>15.43033499620919</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C99">
+        <v>100</v>
+      </c>
+      <c r="F99">
         <f t="shared" ca="1" si="5"/>
-        <v>25.881623096034435</v>
-      </c>
-    </row>
-    <row r="99" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C99">
-        <v>100</v>
-      </c>
-      <c r="F99">
-        <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G99">
+        <f t="shared" ca="1" si="6"/>
+        <v>40.92718686290447</v>
+      </c>
+      <c r="H99">
+        <f t="shared" ca="1" si="7"/>
+        <v>19.611613513818405</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" ht="12.75" customHeight="1">
+      <c r="C100">
+        <v>100</v>
+      </c>
+      <c r="F100">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="3:7" ht="12.75" customHeight="1">
-      <c r="C100">
-        <v>100</v>
-      </c>
-      <c r="F100">
-        <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G100">
-        <f t="shared" ca="1" si="5"/>
-        <v>14.358729437462939</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>28.421657543683658</v>
+      </c>
+      <c r="H100">
+        <f t="shared" ca="1" si="7"/>
+        <v>14.744195615489714</v>
       </c>
     </row>
   </sheetData>

--- a/decay_tests.xlsx
+++ b/decay_tests.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Popularity</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>Cooling rate:</t>
   </si>
   <si>
     <t>Krill</t>
@@ -75,10 +72,22 @@
     <t>newton_score</t>
   </si>
   <si>
-    <t>Base:</t>
+    <t>COOLING_RATE:</t>
   </si>
   <si>
-    <t>Gravity:</t>
+    <t>BASE:</t>
+  </si>
+  <si>
+    <t>GRAVITY:</t>
+  </si>
+  <si>
+    <t>OFFSET = 24</t>
+  </si>
+  <si>
+    <t>pre_decay = p*g</t>
+  </si>
+  <si>
+    <t>Some constants</t>
   </si>
 </sst>
 </file>
@@ -127,8 +136,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -148,17 +175,35 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -250,298 +295,298 @@
                   <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.0</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.0</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.0</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>63.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>61.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="21">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="89">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="97">
                   <c:v>41.0</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>49.0</c:v>
-                </c:pt>
                 <c:pt idx="98">
-                  <c:v>69.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,301 +598,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>63.3938145260609</c:v>
+                  <c:v>29078.08355116651</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.02342668053714</c:v>
+                  <c:v>731.353735348012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.02342668053714</c:v>
+                  <c:v>3905.4344045222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.0</c:v>
+                  <c:v>1223.998594219197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.70721882632573</c:v>
+                  <c:v>185.8548557431144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.88473898593941</c:v>
+                  <c:v>114933.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.02348230976452</c:v>
+                  <c:v>6867.101329251207</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.87373441997349</c:v>
+                  <c:v>80607.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.2253086419753</c:v>
+                  <c:v>63612.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.01626588236151</c:v>
+                  <c:v>3296.975602605948</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.87037037037037</c:v>
+                  <c:v>34366.42467667092</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100.0</c:v>
+                  <c:v>13781.28911603213</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100.0</c:v>
+                  <c:v>8125.024968049663</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60.01951905883381</c:v>
+                  <c:v>9406.569178809271</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.0</c:v>
+                  <c:v>676.3590595802862</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.0</c:v>
+                  <c:v>9889.127852808393</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100.0</c:v>
+                  <c:v>4382.255379009306</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.04866259159088</c:v>
+                  <c:v>1545.364794341147</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.90816472336534</c:v>
+                  <c:v>7066.228224278452</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.70721882632573</c:v>
+                  <c:v>34307.60344930572</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.2906118720873</c:v>
+                  <c:v>5952.481928604566</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29.47716086331057</c:v>
+                  <c:v>2135.456362228211</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>100.0</c:v>
+                  <c:v>526.2949964173908</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>51.87373441997349</c:v>
+                  <c:v>5182.771816324734</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100.0</c:v>
+                  <c:v>2473.341007415534</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>58.93514908258241</c:v>
+                  <c:v>42375.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>49.11262423548536</c:v>
+                  <c:v>47952.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>100.0</c:v>
+                  <c:v>1945.116897584422</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>100.0</c:v>
+                  <c:v>20496.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>100.0</c:v>
+                  <c:v>9839.055380883614</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37.36123910006978</c:v>
+                  <c:v>32680.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.68623525813711</c:v>
+                  <c:v>3820.477296656585</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>49.11262423548536</c:v>
+                  <c:v>9482.76264404856</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60.01951905883381</c:v>
+                  <c:v>2305.15133527852</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>100.0</c:v>
+                  <c:v>37206.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44.83348692008373</c:v>
+                  <c:v>706.2979396346394</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>33.48979766803841</c:v>
+                  <c:v>24849.81779542414</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45.65839510990905</c:v>
+                  <c:v>16678.14419066482</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>100.0</c:v>
+                  <c:v>22421.70289177048</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>31.70721882632573</c:v>
+                  <c:v>24429.65613339121</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>100.0</c:v>
+                  <c:v>81192.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>30.57186271511425</c:v>
+                  <c:v>19003.4723514951</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>100.0</c:v>
+                  <c:v>5349.149588523318</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>30.01952223378095</c:v>
+                  <c:v>4696.644987116301</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>28.9445983115518</c:v>
+                  <c:v>10751.01461186074</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>63.3938145260609</c:v>
+                  <c:v>52755.04635042078</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43.22811201664457</c:v>
+                  <c:v>7691.31495385135</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>100.0</c:v>
+                  <c:v>604.7464922798586</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>47.35402413975275</c:v>
+                  <c:v>19295.47507565227</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100.0</c:v>
+                  <c:v>15536.24662455447</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>100.0</c:v>
+                  <c:v>320.8184303270017</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>100.0</c:v>
+                  <c:v>6110.067677006291</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>46.49848109580571</c:v>
+                  <c:v>5193.452035159816</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>100.0</c:v>
+                  <c:v>12952.86996403214</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>48.2253086419753</c:v>
+                  <c:v>4777.609165181194</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>53.80018430410048</c:v>
+                  <c:v>4727.81208650261</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>100.0</c:v>
+                  <c:v>91868.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>49.11262423548536</c:v>
+                  <c:v>6951.06599041837</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>38.04866259159088</c:v>
+                  <c:v>8468.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>44.83348692008373</c:v>
+                  <c:v>1663.026144707743</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>58.93514908258241</c:v>
+                  <c:v>1354.524062306524</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>100.0</c:v>
+                  <c:v>42457.76010687445</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>30.57186271511425</c:v>
+                  <c:v>29896.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>100.0</c:v>
+                  <c:v>4642.622899275083</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42.4471116431672</c:v>
+                  <c:v>8301.939356900962</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43.22811201664457</c:v>
+                  <c:v>60598.56671666959</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>26.90884322673942</c:v>
+                  <c:v>5652.131501798478</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>58.93514908258241</c:v>
+                  <c:v>5401.20174853651</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>100.0</c:v>
+                  <c:v>2977.144510123065</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>53.80018430410048</c:v>
+                  <c:v>5532.419794627904</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>100.0</c:v>
+                  <c:v>2176.50116314728</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>29.47716086331057</c:v>
+                  <c:v>959.7135901802964</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>100.0</c:v>
+                  <c:v>8309.756833104004</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>100.0</c:v>
+                  <c:v>20595.10461003503</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>34.10598905242038</c:v>
+                  <c:v>27250.84330234307</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>63.3938145260609</c:v>
+                  <c:v>5155.806737880191</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>44.83348692008373</c:v>
+                  <c:v>615.0738048997153</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>100.0</c:v>
+                  <c:v>6676.482364784346</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>29.47716086331057</c:v>
+                  <c:v>29202.80863200313</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>32.88473898593941</c:v>
+                  <c:v>8728.02458521259</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>55.79817731496685</c:v>
+                  <c:v>7144.51070842189</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>61.12384076616077</c:v>
+                  <c:v>42904.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>50.93653397180064</c:v>
+                  <c:v>20396.47952878457</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>100.0</c:v>
+                  <c:v>51471.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>60.01951905883381</c:v>
+                  <c:v>14153.57754125431</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>100.0</c:v>
+                  <c:v>22354.42038413928</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>100.0</c:v>
+                  <c:v>35657.52772747423</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>57.87037037037037</c:v>
+                  <c:v>7215.80555606289</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>53.80018430410048</c:v>
+                  <c:v>21411.93193658407</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>28.9445983115518</c:v>
+                  <c:v>26948.9827404695</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>31.13436591672482</c:v>
+                  <c:v>87591.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>46.49848109580571</c:v>
+                  <c:v>4030.169547810802</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>47.35402413975275</c:v>
+                  <c:v>17544.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>100.0</c:v>
+                  <c:v>5200.401438849059</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>100.0</c:v>
+                  <c:v>10456.73862775314</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>30.01952223378095</c:v>
+                  <c:v>20423.1358318362</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>30.57186271511425</c:v>
+                  <c:v>40950.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>40.92718686290447</c:v>
+                  <c:v>1950.792511271961</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>28.42165754368366</c:v>
+                  <c:v>1548.78310109073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,298 +920,298 @@
                   <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.0</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.0</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.0</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>63.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>61.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="21">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="89">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="97">
                   <c:v>41.0</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>49.0</c:v>
-                </c:pt>
                 <c:pt idx="98">
-                  <c:v>69.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1178,301 +1223,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>70.71067811865474</c:v>
+                  <c:v>32311.24436631929</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.40776559556978</c:v>
+                  <c:v>861.6578423528307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.40776559556978</c:v>
+                  <c:v>1976.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.0</c:v>
+                  <c:v>935.621064571864</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.8113883008419</c:v>
+                  <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.22214211307626</c:v>
+                  <c:v>114933.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.32007163556104</c:v>
+                  <c:v>5949.238072400975</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.73500981126146</c:v>
+                  <c:v>80607.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.2535625036333</c:v>
+                  <c:v>63612.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.81988897471611</c:v>
+                  <c:v>2551.215581220149</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.79644730092272</c:v>
+                  <c:v>19735.77487711085</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100.0</c:v>
+                  <c:v>6806.802663512436</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100.0</c:v>
+                  <c:v>4266.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44.72135954999578</c:v>
+                  <c:v>7103.428762962024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.0</c:v>
+                  <c:v>650.3173235884335</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.0</c:v>
+                  <c:v>5839.71983972276</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100.0</c:v>
+                  <c:v>5382.818181818182</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.25741858350554</c:v>
+                  <c:v>740.2261699026154</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.58649914978946</c:v>
+                  <c:v>3577.281347742877</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.8113883008419</c:v>
+                  <c:v>25454.50342866661</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.01281538050871</c:v>
+                  <c:v>2909.278966559095</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15.07556722888818</c:v>
+                  <c:v>1356.628178423533</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>100.0</c:v>
+                  <c:v>433.360951500841</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.73500981126146</c:v>
+                  <c:v>2976.335733750478</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100.0</c:v>
+                  <c:v>2170.452036251128</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40.82482904638631</c:v>
+                  <c:v>42375.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25.0</c:v>
+                  <c:v>47952.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>100.0</c:v>
+                  <c:v>1895.168271907841</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>100.0</c:v>
+                  <c:v>20496.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>100.0</c:v>
+                  <c:v>4887.614052065815</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17.96053020267749</c:v>
+                  <c:v>32680.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17.67766952966369</c:v>
+                  <c:v>1816.471798047921</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>25.0</c:v>
+                  <c:v>8110.890396329899</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44.72135954999578</c:v>
+                  <c:v>1971.664854348309</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>100.0</c:v>
+                  <c:v>37206.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>21.82178902359924</c:v>
+                  <c:v>611.893489183586</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16.43989873053573</c:v>
+                  <c:v>12207.36980533082</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>22.36067977499789</c:v>
+                  <c:v>8045.192381611695</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>100.0</c:v>
+                  <c:v>11350.99758931907</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15.8113883008419</c:v>
+                  <c:v>18125.5670256133</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>100.0</c:v>
+                  <c:v>81192.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>15.43033499620919</c:v>
+                  <c:v>11768.02460589712</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>100.0</c:v>
+                  <c:v>4880.06161577263</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15.24985703326047</c:v>
+                  <c:v>3725.042916165226</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>14.9071198499986</c:v>
+                  <c:v>10068.18430542075</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>70.71067811865474</c:v>
+                  <c:v>34298.76406769533</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>20.85144140570748</c:v>
+                  <c:v>5407.755115074588</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>100.0</c:v>
+                  <c:v>517.2577549987849</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>23.57022603955159</c:v>
+                  <c:v>12258.16910460536</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100.0</c:v>
+                  <c:v>14352.9276920541</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>100.0</c:v>
+                  <c:v>277.9375355798683</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>100.0</c:v>
+                  <c:v>2926.708315705102</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>22.94157338705617</c:v>
+                  <c:v>4068.452647202463</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>100.0</c:v>
+                  <c:v>8600.183495971674</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>24.2535625036333</c:v>
+                  <c:v>2849.852126489573</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>30.15113445777636</c:v>
+                  <c:v>2427.042040265762</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>100.0</c:v>
+                  <c:v>91868.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>25.0</c:v>
+                  <c:v>5723.635208501674</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>18.25741858350554</c:v>
+                  <c:v>8468.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>21.82178902359924</c:v>
+                  <c:v>1335.491329020013</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>40.82482904638631</c:v>
+                  <c:v>643.673497534714</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>100.0</c:v>
+                  <c:v>24382.42567096227</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15.43033499620919</c:v>
+                  <c:v>29896.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>100.0</c:v>
+                  <c:v>3189.452240135485</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>20.41241452319315</c:v>
+                  <c:v>9646.79111255296</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>20.85144140570748</c:v>
+                  <c:v>44961.06603718377</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>14.28571428571429</c:v>
+                  <c:v>5363.233181287454</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>40.82482904638631</c:v>
+                  <c:v>4503.911343632815</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>100.0</c:v>
+                  <c:v>3230.178877455108</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>30.15113445777636</c:v>
+                  <c:v>5763.432323432712</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>100.0</c:v>
+                  <c:v>1058.729478246501</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>15.07556722888818</c:v>
+                  <c:v>510.3241805272108</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>100.0</c:v>
+                  <c:v>5167.034479605573</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>100.0</c:v>
+                  <c:v>9810.6</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>16.66666666666667</c:v>
+                  <c:v>13318.865339099</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>70.71067811865474</c:v>
+                  <c:v>3755.555555555555</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>21.82178902359924</c:v>
+                  <c:v>464.4767793673098</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>100.0</c:v>
+                  <c:v>3297.623144023586</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15.07556722888818</c:v>
+                  <c:v>14272.88951676901</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>16.22214211307626</c:v>
+                  <c:v>5103.037886605503</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>33.33333333333334</c:v>
+                  <c:v>3593.171314176831</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>50.0</c:v>
+                  <c:v>42904.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>26.72612419124244</c:v>
+                  <c:v>18842.98073554181</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>100.0</c:v>
+                  <c:v>51471.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>44.72135954999578</c:v>
+                  <c:v>6726.5155362386</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>100.0</c:v>
+                  <c:v>12837.58238921955</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>100.0</c:v>
+                  <c:v>16953.61298488848</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>37.79644730092272</c:v>
+                  <c:v>7936.579750291895</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>30.15113445777636</c:v>
+                  <c:v>10298.87380427412</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>14.9071198499986</c:v>
+                  <c:v>13051.66666666667</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>15.61737618886061</c:v>
+                  <c:v>87591.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>22.94157338705617</c:v>
+                  <c:v>2084.118998521918</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>23.57022603955159</c:v>
+                  <c:v>17544.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>100.0</c:v>
+                  <c:v>2872.900453928367</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>100.0</c:v>
+                  <c:v>9059.081055406286</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>15.24985703326047</c:v>
+                  <c:v>11385.32890546928</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>15.43033499620919</c:v>
+                  <c:v>40950.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>19.6116135138184</c:v>
+                  <c:v>964.965054059242</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>14.74419561548971</c:v>
+                  <c:v>840.6466513659768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,10 +1656,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>665691</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>640292</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30691</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -1962,103 +2007,127 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <f ca="1">D2*E2</f>
+        <v>45695</v>
       </c>
       <c r="D2">
-        <v>230</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <f ca="1">RANDBETWEEN(0,300)</f>
+        <v>247</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(100,430)</f>
+        <v>185</v>
       </c>
       <c r="F2">
         <v>25</v>
       </c>
       <c r="G2">
-        <f>IF(F2&gt;24, C2*POWER($A$6,(-$A$3*F2)), C2)</f>
-        <v>63.393814526060901</v>
+        <f ca="1">IF(F2&gt;24, C2*POWER($A$6,(-$A$3*F2)), C2)</f>
+        <v>29078.08355116651</v>
       </c>
       <c r="H2">
-        <f>IF(F2&gt;24, C2/POWER(F2-23,$A$12), C2)</f>
-        <v>70.710678118654741</v>
+        <f ca="1">IF(F2&gt;24, C2/POWER(F2-23,$A$12), C2)</f>
+        <v>32311.244366319286</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3">
-        <v>0.1</v>
+        <v>0.25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <f t="shared" ref="C3:C66" ca="1" si="1">D3*E3</f>
+        <v>9360</v>
       </c>
       <c r="D3">
-        <v>270</v>
-      </c>
-      <c r="E3" t="s">
+        <f t="shared" ref="D3:D66" ca="1" si="2">RANDBETWEEN(0,300)</f>
+        <v>78</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" ca="1" si="3">RANDBETWEEN(1,144)</f>
+        <v>141</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" ca="1" si="4">IF(F3&gt;24, C3*POWER($A$6,(-$A$3*F3)), C3)</f>
+        <v>731.35373534801192</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" ca="1" si="5">IF(F3&gt;24, C3/POWER(F3-23,$A$12), C3)</f>
+        <v>861.6578423528307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F34" ca="1" si="0">RANDBETWEEN(1,72)</f>
-        <v>56</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" ca="1" si="1">IF(F3&gt;24, C3*POWER($A$6,(-$A$3*F3)), C3)</f>
-        <v>36.023426680537142</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H66" ca="1" si="2">IF(F3&gt;24, C3/POWER(F3-23,$A$12), C3)</f>
-        <v>17.407765595569785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="C4">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7905</v>
       </c>
       <c r="D4">
-        <v>300</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>255</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="1"/>
-        <v>36.023426680537142</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3905.4344045221992</v>
       </c>
       <c r="H4">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.407765595569785</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1976.25</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
@@ -2066,139 +2135,176 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8626</v>
       </c>
       <c r="D5">
-        <f ca="1">RANDBETWEEN(100,430)</f>
-        <v>194</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>227</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <f ca="1">RANDBETWEEN(1,144)</f>
+        <v>108</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1223.998594219197</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>935.62106457186405</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6">
-        <v>1.2</v>
+        <v>1.075</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>896</v>
       </c>
       <c r="D6">
-        <v>300</v>
-      </c>
-      <c r="E6" t="s">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F69" ca="1" si="6">RANDBETWEEN(1,144)</f>
+        <v>87</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="4"/>
+        <v>185.85485574311437</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="5"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="1"/>
-        <v>31.707218826325729</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.811388300841896</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="C7">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>114933</v>
       </c>
       <c r="D7">
-        <v>270</v>
-      </c>
-      <c r="E7" t="s">
+        <f t="shared" ca="1" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>421</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="4"/>
+        <v>114933</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="5"/>
+        <v>114933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="1"/>
-        <v>32.884738985939407</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.222142113076256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="C8">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>57986</v>
       </c>
       <c r="D8">
-        <v>300</v>
-      </c>
-      <c r="E8" t="s">
+        <f t="shared" ca="1" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="6"/>
+        <v>118</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="4"/>
+        <v>6867.1013292512071</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="5"/>
+        <v>5949.2380724009754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="1"/>
-        <v>44.023482309764518</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="2"/>
-        <v>21.320071635561042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="C9">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>80607</v>
       </c>
       <c r="D9">
-        <v>400</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>277</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>291</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="1"/>
-        <v>51.873734419973495</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>80607</v>
       </c>
       <c r="H9">
-        <f t="shared" ca="1" si="2"/>
-        <v>27.735009811261456</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>80607</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="C10">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>63612</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D15" ca="1" si="3">RANDBETWEEN(100,430)</f>
-        <v>213</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E15" ca="1" si="7">RANDBETWEEN(100,430)</f>
+        <v>279</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="1"/>
-        <v>48.22530864197531</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>63612</v>
       </c>
       <c r="H10">
-        <f t="shared" ca="1" si="2"/>
-        <v>24.253562503633297</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>63612</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
@@ -2206,23 +2312,28 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>23659</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="3"/>
-        <v>132</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>401</v>
       </c>
       <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>109</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="1"/>
-        <v>50.016265882361509</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3296.9756026059476</v>
       </c>
       <c r="H11">
-        <f t="shared" ca="1" si="2"/>
-        <v>25.819888974716111</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2551.2155812201495</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
@@ -2230,1569 +2341,2325 @@
         <v>0.5</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>62410</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="3"/>
-        <v>308</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>395</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>33</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="1"/>
-        <v>57.870370370370374</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34366.424676670918</v>
       </c>
       <c r="H12">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.796447300922722</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>19735.774877110853</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="C13">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43050</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="3"/>
-        <v>264</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>246</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13781.289116032129</v>
       </c>
       <c r="H13">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6806.8026635124361</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="C14">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>29866</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="3"/>
-        <v>306</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>274</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8125.0249680496636</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4266.5714285714284</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="C15">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>65104</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="3"/>
-        <v>275</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>208</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>313</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="4"/>
+        <v>9406.5691788092718</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="5"/>
+        <v>7103.4287629620239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="1"/>
+        <v>6600</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="4"/>
+        <v>676.35905958028616</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="5"/>
+        <v>650.31732358843351</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="12.75" customHeight="1">
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>45982</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="4"/>
+        <v>9889.1278528083931</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="5"/>
+        <v>5839.7198397227594</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="12.75" customHeight="1">
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>59211</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>387</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="4"/>
+        <v>4382.2553790093061</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="5"/>
+        <v>5382.818181818182</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="12.75" customHeight="1">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>3550</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="4"/>
+        <v>1545.3647943411465</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="5"/>
+        <v>740.22616990261542</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="12.75" customHeight="1">
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>23729</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>389</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="4"/>
+        <v>7066.2282242784522</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="5"/>
+        <v>3577.2813477428767</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="12.75" customHeight="1">
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>56918</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="6"/>
         <v>28</v>
       </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="1"/>
-        <v>60.019519058833815</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="2"/>
-        <v>44.721359549995789</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16">
-        <v>300</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G21">
+        <f t="shared" ca="1" si="4"/>
+        <v>34307.603449305716</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="5"/>
+        <v>25454.503428666605</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="12.75" customHeight="1">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>17934</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>427</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="4"/>
+        <v>5952.4819286045658</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="5"/>
+        <v>2909.2789665590954</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="12.75" customHeight="1">
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>11269</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="4"/>
+        <v>2135.4563622282112</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1356.6281784235332</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="12.75" customHeight="1">
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4134</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="4"/>
+        <v>526.29499641739085</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="5"/>
+        <v>433.36095150084105</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="12.75" customHeight="1">
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>9412</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>362</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="4"/>
+        <v>5182.7718163247337</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="5"/>
+        <v>2976.3357337504785</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="12.75" customHeight="1">
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>21266</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>343</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="4"/>
+        <v>2473.3410074155345</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="5"/>
+        <v>2170.452036251128</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="12.75" customHeight="1">
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>42375</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>339</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="4"/>
+        <v>42375</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="5"/>
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="12.75" customHeight="1">
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>47952</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>296</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="12.75" customHeight="1">
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <f ca="1">RANDBETWEEN(100,430)</f>
-        <v>184</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="12.75" customHeight="1">
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <f ca="1">RANDBETWEEN(100,430)</f>
-        <v>202</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="12.75" customHeight="1">
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <v>200</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="1"/>
-        <v>38.048662591590876</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.257418583505537</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="12.75" customHeight="1">
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <f ca="1">RANDBETWEEN(100,430)</f>
-        <v>365</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="1"/>
-        <v>27.908164723365342</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.586499149789455</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="12.75" customHeight="1">
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <f ca="1">RANDBETWEEN(100,430)</f>
-        <v>169</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="1"/>
-        <v>31.707218826325729</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.811388300841896</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="12.75" customHeight="1">
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>300</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ca="1" si="1"/>
-        <v>32.290611872087304</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.012815380508712</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="12.75" customHeight="1">
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <f ca="1">RANDBETWEEN(100,430)</f>
-        <v>106</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.477160863310566</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.075567228888181</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="12.75" customHeight="1">
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H24">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="12.75" customHeight="1">
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="1"/>
-        <v>51.873734419973495</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ca="1" si="2"/>
-        <v>27.735009811261456</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="12.75" customHeight="1">
-      <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H26">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="12.75" customHeight="1">
-      <c r="C27">
-        <v>100</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ca="1" si="1"/>
-        <v>58.935149082582413</v>
-      </c>
-      <c r="H27">
-        <f t="shared" ca="1" si="2"/>
-        <v>40.824829046386306</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="12.75" customHeight="1">
-      <c r="C28">
-        <v>100</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
       <c r="G28">
-        <f t="shared" ca="1" si="1"/>
-        <v>49.112624235485356</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>47952</v>
       </c>
       <c r="H28">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>47952</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="12.75" customHeight="1">
       <c r="C29">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19327</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>251</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>127</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1945.1168975844221</v>
       </c>
       <c r="H29">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>1895.1682719078415</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="12.75" customHeight="1">
       <c r="C30">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20496</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="0"/>
+        <v>168</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20496</v>
       </c>
       <c r="H30">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>20496</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="12.75" customHeight="1">
       <c r="C31">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>31296</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="0"/>
+        <v>163</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
       </c>
       <c r="G31">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9839.0553808836139</v>
       </c>
       <c r="H31">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>4887.6140520658155</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="12.75" customHeight="1">
       <c r="C32">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>32680</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="0"/>
+        <v>344</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="1"/>
-        <v>37.361239100069781</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>32680</v>
       </c>
       <c r="H32">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.960530202677493</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>32680</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="12.75" customHeight="1">
       <c r="C33">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9782</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="0"/>
+        <v>134</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
       </c>
       <c r="G33">
-        <f t="shared" ca="1" si="1"/>
-        <v>36.68623525813711</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3820.4772966565856</v>
       </c>
       <c r="H33">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.677669529663685</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1816.4717980479213</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="12.75" customHeight="1">
       <c r="C34">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>78638</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>287</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="0"/>
+        <v>274</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>117</v>
       </c>
       <c r="G34">
-        <f t="shared" ca="1" si="1"/>
-        <v>49.112624235485356</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9482.7626440485601</v>
       </c>
       <c r="H34">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8110.890396329899</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="12.75" customHeight="1">
       <c r="C35">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19116</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="0"/>
+        <v>354</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F66" ca="1" si="4">RANDBETWEEN(1,72)</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>117</v>
       </c>
       <c r="G35">
-        <f t="shared" ca="1" si="1"/>
-        <v>60.019519058833815</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2305.1513352785205</v>
       </c>
       <c r="H35">
-        <f t="shared" ca="1" si="2"/>
-        <v>44.721359549995789</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1971.6648543483093</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="12.75" customHeight="1">
       <c r="C36">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37206</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="0"/>
+        <v>234</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="G36">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>37206</v>
       </c>
       <c r="H36">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>37206</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="12.75" customHeight="1">
       <c r="C37">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5964</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="0"/>
+        <v>426</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>118</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="1"/>
-        <v>44.833486920083729</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>706.29793963463942</v>
       </c>
       <c r="H37">
-        <f t="shared" ca="1" si="2"/>
-        <v>21.821789023599241</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>611.89348918358598</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="12.75" customHeight="1">
       <c r="C38">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>76235</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="0"/>
+        <v>395</v>
       </c>
       <c r="F38">
-        <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
       </c>
       <c r="G38">
-        <f t="shared" ca="1" si="1"/>
-        <v>33.489797668038413</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>24849.817795424136</v>
       </c>
       <c r="H38">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.439898730535731</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12207.369805330818</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="12.75" customHeight="1">
       <c r="C39">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>47596</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="0"/>
+        <v>163</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="1"/>
-        <v>45.658395109909058</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16678.144190664825</v>
       </c>
       <c r="H39">
-        <f t="shared" ca="1" si="2"/>
-        <v>22.360679774997894</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8045.1923816116951</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="12.75" customHeight="1">
       <c r="C40">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>75294</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
+        <v>282</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="0"/>
+        <v>267</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>22421.702891770481</v>
       </c>
       <c r="H40">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>11350.997589319068</v>
       </c>
     </row>
     <row r="41" spans="3:8" ht="12.75" customHeight="1">
       <c r="C41">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>40530</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="0"/>
+        <v>193</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>28</v>
       </c>
       <c r="G41">
-        <f t="shared" ca="1" si="1"/>
-        <v>31.707218826325729</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>24429.656133391207</v>
       </c>
       <c r="H41">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.811388300841896</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>18125.567025613294</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="12.75" customHeight="1">
       <c r="C42">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>81192</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
+        <v>199</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="0"/>
+        <v>408</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
       </c>
       <c r="G42">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>81192</v>
       </c>
       <c r="H42">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>81192</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="12.75" customHeight="1">
       <c r="C43">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33285</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="0"/>
+        <v>317</v>
       </c>
       <c r="F43">
-        <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>31</v>
       </c>
       <c r="G43">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.57186271511425</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19003.472351495104</v>
       </c>
       <c r="H43">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.43033499620919</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>11768.024605897117</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="12.75" customHeight="1">
       <c r="C44">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>48556</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="0"/>
+        <v>398</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>122</v>
       </c>
       <c r="G44">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5349.149588523318</v>
       </c>
       <c r="H44">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4880.0616157726299</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="12.75" customHeight="1">
       <c r="C45">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>34944</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="0"/>
+        <v>416</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>111</v>
       </c>
       <c r="G45">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.019522233780954</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4696.6449871163013</v>
       </c>
       <c r="H45">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.249857033260467</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3725.0429161652255</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="12.75" customHeight="1">
       <c r="C46">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>101184</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="2"/>
+        <v>272</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="0"/>
+        <v>372</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>124</v>
       </c>
       <c r="G46">
-        <f t="shared" ca="1" si="1"/>
-        <v>28.9445983115518</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10751.014611860743</v>
       </c>
       <c r="H46">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.907119849998598</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10068.184305420755</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="12.75" customHeight="1">
       <c r="C47">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>90746</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="2"/>
+        <v>289</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="0"/>
+        <v>314</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>30</v>
       </c>
       <c r="G47">
-        <f t="shared" ca="1" si="1"/>
-        <v>63.393814526060901</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>52755.046350420787</v>
       </c>
       <c r="H47">
-        <f t="shared" ca="1" si="2"/>
-        <v>70.710678118654741</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>34298.764067695331</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="12.75" customHeight="1">
       <c r="C48">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>47760</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="0"/>
+        <v>199</v>
       </c>
       <c r="F48">
-        <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>101</v>
       </c>
       <c r="G48">
-        <f t="shared" ca="1" si="1"/>
-        <v>43.228112016644573</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7691.3149538513499</v>
       </c>
       <c r="H48">
-        <f t="shared" ca="1" si="2"/>
-        <v>20.85144140570748</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5407.7551150745885</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="12.75" customHeight="1">
       <c r="C49">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5015</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="0"/>
+        <v>295</v>
       </c>
       <c r="F49">
-        <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>117</v>
       </c>
       <c r="G49">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>604.74649227985867</v>
       </c>
       <c r="H49">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>517.25775499878489</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="12.75" customHeight="1">
       <c r="C50">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>101824</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="2"/>
+        <v>296</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="0"/>
+        <v>344</v>
       </c>
       <c r="F50">
-        <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
       </c>
       <c r="G50">
-        <f t="shared" ca="1" si="1"/>
-        <v>47.354024139752745</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19295.475075652266</v>
       </c>
       <c r="H50">
-        <f t="shared" ca="1" si="2"/>
-        <v>23.570226039551585</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12258.169104605364</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="12.75" customHeight="1">
       <c r="C51">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>24860</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="0"/>
+        <v>220</v>
       </c>
       <c r="F51">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26</v>
       </c>
       <c r="G51">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15536.246624554473</v>
       </c>
       <c r="H51">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>14352.927692054098</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="12.75" customHeight="1">
       <c r="C52">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2709</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="0"/>
+        <v>387</v>
       </c>
       <c r="F52">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>118</v>
       </c>
       <c r="G52">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>320.81843032700169</v>
       </c>
       <c r="H52">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>277.93753557986827</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="12.75" customHeight="1">
       <c r="C53">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>14036</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="0"/>
+        <v>319</v>
       </c>
       <c r="F53">
-        <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>46</v>
       </c>
       <c r="G53">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6110.067677006291</v>
       </c>
       <c r="H53">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2926.7083157051015</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="12.75" customHeight="1">
       <c r="C54">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37948</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="0"/>
+        <v>358</v>
       </c>
       <c r="F54">
-        <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>110</v>
       </c>
       <c r="G54">
-        <f t="shared" ca="1" si="1"/>
-        <v>46.498481095805708</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5193.4520351598167</v>
       </c>
       <c r="H54">
-        <f t="shared" ca="1" si="2"/>
-        <v>22.941573387056174</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4068.4526472024636</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="12.75" customHeight="1">
       <c r="C55">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>73480</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="0"/>
+        <v>334</v>
       </c>
       <c r="F55">
-        <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
       </c>
       <c r="G55">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12952.869964032136</v>
       </c>
       <c r="H55">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8600.1834959716743</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="12.75" customHeight="1">
       <c r="C56">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>22620</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="0"/>
+        <v>156</v>
       </c>
       <c r="F56">
-        <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
       </c>
       <c r="G56">
-        <f t="shared" ca="1" si="1"/>
-        <v>48.22530864197531</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4777.6091651811948</v>
       </c>
       <c r="H56">
-        <f t="shared" ca="1" si="2"/>
-        <v>24.253562503633297</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2849.852126489573</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="12.75" customHeight="1">
       <c r="C57">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16461</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="0"/>
+        <v>279</v>
       </c>
       <c r="F57">
-        <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
       </c>
       <c r="G57">
-        <f t="shared" ca="1" si="1"/>
-        <v>53.800184304100483</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4727.8120865026103</v>
       </c>
       <c r="H57">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.151134457776362</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2427.0420402657619</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="12.75" customHeight="1">
       <c r="C58">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>91868</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="0"/>
+        <v>386</v>
       </c>
       <c r="F58">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
       </c>
       <c r="G58">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>91868</v>
       </c>
       <c r="H58">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>91868</v>
       </c>
     </row>
     <row r="59" spans="3:8" ht="12.75" customHeight="1">
       <c r="C59">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>54600</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="0"/>
+        <v>364</v>
       </c>
       <c r="F59">
-        <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>114</v>
       </c>
       <c r="G59">
-        <f t="shared" ca="1" si="1"/>
-        <v>49.112624235485356</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6951.0659904183703</v>
       </c>
       <c r="H59">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5723.6352085016742</v>
       </c>
     </row>
     <row r="60" spans="3:8" ht="12.75" customHeight="1">
       <c r="C60">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8468</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="0"/>
+        <v>116</v>
       </c>
       <c r="F60">
-        <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="G60">
-        <f t="shared" ca="1" si="1"/>
-        <v>38.048662591590876</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8468</v>
       </c>
       <c r="H60">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.257418583505537</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8468</v>
       </c>
     </row>
     <row r="61" spans="3:8" ht="12.75" customHeight="1">
       <c r="C61">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>12599</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="0"/>
+        <v>293</v>
       </c>
       <c r="F61">
-        <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>112</v>
       </c>
       <c r="G61">
-        <f t="shared" ca="1" si="1"/>
-        <v>44.833486920083729</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1663.026144707743</v>
       </c>
       <c r="H61">
-        <f t="shared" ca="1" si="2"/>
-        <v>21.821789023599241</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1335.4913290200129</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="12.75" customHeight="1">
       <c r="C62">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3406</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="0"/>
+        <v>131</v>
       </c>
       <c r="F62">
-        <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>51</v>
       </c>
       <c r="G62">
-        <f t="shared" ca="1" si="1"/>
-        <v>58.935149082582413</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1354.5240623065242</v>
       </c>
       <c r="H62">
-        <f t="shared" ca="1" si="2"/>
-        <v>40.824829046386306</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>643.67349753471399</v>
       </c>
     </row>
     <row r="63" spans="3:8" ht="12.75" customHeight="1">
       <c r="C63">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>77104</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="2"/>
+        <v>244</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="0"/>
+        <v>316</v>
       </c>
       <c r="F63">
-        <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>33</v>
       </c>
       <c r="G63">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>42457.760106874448</v>
       </c>
       <c r="H63">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>24382.425670962271</v>
       </c>
     </row>
     <row r="64" spans="3:8" ht="12.75" customHeight="1">
       <c r="C64">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>29896</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="0"/>
+        <v>296</v>
       </c>
       <c r="F64">
-        <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="G64">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.57186271511425</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>29896</v>
       </c>
       <c r="H64">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.43033499620919</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>29896</v>
       </c>
     </row>
     <row r="65" spans="3:8" ht="12.75" customHeight="1">
       <c r="C65">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>27805</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="0"/>
+        <v>335</v>
       </c>
       <c r="F65">
-        <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>99</v>
       </c>
       <c r="G65">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4642.622899275083</v>
       </c>
       <c r="H65">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3189.4522401354848</v>
       </c>
     </row>
     <row r="66" spans="3:8" ht="12.75" customHeight="1">
       <c r="C66">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>104346</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="2"/>
+        <v>279</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:E100" ca="1" si="8">RANDBETWEEN(100,430)</f>
+        <v>374</v>
       </c>
       <c r="F66">
-        <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>140</v>
       </c>
       <c r="G66">
-        <f t="shared" ca="1" si="1"/>
-        <v>42.447111643167204</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8301.9393569009626</v>
       </c>
       <c r="H66">
-        <f t="shared" ca="1" si="2"/>
-        <v>20.412414523193153</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9646.791112552959</v>
       </c>
     </row>
     <row r="67" spans="3:8" ht="12.75" customHeight="1">
       <c r="C67">
-        <v>100</v>
+        <f t="shared" ref="C67:C100" ca="1" si="9">D67*E67</f>
+        <v>100536</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D100" ca="1" si="10">RANDBETWEEN(0,300)</f>
+        <v>236</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="8"/>
+        <v>426</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F100" ca="1" si="5">RANDBETWEEN(1,72)</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>28</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G100" ca="1" si="6">IF(F67&gt;24, C67*POWER($A$6,(-$A$3*F67)), C67)</f>
-        <v>43.228112016644573</v>
+        <f t="shared" ref="G67:G100" ca="1" si="11">IF(F67&gt;24, C67*POWER($A$6,(-$A$3*F67)), C67)</f>
+        <v>60598.566716669586</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H100" ca="1" si="7">IF(F67&gt;24, C67/POWER(F67-23,$A$12), C67)</f>
-        <v>20.85144140570748</v>
+        <f t="shared" ref="H67:H100" ca="1" si="12">IF(F67&gt;24, C67/POWER(F67-23,$A$12), C67)</f>
+        <v>44961.066037183766</v>
       </c>
     </row>
     <row r="68" spans="3:8" ht="12.75" customHeight="1">
       <c r="C68">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>54166</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="10"/>
+        <v>146</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="8"/>
+        <v>371</v>
       </c>
       <c r="F68">
-        <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>125</v>
       </c>
       <c r="G68">
-        <f t="shared" ca="1" si="6"/>
-        <v>26.908843226739421</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5652.1315017984789</v>
       </c>
       <c r="H68">
-        <f t="shared" ca="1" si="7"/>
-        <v>14.285714285714286</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5363.2331812874545</v>
       </c>
     </row>
     <row r="69" spans="3:8" ht="12.75" customHeight="1">
       <c r="C69">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43200</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="10"/>
+        <v>240</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="8"/>
+        <v>180</v>
       </c>
       <c r="F69">
-        <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>115</v>
       </c>
       <c r="G69">
-        <f t="shared" ca="1" si="6"/>
-        <v>58.935149082582413</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5401.2017485365095</v>
       </c>
       <c r="H69">
-        <f t="shared" ca="1" si="7"/>
-        <v>40.824829046386306</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>4503.9113436328153</v>
       </c>
     </row>
     <row r="70" spans="3:8" ht="12.75" customHeight="1">
       <c r="C70">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>34185</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="10"/>
+        <v>215</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="8"/>
+        <v>159</v>
       </c>
       <c r="F70">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ref="F70:F100" ca="1" si="13">RANDBETWEEN(1,144)</f>
+        <v>135</v>
       </c>
       <c r="G70">
-        <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2977.1445101230652</v>
       </c>
       <c r="H70">
-        <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3230.1788774551082</v>
       </c>
     </row>
     <row r="71" spans="3:8" ht="12.75" customHeight="1">
       <c r="C71">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60172</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="10"/>
+        <v>196</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="8"/>
+        <v>307</v>
       </c>
       <c r="F71">
-        <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>132</v>
       </c>
       <c r="G71">
-        <f t="shared" ca="1" si="6"/>
-        <v>53.800184304100483</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5532.4197946279037</v>
       </c>
       <c r="H71">
-        <f t="shared" ca="1" si="7"/>
-        <v>30.151134457776362</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5763.4323234327121</v>
       </c>
     </row>
     <row r="72" spans="3:8" ht="12.75" customHeight="1">
       <c r="C72">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>6440</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="8"/>
+        <v>280</v>
       </c>
       <c r="F72">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>60</v>
       </c>
       <c r="G72">
-        <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2176.5011631472794</v>
       </c>
       <c r="H72">
-        <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1058.729478246501</v>
       </c>
     </row>
     <row r="73" spans="3:8" ht="12.75" customHeight="1">
       <c r="C73">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1840</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="8"/>
+        <v>230</v>
       </c>
       <c r="F73">
-        <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>36</v>
       </c>
       <c r="G73">
-        <f t="shared" ca="1" si="6"/>
-        <v>29.477160863310566</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>959.71359018029648</v>
       </c>
       <c r="H73">
-        <f t="shared" ca="1" si="7"/>
-        <v>15.075567228888181</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>510.32418052721084</v>
       </c>
     </row>
     <row r="74" spans="3:8" ht="12.75" customHeight="1">
       <c r="C74">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>42294</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="10"/>
+        <v>114</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="8"/>
+        <v>371</v>
       </c>
       <c r="F74">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
       </c>
       <c r="G74">
-        <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>8309.7568331040038</v>
       </c>
       <c r="H74">
-        <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5167.0344796055733</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="12.75" customHeight="1">
       <c r="C75">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>49053</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="10"/>
+        <v>197</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="8"/>
+        <v>249</v>
       </c>
       <c r="F75">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>48</v>
       </c>
       <c r="G75">
-        <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>20595.104610035029</v>
       </c>
       <c r="H75">
-        <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>9810.6</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="12.75" customHeight="1">
       <c r="C76">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>82103</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="10"/>
+        <v>259</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="8"/>
+        <v>317</v>
       </c>
       <c r="F76">
-        <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>61</v>
       </c>
       <c r="G76">
-        <f t="shared" ca="1" si="6"/>
-        <v>34.105989052420384</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>27250.843302343073</v>
       </c>
       <c r="H76">
-        <f t="shared" ca="1" si="7"/>
-        <v>16.666666666666668</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>13318.865339098998</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="12.75" customHeight="1">
       <c r="C77">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>33800</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="10"/>
+        <v>104</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="8"/>
+        <v>325</v>
       </c>
       <c r="F77">
-        <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>104</v>
       </c>
       <c r="G77">
-        <f t="shared" ca="1" si="6"/>
-        <v>63.393814526060901</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5155.8067378801907</v>
       </c>
       <c r="H77">
-        <f t="shared" ca="1" si="7"/>
-        <v>70.710678118654741</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3755.5555555555557</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="12.75" customHeight="1">
       <c r="C78">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>4257</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="8"/>
+        <v>387</v>
       </c>
       <c r="F78">
-        <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>107</v>
       </c>
       <c r="G78">
-        <f t="shared" ca="1" si="6"/>
-        <v>44.833486920083729</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>615.07380489971536</v>
       </c>
       <c r="H78">
-        <f t="shared" ca="1" si="7"/>
-        <v>21.821789023599241</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>464.4767793673098</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="12.75" customHeight="1">
       <c r="C79">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>20856</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="10"/>
+        <v>66</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="8"/>
+        <v>316</v>
       </c>
       <c r="F79">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>63</v>
       </c>
       <c r="G79">
-        <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>6676.4823647843459</v>
       </c>
       <c r="H79">
-        <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3297.6231440235856</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="12.75" customHeight="1">
       <c r="C80">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>87984</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="10"/>
+        <v>282</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="8"/>
+        <v>312</v>
       </c>
       <c r="F80">
-        <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>61</v>
       </c>
       <c r="G80">
-        <f t="shared" ca="1" si="6"/>
-        <v>29.477160863310566</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>29202.808632003129</v>
       </c>
       <c r="H80">
-        <f t="shared" ca="1" si="7"/>
-        <v>15.075567228888181</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>14272.889516769012</v>
       </c>
     </row>
     <row r="81" spans="3:8" ht="12.75" customHeight="1">
       <c r="C81">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>39856</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="10"/>
+        <v>94</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="8"/>
+        <v>424</v>
       </c>
       <c r="F81">
-        <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>84</v>
       </c>
       <c r="G81">
-        <f t="shared" ca="1" si="6"/>
-        <v>32.884738985939407</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>8728.02458521259</v>
       </c>
       <c r="H81">
-        <f t="shared" ca="1" si="7"/>
-        <v>16.222142113076256</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5103.0378866055025</v>
       </c>
     </row>
     <row r="82" spans="3:8" ht="12.75" customHeight="1">
       <c r="C82">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>23562</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="10"/>
+        <v>231</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="8"/>
+        <v>102</v>
       </c>
       <c r="F82">
-        <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>66</v>
       </c>
       <c r="G82">
-        <f t="shared" ca="1" si="6"/>
-        <v>55.798177314966857</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>7144.5107084218907</v>
       </c>
       <c r="H82">
-        <f t="shared" ca="1" si="7"/>
-        <v>33.333333333333336</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3593.1713141768314</v>
       </c>
     </row>
     <row r="83" spans="3:8" ht="12.75" customHeight="1">
       <c r="C83">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>42904</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="10"/>
+        <v>248</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="8"/>
+        <v>173</v>
       </c>
       <c r="F83">
-        <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>23</v>
       </c>
       <c r="G83">
-        <f t="shared" ca="1" si="6"/>
-        <v>61.123840766160775</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>42904</v>
       </c>
       <c r="H83">
-        <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>42904</v>
       </c>
     </row>
     <row r="84" spans="3:8" ht="12.75" customHeight="1">
       <c r="C84">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>32637</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="10"/>
+        <v>129</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="8"/>
+        <v>253</v>
       </c>
       <c r="F84">
-        <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>26</v>
       </c>
       <c r="G84">
-        <f t="shared" ca="1" si="6"/>
-        <v>50.936533971800642</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>20396.479528784566</v>
       </c>
       <c r="H84">
-        <f t="shared" ca="1" si="7"/>
-        <v>26.726124191242437</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>18842.980735541816</v>
       </c>
     </row>
     <row r="85" spans="3:8" ht="12.75" customHeight="1">
       <c r="C85">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>51471</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="10"/>
+        <v>171</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="8"/>
+        <v>301</v>
       </c>
       <c r="F85">
-        <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
       </c>
       <c r="G85">
-        <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>51471</v>
       </c>
       <c r="H85">
-        <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>51471</v>
       </c>
     </row>
     <row r="86" spans="3:8" ht="12.75" customHeight="1">
       <c r="C86">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>34952</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="10"/>
+        <v>257</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="8"/>
+        <v>136</v>
       </c>
       <c r="F86">
-        <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>50</v>
       </c>
       <c r="G86">
-        <f t="shared" ca="1" si="6"/>
-        <v>60.019519058833815</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>14153.577541254308</v>
       </c>
       <c r="H86">
-        <f t="shared" ca="1" si="7"/>
-        <v>44.721359549995789</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>6726.5155362385995</v>
       </c>
     </row>
     <row r="87" spans="3:8" ht="12.75" customHeight="1">
       <c r="C87">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>40596</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="10"/>
+        <v>199</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="8"/>
+        <v>204</v>
       </c>
       <c r="F87">
-        <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>33</v>
       </c>
       <c r="G87">
-        <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>22354.420384139281</v>
       </c>
       <c r="H87">
-        <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>12837.582389219551</v>
       </c>
     </row>
     <row r="88" spans="3:8" ht="12.75" customHeight="1">
       <c r="C88">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>91298</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="10"/>
+        <v>239</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="8"/>
+        <v>382</v>
       </c>
       <c r="F88">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>52</v>
       </c>
       <c r="G88">
-        <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>35657.527727474233</v>
       </c>
       <c r="H88">
-        <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>16953.612984888481</v>
       </c>
     </row>
     <row r="89" spans="3:8" ht="12.75" customHeight="1">
       <c r="C89">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>84367</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="10"/>
+        <v>239</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="8"/>
+        <v>353</v>
       </c>
       <c r="F89">
-        <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>136</v>
       </c>
       <c r="G89">
-        <f t="shared" ca="1" si="6"/>
-        <v>57.870370370370374</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>7215.80555606289</v>
       </c>
       <c r="H89">
-        <f t="shared" ca="1" si="7"/>
-        <v>37.796447300922722</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7936.5797502918949</v>
       </c>
     </row>
     <row r="90" spans="3:8" ht="12.75" customHeight="1">
       <c r="C90">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>48306</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="10"/>
+        <v>291</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="8"/>
+        <v>166</v>
       </c>
       <c r="F90">
-        <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>45</v>
       </c>
       <c r="G90">
-        <f t="shared" ca="1" si="6"/>
-        <v>53.800184304100483</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>21411.931936584075</v>
       </c>
       <c r="H90">
-        <f t="shared" ca="1" si="7"/>
-        <v>30.151134457776362</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>10298.873804274117</v>
       </c>
     </row>
     <row r="91" spans="3:8" ht="12.75" customHeight="1">
       <c r="C91">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>78310</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="10"/>
+        <v>191</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="8"/>
+        <v>410</v>
       </c>
       <c r="F91">
-        <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>59</v>
       </c>
       <c r="G91">
-        <f t="shared" ca="1" si="6"/>
-        <v>28.9445983115518</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>26948.982740469495</v>
       </c>
       <c r="H91">
-        <f t="shared" ca="1" si="7"/>
-        <v>14.907119849998598</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>13051.666666666666</v>
       </c>
     </row>
     <row r="92" spans="3:8" ht="12.75" customHeight="1">
       <c r="C92">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>87591</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="10"/>
+        <v>291</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="8"/>
+        <v>301</v>
       </c>
       <c r="F92">
-        <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>24</v>
       </c>
       <c r="G92">
-        <f t="shared" ca="1" si="6"/>
-        <v>31.134365916724821</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>87591</v>
       </c>
       <c r="H92">
-        <f t="shared" ca="1" si="7"/>
-        <v>15.617376188860607</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>87591</v>
       </c>
     </row>
     <row r="93" spans="3:8" ht="12.75" customHeight="1">
       <c r="C93">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>14288</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="8"/>
+        <v>304</v>
       </c>
       <c r="F93">
-        <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>70</v>
       </c>
       <c r="G93">
-        <f t="shared" ca="1" si="6"/>
-        <v>46.498481095805708</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>4030.1695478108018</v>
       </c>
       <c r="H93">
-        <f t="shared" ca="1" si="7"/>
-        <v>22.941573387056174</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2084.1189985219175</v>
       </c>
     </row>
     <row r="94" spans="3:8" ht="12.75" customHeight="1">
       <c r="C94">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>17544</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="10"/>
+        <v>136</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="8"/>
+        <v>129</v>
       </c>
       <c r="F94">
-        <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>21</v>
       </c>
       <c r="G94">
-        <f t="shared" ca="1" si="6"/>
-        <v>47.354024139752745</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>17544</v>
       </c>
       <c r="H94">
-        <f t="shared" ca="1" si="7"/>
-        <v>23.570226039551585</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>17544</v>
       </c>
     </row>
     <row r="95" spans="3:8" ht="12.75" customHeight="1">
       <c r="C95">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>21306</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="10"/>
+        <v>53</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="8"/>
+        <v>402</v>
       </c>
       <c r="F95">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>78</v>
       </c>
       <c r="G95">
-        <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5200.4014388490586</v>
       </c>
       <c r="H95">
-        <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2872.9004539283674</v>
       </c>
     </row>
     <row r="96" spans="3:8" ht="12.75" customHeight="1">
       <c r="C96">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>88297</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="10"/>
+        <v>253</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="8"/>
+        <v>349</v>
       </c>
       <c r="F96">
-        <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>118</v>
       </c>
       <c r="G96">
-        <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>10456.738627753144</v>
       </c>
       <c r="H96">
-        <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>9059.0810554062864</v>
       </c>
     </row>
     <row r="97" spans="3:8" ht="12.75" customHeight="1">
       <c r="C97">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>85200</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="10"/>
+        <v>284</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="8"/>
+        <v>300</v>
       </c>
       <c r="F97">
-        <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>79</v>
       </c>
       <c r="G97">
-        <f t="shared" ca="1" si="6"/>
-        <v>30.019522233780954</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>20423.1358318362</v>
       </c>
       <c r="H97">
-        <f t="shared" ca="1" si="7"/>
-        <v>15.249857033260467</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>11385.32890546928</v>
       </c>
     </row>
     <row r="98" spans="3:8" ht="12.75" customHeight="1">
       <c r="C98">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>40950</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="8"/>
+        <v>273</v>
       </c>
       <c r="F98">
-        <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
       </c>
       <c r="G98">
-        <f t="shared" ca="1" si="6"/>
-        <v>30.57186271511425</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>40950</v>
       </c>
       <c r="H98">
-        <f t="shared" ca="1" si="7"/>
-        <v>15.43033499620919</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>40950</v>
       </c>
     </row>
     <row r="99" spans="3:8" ht="12.75" customHeight="1">
       <c r="C99">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>4094</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="8"/>
+        <v>178</v>
       </c>
       <c r="F99">
-        <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>41</v>
       </c>
       <c r="G99">
-        <f t="shared" ca="1" si="6"/>
-        <v>40.92718686290447</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1950.7925112719608</v>
       </c>
       <c r="H99">
-        <f t="shared" ca="1" si="7"/>
-        <v>19.611613513818405</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>964.96505405924199</v>
       </c>
     </row>
     <row r="100" spans="3:8" ht="12.75" customHeight="1">
       <c r="C100">
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>6120</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="8"/>
+        <v>360</v>
       </c>
       <c r="F100">
-        <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>76</v>
       </c>
       <c r="G100">
-        <f t="shared" ca="1" si="6"/>
-        <v>28.421657543683658</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1548.78310109073</v>
       </c>
       <c r="H100">
-        <f t="shared" ca="1" si="7"/>
-        <v>14.744195615489714</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>840.64665136597682</v>
       </c>
     </row>
   </sheetData>

--- a/decay_tests.xlsx
+++ b/decay_tests.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="random numbers" sheetId="1" r:id="rId1"/>
+    <sheet name="zumic data" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="NamedRange1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="NamedRange1" localSheetId="1">'zumic data'!$A$1:$F$1</definedName>
+    <definedName name="NamedRange1">'random numbers'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Popularity</t>
   </si>
@@ -31,9 +34,6 @@
   </si>
   <si>
     <t>Story</t>
-  </si>
-  <si>
-    <t>Age</t>
   </si>
   <si>
     <t>Krill</t>
@@ -89,6 +89,12 @@
   <si>
     <t>Some constants</t>
   </si>
+  <si>
+    <t>Age (hours)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
@@ -136,8 +142,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -175,7 +195,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -190,6 +210,13 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -204,6 +231,13 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -257,7 +291,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>'random numbers'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -287,7 +321,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$100</c:f>
+              <c:f>'random numbers'!$F$2:$F$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
@@ -295,604 +329,604 @@
                   <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>141.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="37">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>108.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>118.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>109.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>107.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>144.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>114.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>119.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="81">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="84">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>17.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>117.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>117.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>118.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="89">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>31.0</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>122.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>124.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>101.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>117.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>118.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="95">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>96.0</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>114.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>135.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>104.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>107.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>136.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>118.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>41.0</c:v>
-                </c:pt>
                 <c:pt idx="98">
-                  <c:v>76.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$100</c:f>
+              <c:f>'random numbers'!$G$2:$G$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>29078.08355116651</c:v>
+                  <c:v>27221.20976186125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>731.353735348012</c:v>
+                  <c:v>33255.85628162923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3905.4344045222</c:v>
+                  <c:v>7607.41230287506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1223.998594219197</c:v>
+                  <c:v>4796.820668244447</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.8548557431144</c:v>
+                  <c:v>457.2267313518059</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114933.0</c:v>
+                  <c:v>4696.218663896736</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6867.101329251207</c:v>
+                  <c:v>50.5117395311212</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80607.0</c:v>
+                  <c:v>1670.87176313523</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63612.0</c:v>
+                  <c:v>15151.4894033161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3296.975602605948</c:v>
+                  <c:v>4010.106221875633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34366.42467667092</c:v>
+                  <c:v>9018.607533466831</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13781.28911603213</c:v>
+                  <c:v>1400.535479490084</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8125.024968049663</c:v>
+                  <c:v>1832.378552887551</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9406.569178809271</c:v>
+                  <c:v>571.6410071475173</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>676.3590595802862</c:v>
+                  <c:v>54656.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9889.127852808393</c:v>
+                  <c:v>15480.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4382.255379009306</c:v>
+                  <c:v>1568.763394428175</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1545.364794341147</c:v>
+                  <c:v>10461.84647035501</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7066.228224278452</c:v>
+                  <c:v>6133.739735681774</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34307.60344930572</c:v>
+                  <c:v>3871.948377070546</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5952.481928604566</c:v>
+                  <c:v>9068.428357385855</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2135.456362228211</c:v>
+                  <c:v>7360.999711543806</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>526.2949964173908</c:v>
+                  <c:v>20839.353080197</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5182.771816324734</c:v>
+                  <c:v>6643.904726467572</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2473.341007415534</c:v>
+                  <c:v>14843.91720652259</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42375.0</c:v>
+                  <c:v>4692.279334822894</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47952.0</c:v>
+                  <c:v>4130.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1945.116897584422</c:v>
+                  <c:v>285.7651021852168</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20496.0</c:v>
+                  <c:v>10563.16571025806</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9839.055380883614</c:v>
+                  <c:v>3103.271003270974</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32680.0</c:v>
+                  <c:v>3721.982528976022</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3820.477296656585</c:v>
+                  <c:v>24624.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9482.76264404856</c:v>
+                  <c:v>5338.755935979775</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2305.15133527852</c:v>
+                  <c:v>17547.0247634325</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>37206.0</c:v>
+                  <c:v>6959.714685238223</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>706.2979396346394</c:v>
+                  <c:v>25012.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24849.81779542414</c:v>
+                  <c:v>848.79226785101</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16678.14419066482</c:v>
+                  <c:v>8099.912970152334</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>22421.70289177048</c:v>
+                  <c:v>4631.548548768252</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24429.65613339121</c:v>
+                  <c:v>5878.969091239598</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>81192.0</c:v>
+                  <c:v>13661.40865908558</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>19003.4723514951</c:v>
+                  <c:v>6985.993088544342</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5349.149588523318</c:v>
+                  <c:v>6279.08996469692</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4696.644987116301</c:v>
+                  <c:v>36449.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10751.01461186074</c:v>
+                  <c:v>13483.1571370351</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>52755.04635042078</c:v>
+                  <c:v>4612.242830366787</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7691.31495385135</c:v>
+                  <c:v>53246.86462295231</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>604.7464922798586</c:v>
+                  <c:v>8382.662000086493</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>19295.47507565227</c:v>
+                  <c:v>2843.408034528634</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15536.24662455447</c:v>
+                  <c:v>2788.397585582427</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>320.8184303270017</c:v>
+                  <c:v>28886.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6110.067677006291</c:v>
+                  <c:v>12212.56041052824</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5193.452035159816</c:v>
+                  <c:v>59958.99445001792</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12952.86996403214</c:v>
+                  <c:v>1564.671089539057</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4777.609165181194</c:v>
+                  <c:v>1005.615973343571</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4727.81208650261</c:v>
+                  <c:v>1292.660866512851</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>91868.0</c:v>
+                  <c:v>31022.16234612702</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6951.06599041837</c:v>
+                  <c:v>16498.4919503383</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8468.0</c:v>
+                  <c:v>512.8996696986714</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1663.026144707743</c:v>
+                  <c:v>41140.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1354.524062306524</c:v>
+                  <c:v>5009.591790729707</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42457.76010687445</c:v>
+                  <c:v>808.6249270531028</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>29896.0</c:v>
+                  <c:v>63632.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4642.622899275083</c:v>
+                  <c:v>8809.437191305879</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8301.939356900962</c:v>
+                  <c:v>2218.468165259389</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>60598.56671666959</c:v>
+                  <c:v>4119.981206116922</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5652.131501798478</c:v>
+                  <c:v>21362.17810447031</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5401.20174853651</c:v>
+                  <c:v>3292.947520083911</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2977.144510123065</c:v>
+                  <c:v>10596.41513504835</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5532.419794627904</c:v>
+                  <c:v>18338.27376341161</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2176.50116314728</c:v>
+                  <c:v>24453.30909694625</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>959.7135901802964</c:v>
+                  <c:v>6957.49513558718</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8309.756833104004</c:v>
+                  <c:v>4952.792931744731</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>20595.10461003503</c:v>
+                  <c:v>5855.735734938696</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>27250.84330234307</c:v>
+                  <c:v>3359.618024628061</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5155.806737880191</c:v>
+                  <c:v>5419.212814472312</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>615.0738048997153</c:v>
+                  <c:v>15953.28301830372</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6676.482364784346</c:v>
+                  <c:v>11536.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>29202.80863200313</c:v>
+                  <c:v>11152.01354882455</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8728.02458521259</c:v>
+                  <c:v>11497.58488787679</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7144.51070842189</c:v>
+                  <c:v>3377.844485901691</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42904.0</c:v>
+                  <c:v>17029.95645991912</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>20396.47952878457</c:v>
+                  <c:v>53.73938860957458</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>51471.0</c:v>
+                  <c:v>45198.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>14153.57754125431</c:v>
+                  <c:v>6415.628339253238</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>22354.42038413928</c:v>
+                  <c:v>20785.70788843473</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>35657.52772747423</c:v>
+                  <c:v>645.9632632525721</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7215.80555606289</c:v>
+                  <c:v>126392.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>21411.93193658407</c:v>
+                  <c:v>3724.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>26948.9827404695</c:v>
+                  <c:v>42294.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>87591.0</c:v>
+                  <c:v>563.6899497314213</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4030.169547810802</c:v>
+                  <c:v>1449.70155712627</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17544.0</c:v>
+                  <c:v>4312.446403999888</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5200.401438849059</c:v>
+                  <c:v>4015.883180733547</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10456.73862775314</c:v>
+                  <c:v>45647.15702108266</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>20423.1358318362</c:v>
+                  <c:v>10770.1463199637</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>40950.0</c:v>
+                  <c:v>20498.94353966271</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1950.792511271961</c:v>
+                  <c:v>8522.664085751574</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1548.78310109073</c:v>
+                  <c:v>77220.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,7 +946,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$100</c:f>
+              <c:f>'random numbers'!$F$2:$F$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
@@ -920,604 +954,604 @@
                   <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>141.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="37">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>108.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>118.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>109.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>107.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>144.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>114.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>119.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="81">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="84">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>17.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>117.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>117.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>118.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="89">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>31.0</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>122.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>124.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>101.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>117.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>118.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="95">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>96.0</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>114.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>135.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>104.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>107.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>136.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>118.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>41.0</c:v>
-                </c:pt>
                 <c:pt idx="98">
-                  <c:v>76.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$100</c:f>
+              <c:f>'random numbers'!$H$2:$H$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>32311.24436631929</c:v>
+                  <c:v>30247.90677881694</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>861.6578423528307</c:v>
+                  <c:v>16176.86035084716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1976.25</c:v>
+                  <c:v>3656.52133382343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>935.621064571864</c:v>
+                  <c:v>4050.95549063388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.0</c:v>
+                  <c:v>381.2686061033612</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114933.0</c:v>
+                  <c:v>2410.823425088723</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5949.238072400975</c:v>
+                  <c:v>54.80484858633795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80607.0</c:v>
+                  <c:v>1393.293314729374</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63612.0</c:v>
+                  <c:v>7670.448606058306</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2551.215581220149</c:v>
+                  <c:v>3805.13700765936</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19735.77487711085</c:v>
+                  <c:v>9024.21694716134</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6806.802663512436</c:v>
+                  <c:v>1008.13124765578</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4266.571428571428</c:v>
+                  <c:v>2071.372930544208</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7103.428762962024</c:v>
+                  <c:v>514.7737367038065</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>650.3173235884335</c:v>
+                  <c:v>54656.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5839.71983972276</c:v>
+                  <c:v>15480.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5382.818181818182</c:v>
+                  <c:v>1156.438941055793</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>740.2261699026154</c:v>
+                  <c:v>6177.921177924267</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3577.281347742877</c:v>
+                  <c:v>5114.754319613015</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25454.50342866661</c:v>
+                  <c:v>2514.196942883678</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2909.278966559095</c:v>
+                  <c:v>9575.624783793484</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1356.628178423533</c:v>
+                  <c:v>6628.722012606062</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>433.360951500841</c:v>
+                  <c:v>9982.002029740284</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2976.335733750478</c:v>
+                  <c:v>4671.322132066943</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2170.452036251128</c:v>
+                  <c:v>7465.415012062329</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42375.0</c:v>
+                  <c:v>4822.799248630674</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47952.0</c:v>
+                  <c:v>4130.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1895.168271907841</c:v>
+                  <c:v>341.3785202933059</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20496.0</c:v>
+                  <c:v>7880.964102999777</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4887.614052065815</c:v>
+                  <c:v>1532.755981883613</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32680.0</c:v>
+                  <c:v>3026.510539291817</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1816.471798047921</c:v>
+                  <c:v>24624.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8110.890396329899</c:v>
+                  <c:v>2702.747692795073</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1971.664854348309</c:v>
+                  <c:v>10866.10990649368</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>37206.0</c:v>
+                  <c:v>3599.07280021905</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>611.893489183586</c:v>
+                  <c:v>25012.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12207.36980533082</c:v>
+                  <c:v>1000.020207422949</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8045.192381611695</c:v>
+                  <c:v>6043.181097992391</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11350.99758931907</c:v>
+                  <c:v>3911.381792523164</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>18125.5670256133</c:v>
+                  <c:v>4386.179829188026</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>81192.0</c:v>
+                  <c:v>6646.935669915874</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11768.02460589712</c:v>
+                  <c:v>7084.535012673336</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4880.06161577263</c:v>
+                  <c:v>2983.840532171344</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3725.042916165226</c:v>
+                  <c:v>36449.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10068.18430542075</c:v>
+                  <c:v>8659.431274627681</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>34298.76406769533</c:v>
+                  <c:v>4493.805120556348</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5407.755115074588</c:v>
+                  <c:v>27329.31968417802</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>517.2577549987849</c:v>
+                  <c:v>4549.931320236376</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12258.16910460536</c:v>
+                  <c:v>1459.675365933482</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14352.9276920541</c:v>
+                  <c:v>2577.3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>277.9375355798683</c:v>
+                  <c:v>28886.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2926.708315705102</c:v>
+                  <c:v>11288.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4068.452647202463</c:v>
+                  <c:v>29658.88683008855</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8600.183495971674</c:v>
+                  <c:v>842.0348978698978</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2849.852126489573</c:v>
+                  <c:v>555.5406866697114</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2427.042040265762</c:v>
+                  <c:v>1310.89467914592</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>91868.0</c:v>
+                  <c:v>19210.67703127612</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5723.635208501674</c:v>
+                  <c:v>8148.873302487896</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8468.0</c:v>
+                  <c:v>329.4050047325589</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1335.491329020013</c:v>
+                  <c:v>41140.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>643.673497534714</c:v>
+                  <c:v>2928.971665344929</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>24382.42567096227</c:v>
+                  <c:v>979.5105070050721</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>29896.0</c:v>
+                  <c:v>63632.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3189.452240135485</c:v>
+                  <c:v>5308.75</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9646.79111255296</c:v>
+                  <c:v>1781.538436926689</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>44961.06603718377</c:v>
+                  <c:v>2034.925674318352</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5363.233181287454</c:v>
+                  <c:v>10176.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4503.911343632815</c:v>
+                  <c:v>1667.056224170455</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3230.178877455108</c:v>
+                  <c:v>7538.08893620436</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5763.432323432712</c:v>
+                  <c:v>9786.55750727176</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1058.729478246501</c:v>
+                  <c:v>12220.82531699768</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>510.3241805272108</c:v>
+                  <c:v>6515.60302521403</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5167.034479605573</c:v>
+                  <c:v>4762.096401368028</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9810.6</c:v>
+                  <c:v>5073.052559720253</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>13318.865339099</c:v>
+                  <c:v>3850.392837101171</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3755.555555555555</c:v>
+                  <c:v>3200.1492001508</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>464.4767793673098</c:v>
+                  <c:v>8894.584665044027</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3297.623144023586</c:v>
+                  <c:v>11536.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>14272.88951676901</c:v>
+                  <c:v>6520.278110582728</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5103.037886605503</c:v>
+                  <c:v>8179.164022152008</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3593.171314176831</c:v>
+                  <c:v>2582.014774186555</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42904.0</c:v>
+                  <c:v>8365.895395546777</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>18842.98073554181</c:v>
+                  <c:v>50.99259846329873</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>51471.0</c:v>
+                  <c:v>45198.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6726.5155362386</c:v>
+                  <c:v>6683.52025301615</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>12837.58238921955</c:v>
+                  <c:v>10049.58849903816</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>16953.61298488848</c:v>
+                  <c:v>414.863850299968</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7936.579750291895</c:v>
+                  <c:v>126392.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10298.87380427412</c:v>
+                  <c:v>3724.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>13051.66666666667</c:v>
+                  <c:v>42294.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>87591.0</c:v>
+                  <c:v>646.0340815179635</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2084.118998521918</c:v>
+                  <c:v>1638.783950001528</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17544.0</c:v>
+                  <c:v>2097.73107801636</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2872.900453928367</c:v>
+                  <c:v>2856.82319803136</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9059.081055406286</c:v>
+                  <c:v>28267.30068471342</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>11385.32890546928</c:v>
+                  <c:v>8980.924327852268</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>40950.0</c:v>
+                  <c:v>11031.60015242924</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>964.965054059242</c:v>
+                  <c:v>5658.705384638521</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>840.6466513659768</c:v>
+                  <c:v>77220.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1532,11 +1566,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2136141976"/>
-        <c:axId val="2137094968"/>
+        <c:axId val="2056316664"/>
+        <c:axId val="2093168264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2136141976"/>
+        <c:axId val="2056316664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,12 +1614,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137094968"/>
+        <c:crossAx val="2093168264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2137094968"/>
+        <c:axId val="2093168264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1630,7 +1664,861 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136141976"/>
+        <c:crossAx val="2056316664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>decay</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> tests</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'zumic data'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>newton_score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4684EE"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4684EE"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'zumic data'!$D$2:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'zumic data'!$H$2:$H$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>hn_score</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'zumic data'!$D$2:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'zumic data'!$I$2:$I$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2117641176"/>
+        <c:axId val="2117646968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2117641176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (hrs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2117646968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2117646968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hotness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2117641176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1666,6 +2554,38 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1216025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56092</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2006,21 +2926,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -2029,44 +2949,44 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <f ca="1">D2*E2</f>
-        <v>45695</v>
+        <v>42777</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(0,300)</f>
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(100,430)</f>
-        <v>185</v>
+        <v>291</v>
       </c>
       <c r="F2">
         <v>25</v>
       </c>
       <c r="G2">
         <f ca="1">IF(F2&gt;24, C2*POWER($A$6,(-$A$3*F2)), C2)</f>
-        <v>29078.08355116651</v>
+        <v>27221.20976186125</v>
       </c>
       <c r="H2">
         <f ca="1">IF(F2&gt;24, C2/POWER(F2-23,$A$12), C2)</f>
-        <v>32311.244366319286</v>
+        <v>30247.906778816941</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
@@ -2074,89 +2994,89 @@
         <v>0.25</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="1">D3*E3</f>
-        <v>9360</v>
+        <v>98400</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" ca="1" si="2">RANDBETWEEN(0,300)</f>
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F4" ca="1" si="3">RANDBETWEEN(1,144)</f>
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="4">IF(F3&gt;24, C3*POWER($A$6,(-$A$3*F3)), C3)</f>
-        <v>731.35373534801192</v>
+        <v>33255.856281629232</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="5">IF(F3&gt;24, C3/POWER(F3-23,$A$12), C3)</f>
-        <v>861.6578423528307</v>
+        <v>16176.860350847159</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>7905</v>
+        <v>21321</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>255</v>
+        <v>103</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="4"/>
-        <v>3905.4344045221992</v>
+        <v>7607.4123028750591</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="5"/>
-        <v>1976.25</v>
+        <v>3656.5213338234307</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>8626</v>
+        <v>39066</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>227</v>
+        <v>383</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(1,144)</f>
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="4"/>
-        <v>1223.998594219197</v>
+        <v>4796.820668244447</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="5"/>
-        <v>935.62106457186405</v>
+        <v>4050.9554906338794</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
@@ -2164,176 +3084,176 @@
         <v>1.075</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>896</v>
+        <v>3657</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>159</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F69" ca="1" si="6">RANDBETWEEN(1,144)</f>
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="4"/>
-        <v>185.85485574311437</v>
+        <v>457.22673135180594</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
+        <v>381.26860610336126</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>114933</v>
+        <v>16351</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>273</v>
+        <v>83</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>421</v>
+        <v>197</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="4"/>
-        <v>114933</v>
+        <v>4696.2186638967369</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="5"/>
-        <v>114933</v>
+        <v>2410.8234250887231</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>57986</v>
+        <v>580</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>367</v>
+        <v>116</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="4"/>
-        <v>6867.1013292512071</v>
+        <v>50.511739531121194</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="5"/>
-        <v>5949.2380724009754</v>
+        <v>54.804848586337947</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>80607</v>
+        <v>13364</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>277</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="4"/>
-        <v>80607</v>
+        <v>1670.8717631352297</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="5"/>
-        <v>80607</v>
+        <v>1393.2933147293736</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>63612</v>
+        <v>50880</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E15" ca="1" si="7">RANDBETWEEN(100,430)</f>
-        <v>279</v>
+        <f t="shared" ref="E10" ca="1" si="7">RANDBETWEEN(100,430)</f>
+        <v>320</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="4"/>
-        <v>63612</v>
+        <v>15151.489403316096</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="5"/>
-        <v>63612</v>
+        <v>7670.4486060583067</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>23659</v>
+        <v>38430</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>401</v>
+        <v>210</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="6"/>
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="4"/>
-        <v>3296.9756026059476</v>
+        <v>4010.1062218756333</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="5"/>
-        <v>2551.2155812201495</v>
+        <v>3805.1370076593594</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
@@ -2342,2324 +3262,3811 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>62410</v>
+        <v>92910</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>158</v>
+        <v>285</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="4"/>
-        <v>34366.424676670918</v>
+        <v>9018.6075334668312</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="5"/>
-        <v>19735.774877110853</v>
+        <v>9024.2169471613415</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>43050</v>
+        <v>9017</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="4"/>
-        <v>13781.289116032129</v>
+        <v>1400.5354794900841</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="5"/>
-        <v>6806.8026635124361</v>
+        <v>1008.1312476557802</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>29866</v>
+        <v>22213</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="4"/>
-        <v>8125.0249680496636</v>
+        <v>1832.3785528875508</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="5"/>
-        <v>4266.5714285714284</v>
+        <v>2071.3729305442089</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>65104</v>
+        <v>5096</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="6"/>
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="4"/>
-        <v>9406.5691788092718</v>
+        <v>571.64100714751737</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="5"/>
-        <v>7103.4287629620239</v>
+        <v>514.77373670380655</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>6600</v>
+        <v>54656</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>330</v>
+        <v>427</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="6"/>
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="4"/>
-        <v>676.35905958028616</v>
+        <v>54656</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="5"/>
-        <v>650.31732358843351</v>
+        <v>54656</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="12.75" customHeight="1">
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>45982</v>
+        <v>15480</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>277</v>
+        <v>180</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="4"/>
-        <v>9889.1278528083931</v>
+        <v>15480</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="5"/>
-        <v>5839.7198397227594</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="12.75" customHeight="1">
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>59211</v>
+        <v>10472</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>387</v>
+        <v>119</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="6"/>
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="4"/>
-        <v>4382.2553790093061</v>
+        <v>1568.7633944281749</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="5"/>
-        <v>5382.818181818182</v>
+        <v>1156.4389410557928</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="12.75" customHeight="1">
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>3550</v>
+        <v>48645</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="4"/>
-        <v>1545.3647943411465</v>
+        <v>10461.846470355014</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="5"/>
-        <v>740.22616990261542</v>
+        <v>6177.9211779242669</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="12.75" customHeight="1">
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>23729</v>
+        <v>49059</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>389</v>
+        <v>207</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="4"/>
-        <v>7066.2282242784522</v>
+        <v>6133.7397356817737</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="5"/>
-        <v>3577.2813477428767</v>
+        <v>5114.7543196130155</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="12.75" customHeight="1">
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>56918</v>
+        <v>21185</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>298</v>
+        <v>95</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="4"/>
-        <v>34307.603449305716</v>
+        <v>3871.948377070546</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="5"/>
-        <v>25454.503428666605</v>
+        <v>2514.1969428836783</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="12.75" customHeight="1">
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>17934</v>
+        <v>100430</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="4"/>
-        <v>5952.4819286045658</v>
+        <v>9068.4283573858556</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="5"/>
-        <v>2909.2789665590954</v>
+        <v>9575.6247837934843</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="12.75" customHeight="1">
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>11269</v>
+        <v>65621</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="4"/>
-        <v>2135.4563622282112</v>
+        <v>7360.9997115438064</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="5"/>
-        <v>1356.6281784235332</v>
+        <v>6628.722012606062</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="12.75" customHeight="1">
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>4134</v>
+        <v>47872</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>256</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="4"/>
-        <v>526.29499641739085</v>
+        <v>20839.353080197005</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="5"/>
-        <v>433.36095150084105</v>
+        <v>9982.0020297402843</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="12.75" customHeight="1">
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>9412</v>
+        <v>41256</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>362</v>
+        <v>191</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="4"/>
-        <v>5182.7718163247337</v>
+        <v>6643.9047264675728</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="5"/>
-        <v>2976.3357337504785</v>
+        <v>4671.3221320669436</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="12.75" customHeight="1">
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>21266</v>
+        <v>48954</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>343</v>
+        <v>398</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="6"/>
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="4"/>
-        <v>2473.3410074155345</v>
+        <v>14843.917206522588</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="5"/>
-        <v>2170.452036251128</v>
+        <v>7465.415012062329</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="12.75" customHeight="1">
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>42375</v>
+        <v>50120</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="4"/>
-        <v>42375</v>
+        <v>4692.2793348228943</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="5"/>
-        <v>42375</v>
+        <v>4822.7992486306739</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="12.75" customHeight="1">
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>47952</v>
+        <v>4130</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>162</v>
+        <v>295</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="4"/>
-        <v>47952</v>
+        <v>4130</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="5"/>
-        <v>47952</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="12.75" customHeight="1">
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>19327</v>
+        <v>3724</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="6"/>
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="4"/>
-        <v>1945.1168975844221</v>
+        <v>285.76510218521685</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="5"/>
-        <v>1895.1682719078415</v>
+        <v>341.37852029330588</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="12.75" customHeight="1">
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>20496</v>
+        <v>71799</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="4"/>
-        <v>20496</v>
+        <v>10563.165710258056</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="5"/>
-        <v>20496</v>
+        <v>7880.9641029997774</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="12.75" customHeight="1">
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>31296</v>
+        <v>9694</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="4"/>
-        <v>9839.0553808836139</v>
+        <v>3103.2710032709747</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="5"/>
-        <v>4887.6140520658155</v>
+        <v>1532.7559818836135</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="12.75" customHeight="1">
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>32680</v>
+        <v>28712</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>344</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="4"/>
-        <v>32680</v>
+        <v>3721.9825289760215</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="5"/>
-        <v>32680</v>
+        <v>3026.5105392918167</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="12.75" customHeight="1">
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>9782</v>
+        <v>24624</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="4"/>
-        <v>3820.4772966565856</v>
+        <v>24624</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="5"/>
-        <v>1816.4717980479213</v>
+        <v>24624</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="12.75" customHeight="1">
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>78638</v>
+        <v>17928</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>287</v>
+        <v>83</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="6"/>
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="4"/>
-        <v>9482.7626440485601</v>
+        <v>5338.7559359797751</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="5"/>
-        <v>8110.890396329899</v>
+        <v>2702.7476927950734</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="12.75" customHeight="1">
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>19116</v>
+        <v>30734</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="6"/>
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="4"/>
-        <v>2305.1513352785205</v>
+        <v>17547.024763432491</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="5"/>
-        <v>1971.6648543483093</v>
+        <v>10866.109906493675</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="12.75" customHeight="1">
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>37206</v>
+        <v>24674</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>234</v>
+        <v>146</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="4"/>
-        <v>37206</v>
+        <v>6959.714685238223</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="5"/>
-        <v>37206</v>
+        <v>3599.0728002190504</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="12.75" customHeight="1">
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>5964</v>
+        <v>25012</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>426</v>
+        <v>338</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="4"/>
-        <v>706.29793963463942</v>
+        <v>25012</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="5"/>
-        <v>611.89348918358598</v>
+        <v>25012</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="12.75" customHeight="1">
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>76235</v>
+        <v>10863</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>395</v>
+        <v>213</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="4"/>
-        <v>24849.817795424136</v>
+        <v>848.79226785101002</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="5"/>
-        <v>12207.369805330818</v>
+        <v>1000.0202074229487</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="12.75" customHeight="1">
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>47596</v>
+        <v>55056</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>292</v>
+        <v>148</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>372</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="4"/>
-        <v>16678.144190664825</v>
+        <v>8099.9129701523343</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="5"/>
-        <v>8045.1923816116951</v>
+        <v>6043.1810979923912</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="12.75" customHeight="1">
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>75294</v>
+        <v>37720</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>282</v>
+        <v>164</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="4"/>
-        <v>22421.702891770481</v>
+        <v>4631.5485487682517</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="5"/>
-        <v>11350.997589319068</v>
+        <v>3911.3817925231642</v>
       </c>
     </row>
     <row r="41" spans="3:8" ht="12.75" customHeight="1">
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>40530</v>
+        <v>39960</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="4"/>
-        <v>24429.656133391207</v>
+        <v>5878.9690912395981</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="5"/>
-        <v>18125.567025613294</v>
+        <v>4386.1798291880259</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="12.75" customHeight="1">
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>81192</v>
+        <v>29726</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>408</v>
+        <v>167</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="4"/>
-        <v>81192</v>
+        <v>13661.408659085582</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="5"/>
-        <v>81192</v>
+        <v>6646.9356699158743</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="12.75" customHeight="1">
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>33285</v>
+        <v>73283</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="4"/>
-        <v>19003.472351495104</v>
+        <v>6985.9930885443418</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="5"/>
-        <v>11768.024605897117</v>
+        <v>7084.5350126733356</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="12.75" customHeight="1">
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>48556</v>
+        <v>15789</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>398</v>
+        <v>277</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="6"/>
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="4"/>
-        <v>5349.149588523318</v>
+        <v>6279.089964696921</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="5"/>
-        <v>4880.0616157726299</v>
+        <v>2983.8405321713444</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="12.75" customHeight="1">
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>34944</v>
+        <v>36449</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>416</v>
+        <v>287</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="4"/>
-        <v>4696.6449871163013</v>
+        <v>36449</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="5"/>
-        <v>3725.0429161652255</v>
+        <v>36449</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="12.75" customHeight="1">
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>101184</v>
+        <v>72450</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="6"/>
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="4"/>
-        <v>10751.014611860743</v>
+        <v>13483.157137035105</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="5"/>
-        <v>10068.184305420755</v>
+        <v>8659.431274627681</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="12.75" customHeight="1">
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>90746</v>
+        <v>45828</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>289</v>
+        <v>114</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>314</v>
+        <v>402</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="4"/>
-        <v>52755.046350420787</v>
+        <v>4612.2428303667875</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="5"/>
-        <v>34298.764067695331</v>
+        <v>4493.8051205563488</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="12.75" customHeight="1">
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>47760</v>
+        <v>105846</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>199</v>
+        <v>354</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="6"/>
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="4"/>
-        <v>7691.3149538513499</v>
+        <v>53246.864622952315</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="5"/>
-        <v>5407.7551150745885</v>
+        <v>27329.319684178015</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="12.75" customHeight="1">
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>5015</v>
+        <v>33124</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>295</v>
+        <v>169</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="6"/>
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="4"/>
-        <v>604.74649227985867</v>
+        <v>8382.6620000864932</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="5"/>
-        <v>517.25775499878489</v>
+        <v>4549.9313202363755</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="12.75" customHeight="1">
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>101824</v>
+        <v>9900</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>296</v>
+        <v>99</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>344</v>
+        <v>100</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="4"/>
-        <v>19295.475075652266</v>
+        <v>2843.4080345286343</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="5"/>
-        <v>12258.169104605364</v>
+        <v>1459.6753659334815</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="12.75" customHeight="1">
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>24860</v>
+        <v>25773</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="4"/>
-        <v>15536.246624554473</v>
+        <v>2788.3975855824269</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="5"/>
-        <v>14352.927692054098</v>
+        <v>2577.3000000000002</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="12.75" customHeight="1">
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>2709</v>
+        <v>28886</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>387</v>
+        <v>143</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="4"/>
-        <v>320.81843032700169</v>
+        <v>28886</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="5"/>
-        <v>277.93753557986827</v>
+        <v>28886</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="12.75" customHeight="1">
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>14036</v>
+        <v>112880</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>319</v>
+        <v>415</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="4"/>
-        <v>6110.067677006291</v>
+        <v>12212.56041052824</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="5"/>
-        <v>2926.7083157051015</v>
+        <v>11288</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="12.75" customHeight="1">
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>37948</v>
+        <v>125832</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>294</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>358</v>
+        <v>428</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="6"/>
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="4"/>
-        <v>5193.4520351598167</v>
+        <v>59958.994450017919</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="5"/>
-        <v>4068.4526472024636</v>
+        <v>29658.886830088552</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="12.75" customHeight="1">
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>73480</v>
+        <v>6072</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="2"/>
-        <v>220</v>
+        <v>24</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>334</v>
+        <v>253</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="4"/>
-        <v>12952.869964032136</v>
+        <v>1564.6710895390565</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="5"/>
-        <v>8600.1834959716743</v>
+        <v>842.0348978698978</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="12.75" customHeight="1">
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>22620</v>
+        <v>4120</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="2"/>
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="4"/>
-        <v>4777.6091651811948</v>
+        <v>1005.615973343571</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="5"/>
-        <v>2849.852126489573</v>
+        <v>555.54068666971148</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="12.75" customHeight="1">
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>16461</v>
+        <v>13560</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>279</v>
+        <v>120</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="4"/>
-        <v>4727.8120865026103</v>
+        <v>1292.6608665128513</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="5"/>
-        <v>2427.0420402657619</v>
+        <v>1310.8946791459198</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="12.75" customHeight="1">
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>91868</v>
+        <v>54336</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>386</v>
+        <v>192</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="4"/>
-        <v>91868</v>
+        <v>31022.162346127021</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="5"/>
-        <v>91868</v>
+        <v>19210.677031276122</v>
       </c>
     </row>
     <row r="59" spans="3:8" ht="12.75" customHeight="1">
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>54600</v>
+        <v>51538</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="4"/>
-        <v>6951.0659904183703</v>
+        <v>16498.491950338303</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="5"/>
-        <v>5723.6352085016742</v>
+        <v>8148.8733024878966</v>
       </c>
     </row>
     <row r="60" spans="3:8" ht="12.75" customHeight="1">
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>8468</v>
+        <v>2756</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="4"/>
-        <v>8468</v>
+        <v>512.89966969867146</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="5"/>
-        <v>8468</v>
+        <v>329.40500473255889</v>
       </c>
     </row>
     <row r="61" spans="3:8" ht="12.75" customHeight="1">
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>12599</v>
+        <v>41140</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="6"/>
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="4"/>
-        <v>1663.026144707743</v>
+        <v>41140</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="5"/>
-        <v>1335.4913290200129</v>
+        <v>41140</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="12.75" customHeight="1">
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>3406</v>
+        <v>22876</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="4"/>
-        <v>1354.5240623065242</v>
+        <v>5009.5917907297071</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="5"/>
-        <v>643.67349753471399</v>
+        <v>2928.9716653449286</v>
       </c>
     </row>
     <row r="63" spans="3:8" ht="12.75" customHeight="1">
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>77104</v>
+        <v>10730</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="4"/>
-        <v>42457.760106874448</v>
+        <v>808.62492705310285</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="5"/>
-        <v>24382.425670962271</v>
+        <v>979.5105070050721</v>
       </c>
     </row>
     <row r="64" spans="3:8" ht="12.75" customHeight="1">
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>29896</v>
+        <v>63632</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>296</v>
+        <v>388</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="4"/>
-        <v>29896</v>
+        <v>63632</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="5"/>
-        <v>29896</v>
+        <v>63632</v>
       </c>
     </row>
     <row r="65" spans="3:8" ht="12.75" customHeight="1">
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>27805</v>
+        <v>42470</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>335</v>
+        <v>155</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="4"/>
-        <v>4642.622899275083</v>
+        <v>8809.4371913058785</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="5"/>
-        <v>3189.4522401354848</v>
+        <v>5308.75</v>
       </c>
     </row>
     <row r="66" spans="3:8" ht="12.75" customHeight="1">
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>104346</v>
+        <v>16807</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="2"/>
-        <v>279</v>
+        <v>49</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E100" ca="1" si="8">RANDBETWEEN(100,430)</f>
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="6"/>
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="4"/>
-        <v>8301.9393569009626</v>
+        <v>2218.4681652593886</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="5"/>
-        <v>9646.791112552959</v>
+        <v>1781.5384369266894</v>
       </c>
     </row>
     <row r="67" spans="3:8" ht="12.75" customHeight="1">
       <c r="C67">
         <f t="shared" ref="C67:C100" ca="1" si="9">D67*E67</f>
-        <v>100536</v>
+        <v>12870</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D100" ca="1" si="10">RANDBETWEEN(0,300)</f>
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="8"/>
-        <v>426</v>
+        <v>165</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G100" ca="1" si="11">IF(F67&gt;24, C67*POWER($A$6,(-$A$3*F67)), C67)</f>
-        <v>60598.566716669586</v>
+        <v>4119.9812061169223</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H100" ca="1" si="12">IF(F67&gt;24, C67/POWER(F67-23,$A$12), C67)</f>
-        <v>44961.066037183766</v>
+        <v>2034.9256743183519</v>
       </c>
     </row>
     <row r="68" spans="3:8" ht="12.75" customHeight="1">
       <c r="C68">
         <f t="shared" ca="1" si="9"/>
-        <v>54166</v>
+        <v>50880</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="10"/>
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="8"/>
-        <v>371</v>
+        <v>212</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="11"/>
-        <v>5652.1315017984789</v>
+        <v>21362.178104470313</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="12"/>
-        <v>5363.2331812874545</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="69" spans="3:8" ht="12.75" customHeight="1">
       <c r="C69">
         <f t="shared" ca="1" si="9"/>
-        <v>43200</v>
+        <v>11058</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="10"/>
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="8"/>
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="11"/>
-        <v>5401.2017485365095</v>
+        <v>3292.9475200839111</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="12"/>
-        <v>4503.9113436328153</v>
+        <v>1667.0562241704552</v>
       </c>
     </row>
     <row r="70" spans="3:8" ht="12.75" customHeight="1">
       <c r="C70">
         <f t="shared" ca="1" si="9"/>
-        <v>34185</v>
+        <v>67000</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="10"/>
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="8"/>
-        <v>159</v>
+        <v>335</v>
       </c>
       <c r="F70">
         <f t="shared" ref="F70:F100" ca="1" si="13">RANDBETWEEN(1,144)</f>
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="11"/>
-        <v>2977.1445101230652</v>
+        <v>10596.415135048348</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="12"/>
-        <v>3230.1788774551082</v>
+        <v>7538.0889362043599</v>
       </c>
     </row>
     <row r="71" spans="3:8" ht="12.75" customHeight="1">
       <c r="C71">
         <f t="shared" ca="1" si="9"/>
-        <v>60172</v>
+        <v>69890</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="10"/>
-        <v>196</v>
+        <v>290</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="8"/>
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="13"/>
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="11"/>
-        <v>5532.4197946279037</v>
+        <v>18338.273763411613</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="12"/>
-        <v>5763.4323234327121</v>
+        <v>9786.5575072717602</v>
       </c>
     </row>
     <row r="72" spans="3:8" ht="12.75" customHeight="1">
       <c r="C72">
         <f t="shared" ca="1" si="9"/>
-        <v>6440</v>
+        <v>79200</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="10"/>
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="8"/>
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="13"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="11"/>
-        <v>2176.5011631472794</v>
+        <v>24453.309096946254</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="12"/>
-        <v>1058.729478246501</v>
+        <v>12220.82531699768</v>
       </c>
     </row>
     <row r="73" spans="3:8" ht="12.75" customHeight="1">
       <c r="C73">
         <f t="shared" ca="1" si="9"/>
-        <v>1840</v>
+        <v>65481</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="8"/>
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="11"/>
-        <v>959.71359018029648</v>
+        <v>6957.4951355871808</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="12"/>
-        <v>510.32418052721084</v>
+        <v>6515.6030252140299</v>
       </c>
     </row>
     <row r="74" spans="3:8" ht="12.75" customHeight="1">
       <c r="C74">
         <f t="shared" ca="1" si="9"/>
-        <v>42294</v>
+        <v>48330</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="10"/>
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="8"/>
-        <v>371</v>
+        <v>270</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="13"/>
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="11"/>
-        <v>8309.7568331040038</v>
+        <v>4952.7929317447315</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="12"/>
-        <v>5167.0344796055733</v>
+        <v>4762.0964013680286</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="12.75" customHeight="1">
       <c r="C75">
         <f t="shared" ca="1" si="9"/>
-        <v>49053</v>
+        <v>49446</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="10"/>
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="8"/>
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="13"/>
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="11"/>
-        <v>20595.104610035029</v>
+        <v>5855.7357349386957</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="12"/>
-        <v>9810.6</v>
+        <v>5073.0525597202532</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="12.75" customHeight="1">
       <c r="C76">
         <f t="shared" ca="1" si="9"/>
-        <v>82103</v>
+        <v>41470</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="10"/>
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="8"/>
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="13"/>
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="11"/>
-        <v>27250.843302343073</v>
+        <v>3359.6180246280605</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="12"/>
-        <v>13318.865339098998</v>
+        <v>3850.3928371011707</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="12.75" customHeight="1">
       <c r="C77">
         <f t="shared" ca="1" si="9"/>
-        <v>33800</v>
+        <v>25198</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="10"/>
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="8"/>
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="13"/>
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="11"/>
-        <v>5155.8067378801907</v>
+        <v>5419.2128144723129</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="12"/>
-        <v>3755.5555555555557</v>
+        <v>3200.1492001508</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="12.75" customHeight="1">
       <c r="C78">
         <f t="shared" ca="1" si="9"/>
-        <v>4257</v>
+        <v>29500</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="8"/>
-        <v>387</v>
+        <v>100</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="13"/>
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="11"/>
-        <v>615.07380489971536</v>
+        <v>15953.283018303717</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="12"/>
-        <v>464.4767793673098</v>
+        <v>8894.5846650440271</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="12.75" customHeight="1">
       <c r="C79">
         <f t="shared" ca="1" si="9"/>
-        <v>20856</v>
+        <v>11536</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="8"/>
-        <v>316</v>
+        <v>103</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="13"/>
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="11"/>
-        <v>6676.4823647843459</v>
+        <v>11536</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="12"/>
-        <v>3297.6231440235856</v>
+        <v>11536</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="12.75" customHeight="1">
       <c r="C80">
         <f t="shared" ca="1" si="9"/>
-        <v>87984</v>
+        <v>50925</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="10"/>
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="8"/>
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="13"/>
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="11"/>
-        <v>29202.808632003129</v>
+        <v>11152.013548824545</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="12"/>
-        <v>14272.889516769012</v>
+        <v>6520.278110582728</v>
       </c>
     </row>
     <row r="81" spans="3:8" ht="12.75" customHeight="1">
       <c r="C81">
         <f t="shared" ca="1" si="9"/>
-        <v>39856</v>
+        <v>72698</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="8"/>
-        <v>424</v>
+        <v>326</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="13"/>
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="11"/>
-        <v>8728.02458521259</v>
+        <v>11497.584887876788</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="12"/>
-        <v>5103.0378866055025</v>
+        <v>8179.1640221520083</v>
       </c>
     </row>
     <row r="82" spans="3:8" ht="12.75" customHeight="1">
       <c r="C82">
         <f t="shared" ca="1" si="9"/>
-        <v>23562</v>
+        <v>23805</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="10"/>
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="8"/>
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="11"/>
-        <v>7144.5107084218907</v>
+        <v>3377.8444859016909</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="12"/>
-        <v>3593.1713141768314</v>
+        <v>2582.0147741865553</v>
       </c>
     </row>
     <row r="83" spans="3:8" ht="12.75" customHeight="1">
       <c r="C83">
         <f t="shared" ca="1" si="9"/>
-        <v>42904</v>
+        <v>52245</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="10"/>
-        <v>248</v>
+        <v>129</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="8"/>
-        <v>173</v>
+        <v>405</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="13"/>
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="11"/>
-        <v>42904</v>
+        <v>17029.956459919118</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="12"/>
-        <v>42904</v>
+        <v>8365.8953955467769</v>
       </c>
     </row>
     <row r="84" spans="3:8" ht="12.75" customHeight="1">
       <c r="C84">
         <f t="shared" ca="1" si="9"/>
-        <v>32637</v>
+        <v>515</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="10"/>
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="8"/>
-        <v>253</v>
+        <v>103</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="13"/>
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="11"/>
-        <v>20396.479528784566</v>
+        <v>53.739388609574583</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="12"/>
-        <v>18842.980735541816</v>
+        <v>50.992598463298727</v>
       </c>
     </row>
     <row r="85" spans="3:8" ht="12.75" customHeight="1">
       <c r="C85">
         <f t="shared" ca="1" si="9"/>
-        <v>51471</v>
+        <v>45198</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="10"/>
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="8"/>
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="11"/>
-        <v>51471</v>
+        <v>45198</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="12"/>
-        <v>51471</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="86" spans="3:8" ht="12.75" customHeight="1">
       <c r="C86">
         <f t="shared" ca="1" si="9"/>
-        <v>34952</v>
+        <v>69778</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="10"/>
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="8"/>
-        <v>136</v>
+        <v>278</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="11"/>
-        <v>14153.577541254308</v>
+        <v>6415.6283392532387</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="12"/>
-        <v>6726.5155362385995</v>
+        <v>6683.5202530161496</v>
       </c>
     </row>
     <row r="87" spans="3:8" ht="12.75" customHeight="1">
       <c r="C87">
         <f t="shared" ca="1" si="9"/>
-        <v>40596</v>
+        <v>46053</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="8"/>
-        <v>204</v>
+        <v>387</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="13"/>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="11"/>
-        <v>22354.420384139281</v>
+        <v>20785.707888434732</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="12"/>
-        <v>12837.582389219551</v>
+        <v>10049.588499038158</v>
       </c>
     </row>
     <row r="88" spans="3:8" ht="12.75" customHeight="1">
       <c r="C88">
         <f t="shared" ca="1" si="9"/>
-        <v>91298</v>
+        <v>3471</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="10"/>
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="8"/>
-        <v>382</v>
+        <v>267</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="11"/>
-        <v>35657.527727474233</v>
+        <v>645.96326325257212</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="12"/>
-        <v>16953.612984888481</v>
+        <v>414.86385029996802</v>
       </c>
     </row>
     <row r="89" spans="3:8" ht="12.75" customHeight="1">
       <c r="C89">
         <f t="shared" ca="1" si="9"/>
-        <v>84367</v>
+        <v>126392</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="10"/>
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="8"/>
-        <v>353</v>
+        <v>427</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="13"/>
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="11"/>
-        <v>7215.80555606289</v>
+        <v>126392</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="12"/>
-        <v>7936.5797502918949</v>
+        <v>126392</v>
       </c>
     </row>
     <row r="90" spans="3:8" ht="12.75" customHeight="1">
       <c r="C90">
         <f t="shared" ca="1" si="9"/>
-        <v>48306</v>
+        <v>3724</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="10"/>
-        <v>291</v>
+        <v>28</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="8"/>
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="11"/>
-        <v>21411.931936584075</v>
+        <v>3724</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="12"/>
-        <v>10298.873804274117</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="91" spans="3:8" ht="12.75" customHeight="1">
       <c r="C91">
         <f t="shared" ca="1" si="9"/>
-        <v>78310</v>
+        <v>42294</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="10"/>
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="8"/>
-        <v>410</v>
+        <v>266</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="13"/>
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="11"/>
-        <v>26948.982740469495</v>
+        <v>42294</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="12"/>
-        <v>13051.666666666666</v>
+        <v>42294</v>
       </c>
     </row>
     <row r="92" spans="3:8" ht="12.75" customHeight="1">
       <c r="C92">
         <f t="shared" ca="1" si="9"/>
-        <v>87591</v>
+        <v>6958</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="10"/>
-        <v>291</v>
+        <v>49</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="8"/>
-        <v>301</v>
+        <v>142</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="13"/>
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="11"/>
-        <v>87591</v>
+        <v>563.68994973142139</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="12"/>
-        <v>87591</v>
+        <v>646.0340815179635</v>
       </c>
     </row>
     <row r="93" spans="3:8" ht="12.75" customHeight="1">
       <c r="C93">
         <f t="shared" ca="1" si="9"/>
-        <v>14288</v>
+        <v>17574</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="8"/>
-        <v>304</v>
+        <v>101</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="11"/>
-        <v>4030.1695478108018</v>
+        <v>1449.7015571262691</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="12"/>
-        <v>2084.1189985219175</v>
+        <v>1638.7839500015275</v>
       </c>
     </row>
     <row r="94" spans="3:8" ht="12.75" customHeight="1">
       <c r="C94">
         <f t="shared" ca="1" si="9"/>
-        <v>17544</v>
+        <v>12760</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="10"/>
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="8"/>
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="13"/>
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="11"/>
-        <v>17544</v>
+        <v>4312.4464039998884</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="12"/>
-        <v>17544</v>
+        <v>2097.7310780163593</v>
       </c>
     </row>
     <row r="95" spans="3:8" ht="12.75" customHeight="1">
       <c r="C95">
         <f t="shared" ca="1" si="9"/>
-        <v>21306</v>
+        <v>25392</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="8"/>
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="13"/>
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="11"/>
-        <v>5200.4014388490586</v>
+        <v>4015.8831807335469</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="12"/>
-        <v>2872.9004539283674</v>
+        <v>2856.8231980313599</v>
       </c>
     </row>
     <row r="96" spans="3:8" ht="12.75" customHeight="1">
       <c r="C96">
         <f t="shared" ca="1" si="9"/>
-        <v>88297</v>
+        <v>79952</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="10"/>
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="8"/>
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="13"/>
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="11"/>
-        <v>10456.738627753144</v>
+        <v>45647.157021082661</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="12"/>
-        <v>9059.0810554062864</v>
+        <v>28267.30068471342</v>
       </c>
     </row>
     <row r="97" spans="3:8" ht="12.75" customHeight="1">
       <c r="C97">
         <f t="shared" ca="1" si="9"/>
-        <v>85200</v>
+        <v>86142</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="10"/>
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="8"/>
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="13"/>
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="11"/>
-        <v>20423.1358318362</v>
+        <v>10770.146319963704</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="12"/>
-        <v>11385.32890546928</v>
+        <v>8980.9243278522681</v>
       </c>
     </row>
     <row r="98" spans="3:8" ht="12.75" customHeight="1">
       <c r="C98">
         <f t="shared" ca="1" si="9"/>
-        <v>40950</v>
+        <v>79550</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="10"/>
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="8"/>
-        <v>273</v>
+        <v>370</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="11"/>
-        <v>40950</v>
+        <v>20498.943539662705</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="12"/>
-        <v>40950</v>
+        <v>11031.600152429244</v>
       </c>
     </row>
     <row r="99" spans="3:8" ht="12.75" customHeight="1">
       <c r="C99">
         <f t="shared" ca="1" si="9"/>
-        <v>4094</v>
+        <v>48348</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="10"/>
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="8"/>
-        <v>178</v>
+        <v>306</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="11"/>
-        <v>1950.7925112719608</v>
+        <v>8522.664085751574</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="12"/>
-        <v>964.96505405924199</v>
+        <v>5658.7053846385206</v>
       </c>
     </row>
     <row r="100" spans="3:8" ht="12.75" customHeight="1">
       <c r="C100">
         <f t="shared" ca="1" si="9"/>
-        <v>6120</v>
+        <v>77220</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <v>286</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="8"/>
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="13"/>
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="11"/>
-        <v>1548.78310109073</v>
+        <v>77220</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="12"/>
-        <v>840.64665136597682</v>
+        <v>77220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <f>E2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>IF(D2&gt;24, G2*POWER($A$6,(-$A$3*D2)), G2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>IF(D2&gt;24, G2/POWER(D2-23,$A$12), G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A3">
+        <v>0.25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f>E3*F3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>IF(D3&gt;24, G3*POWER($A$6,(-$A$3*D3)), G3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>IF(D3&gt;24, G3/POWER(D3-23,$A$12), G3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <f>E4*F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>IF(D4&gt;24, G4*POWER($A$6,(-$A$3*D4)), G4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>IF(D4&gt;24, G4/POWER(D4-23,$A$12), G4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <f>E5*F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>IF(D5&gt;24, G5*POWER($A$6,(-$A$3*D5)), G5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>IF(D5&gt;24, G5/POWER(D5-23,$A$12), G5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A6">
+        <v>1.075</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <f>E6*F6</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>IF(D6&gt;24, G6*POWER($A$6,(-$A$3*D6)), G6)</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>IF(D6&gt;24, G6/POWER(D6-23,$A$12), G6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <f>E7*F7</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>IF(D7&gt;24, G7*POWER($A$6,(-$A$3*D7)), G7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>IF(D7&gt;24, G7/POWER(D7-23,$A$12), G7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <f>E8*F8</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>IF(D8&gt;24, G8*POWER($A$6,(-$A$3*D8)), G8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>IF(D8&gt;24, G8/POWER(D8-23,$A$12), G8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <f>E9*F9</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>IF(D9&gt;24, G9*POWER($A$6,(-$A$3*D9)), G9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>IF(D9&gt;24, G9/POWER(D9-23,$A$12), G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1">
+      <c r="G10">
+        <f>E10*F10</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>IF(D10&gt;24, G10*POWER($A$6,(-$A$3*D10)), G10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>IF(D10&gt;24, G10/POWER(D10-23,$A$12), G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <f>E11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>IF(D11&gt;24, G11*POWER($A$6,(-$A$3*D11)), G11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>IF(D11&gt;24, G11/POWER(D11-23,$A$12), G11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <f>E12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>IF(D12&gt;24, G12*POWER($A$6,(-$A$3*D12)), G12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>IF(D12&gt;24, G12/POWER(D12-23,$A$12), G12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1">
+      <c r="G13">
+        <f>E13*F13</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>IF(D13&gt;24, G13*POWER($A$6,(-$A$3*D13)), G13)</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>IF(D13&gt;24, G13/POWER(D13-23,$A$12), G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1">
+      <c r="G14">
+        <f>E14*F14</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>IF(D14&gt;24, G14*POWER($A$6,(-$A$3*D14)), G14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>IF(D14&gt;24, G14/POWER(D14-23,$A$12), G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1">
+      <c r="G15">
+        <f>E15*F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>IF(D15&gt;24, G15*POWER($A$6,(-$A$3*D15)), G15)</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>IF(D15&gt;24, G15/POWER(D15-23,$A$12), G15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <f>E16*F16</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>IF(D16&gt;24, G16*POWER($A$6,(-$A$3*D16)), G16)</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>IF(D16&gt;24, G16/POWER(D16-23,$A$12), G16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="12.75" customHeight="1">
+      <c r="G17">
+        <f>E17*F17</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>IF(D17&gt;24, G17*POWER($A$6,(-$A$3*D17)), G17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>IF(D17&gt;24, G17/POWER(D17-23,$A$12), G17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="12.75" customHeight="1">
+      <c r="G18">
+        <f>E18*F18</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>IF(D18&gt;24, G18*POWER($A$6,(-$A$3*D18)), G18)</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>IF(D18&gt;24, G18/POWER(D18-23,$A$12), G18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <f>E19*F19</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>IF(D19&gt;24, G19*POWER($A$6,(-$A$3*D19)), G19)</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>IF(D19&gt;24, G19/POWER(D19-23,$A$12), G19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="12.75" customHeight="1">
+      <c r="G20">
+        <f>E20*F20</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>IF(D20&gt;24, G20*POWER($A$6,(-$A$3*D20)), G20)</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>IF(D20&gt;24, G20/POWER(D20-23,$A$12), G20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="12.75" customHeight="1">
+      <c r="G21">
+        <f>E21*F21</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>IF(D21&gt;24, G21*POWER($A$6,(-$A$3*D21)), G21)</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>IF(D21&gt;24, G21/POWER(D21-23,$A$12), G21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <f>E22*F22</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>IF(D22&gt;24, G22*POWER($A$6,(-$A$3*D22)), G22)</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>IF(D22&gt;24, G22/POWER(D22-23,$A$12), G22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="12.75" customHeight="1">
+      <c r="G23">
+        <f>E23*F23</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>IF(D23&gt;24, G23*POWER($A$6,(-$A$3*D23)), G23)</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>IF(D23&gt;24, G23/POWER(D23-23,$A$12), G23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="12.75" customHeight="1">
+      <c r="G24">
+        <f>E24*F24</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>IF(D24&gt;24, G24*POWER($A$6,(-$A$3*D24)), G24)</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>IF(D24&gt;24, G24/POWER(D24-23,$A$12), G24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="12.75" customHeight="1">
+      <c r="G25">
+        <f>E25*F25</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>IF(D25&gt;24, G25*POWER($A$6,(-$A$3*D25)), G25)</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>IF(D25&gt;24, G25/POWER(D25-23,$A$12), G25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="12.75" customHeight="1">
+      <c r="G26">
+        <f>E26*F26</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>IF(D26&gt;24, G26*POWER($A$6,(-$A$3*D26)), G26)</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>IF(D26&gt;24, G26/POWER(D26-23,$A$12), G26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="12.75" customHeight="1">
+      <c r="G27">
+        <f>E27*F27</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>IF(D27&gt;24, G27*POWER($A$6,(-$A$3*D27)), G27)</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>IF(D27&gt;24, G27/POWER(D27-23,$A$12), G27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="12.75" customHeight="1">
+      <c r="G28">
+        <f>E28*F28</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>IF(D28&gt;24, G28*POWER($A$6,(-$A$3*D28)), G28)</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>IF(D28&gt;24, G28/POWER(D28-23,$A$12), G28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="12.75" customHeight="1">
+      <c r="G29">
+        <f>E29*F29</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>IF(D29&gt;24, G29*POWER($A$6,(-$A$3*D29)), G29)</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>IF(D29&gt;24, G29/POWER(D29-23,$A$12), G29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="12.75" customHeight="1">
+      <c r="G30">
+        <f>E30*F30</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>IF(D30&gt;24, G30*POWER($A$6,(-$A$3*D30)), G30)</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>IF(D30&gt;24, G30/POWER(D30-23,$A$12), G30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="12.75" customHeight="1">
+      <c r="G31">
+        <f>E31*F31</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>IF(D31&gt;24, G31*POWER($A$6,(-$A$3*D31)), G31)</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>IF(D31&gt;24, G31/POWER(D31-23,$A$12), G31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="12.75" customHeight="1">
+      <c r="G32">
+        <f>E32*F32</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>IF(D32&gt;24, G32*POWER($A$6,(-$A$3*D32)), G32)</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>IF(D32&gt;24, G32/POWER(D32-23,$A$12), G32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G33">
+        <f>E33*F33</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>IF(D33&gt;24, G33*POWER($A$6,(-$A$3*D33)), G33)</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>IF(D33&gt;24, G33/POWER(D33-23,$A$12), G33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G34">
+        <f>E34*F34</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>IF(D34&gt;24, G34*POWER($A$6,(-$A$3*D34)), G34)</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>IF(D34&gt;24, G34/POWER(D34-23,$A$12), G34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G35">
+        <f>E35*F35</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>IF(D35&gt;24, G35*POWER($A$6,(-$A$3*D35)), G35)</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>IF(D35&gt;24, G35/POWER(D35-23,$A$12), G35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G36">
+        <f>E36*F36</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>IF(D36&gt;24, G36*POWER($A$6,(-$A$3*D36)), G36)</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>IF(D36&gt;24, G36/POWER(D36-23,$A$12), G36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G37">
+        <f>E37*F37</f>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>IF(D37&gt;24, G37*POWER($A$6,(-$A$3*D37)), G37)</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>IF(D37&gt;24, G37/POWER(D37-23,$A$12), G37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G38">
+        <f>E38*F38</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>IF(D38&gt;24, G38*POWER($A$6,(-$A$3*D38)), G38)</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>IF(D38&gt;24, G38/POWER(D38-23,$A$12), G38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G39">
+        <f>E39*F39</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f>IF(D39&gt;24, G39*POWER($A$6,(-$A$3*D39)), G39)</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f>IF(D39&gt;24, G39/POWER(D39-23,$A$12), G39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G40">
+        <f>E40*F40</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>IF(D40&gt;24, G40*POWER($A$6,(-$A$3*D40)), G40)</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f>IF(D40&gt;24, G40/POWER(D40-23,$A$12), G40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G41">
+        <f>E41*F41</f>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f>IF(D41&gt;24, G41*POWER($A$6,(-$A$3*D41)), G41)</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f>IF(D41&gt;24, G41/POWER(D41-23,$A$12), G41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G42">
+        <f>E42*F42</f>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f>IF(D42&gt;24, G42*POWER($A$6,(-$A$3*D42)), G42)</f>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f>IF(D42&gt;24, G42/POWER(D42-23,$A$12), G42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G43">
+        <f>E43*F43</f>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f>IF(D43&gt;24, G43*POWER($A$6,(-$A$3*D43)), G43)</f>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f>IF(D43&gt;24, G43/POWER(D43-23,$A$12), G43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G44">
+        <f>E44*F44</f>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f>IF(D44&gt;24, G44*POWER($A$6,(-$A$3*D44)), G44)</f>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f>IF(D44&gt;24, G44/POWER(D44-23,$A$12), G44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G45">
+        <f>E45*F45</f>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f>IF(D45&gt;24, G45*POWER($A$6,(-$A$3*D45)), G45)</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f>IF(D45&gt;24, G45/POWER(D45-23,$A$12), G45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G46">
+        <f>E46*F46</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>IF(D46&gt;24, G46*POWER($A$6,(-$A$3*D46)), G46)</f>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f>IF(D46&gt;24, G46/POWER(D46-23,$A$12), G46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G47">
+        <f>E47*F47</f>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f>IF(D47&gt;24, G47*POWER($A$6,(-$A$3*D47)), G47)</f>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f>IF(D47&gt;24, G47/POWER(D47-23,$A$12), G47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G48">
+        <f>E48*F48</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f>IF(D48&gt;24, G48*POWER($A$6,(-$A$3*D48)), G48)</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f>IF(D48&gt;24, G48/POWER(D48-23,$A$12), G48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G49">
+        <f>E49*F49</f>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f>IF(D49&gt;24, G49*POWER($A$6,(-$A$3*D49)), G49)</f>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f>IF(D49&gt;24, G49/POWER(D49-23,$A$12), G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G50">
+        <f>E50*F50</f>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f>IF(D50&gt;24, G50*POWER($A$6,(-$A$3*D50)), G50)</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f>IF(D50&gt;24, G50/POWER(D50-23,$A$12), G50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G51">
+        <f>E51*F51</f>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f>IF(D51&gt;24, G51*POWER($A$6,(-$A$3*D51)), G51)</f>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f>IF(D51&gt;24, G51/POWER(D51-23,$A$12), G51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G52">
+        <f>E52*F52</f>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f>IF(D52&gt;24, G52*POWER($A$6,(-$A$3*D52)), G52)</f>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f>IF(D52&gt;24, G52/POWER(D52-23,$A$12), G52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G53">
+        <f>E53*F53</f>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f>IF(D53&gt;24, G53*POWER($A$6,(-$A$3*D53)), G53)</f>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f>IF(D53&gt;24, G53/POWER(D53-23,$A$12), G53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G54">
+        <f>E54*F54</f>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f>IF(D54&gt;24, G54*POWER($A$6,(-$A$3*D54)), G54)</f>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f>IF(D54&gt;24, G54/POWER(D54-23,$A$12), G54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G55">
+        <f>E55*F55</f>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f>IF(D55&gt;24, G55*POWER($A$6,(-$A$3*D55)), G55)</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f>IF(D55&gt;24, G55/POWER(D55-23,$A$12), G55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G56">
+        <f>E56*F56</f>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f>IF(D56&gt;24, G56*POWER($A$6,(-$A$3*D56)), G56)</f>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f>IF(D56&gt;24, G56/POWER(D56-23,$A$12), G56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G57">
+        <f>E57*F57</f>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f>IF(D57&gt;24, G57*POWER($A$6,(-$A$3*D57)), G57)</f>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f>IF(D57&gt;24, G57/POWER(D57-23,$A$12), G57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G58">
+        <f>E58*F58</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>IF(D58&gt;24, G58*POWER($A$6,(-$A$3*D58)), G58)</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>IF(D58&gt;24, G58/POWER(D58-23,$A$12), G58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G59">
+        <f>E59*F59</f>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f>IF(D59&gt;24, G59*POWER($A$6,(-$A$3*D59)), G59)</f>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f>IF(D59&gt;24, G59/POWER(D59-23,$A$12), G59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G60">
+        <f>E60*F60</f>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f>IF(D60&gt;24, G60*POWER($A$6,(-$A$3*D60)), G60)</f>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f>IF(D60&gt;24, G60/POWER(D60-23,$A$12), G60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G61">
+        <f>E61*F61</f>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f>IF(D61&gt;24, G61*POWER($A$6,(-$A$3*D61)), G61)</f>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f>IF(D61&gt;24, G61/POWER(D61-23,$A$12), G61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G62">
+        <f>E62*F62</f>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f>IF(D62&gt;24, G62*POWER($A$6,(-$A$3*D62)), G62)</f>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f>IF(D62&gt;24, G62/POWER(D62-23,$A$12), G62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G63">
+        <f>E63*F63</f>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f>IF(D63&gt;24, G63*POWER($A$6,(-$A$3*D63)), G63)</f>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f>IF(D63&gt;24, G63/POWER(D63-23,$A$12), G63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G64">
+        <f>E64*F64</f>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f>IF(D64&gt;24, G64*POWER($A$6,(-$A$3*D64)), G64)</f>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f>IF(D64&gt;24, G64/POWER(D64-23,$A$12), G64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G65">
+        <f>E65*F65</f>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f>IF(D65&gt;24, G65*POWER($A$6,(-$A$3*D65)), G65)</f>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f>IF(D65&gt;24, G65/POWER(D65-23,$A$12), G65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G66">
+        <f>E66*F66</f>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f>IF(D66&gt;24, G66*POWER($A$6,(-$A$3*D66)), G66)</f>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f>IF(D66&gt;24, G66/POWER(D66-23,$A$12), G66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G67">
+        <f>E67*F67</f>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f>IF(D67&gt;24, G67*POWER($A$6,(-$A$3*D67)), G67)</f>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f>IF(D67&gt;24, G67/POWER(D67-23,$A$12), G67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G68">
+        <f>E68*F68</f>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f>IF(D68&gt;24, G68*POWER($A$6,(-$A$3*D68)), G68)</f>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f>IF(D68&gt;24, G68/POWER(D68-23,$A$12), G68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G69">
+        <f>E69*F69</f>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f>IF(D69&gt;24, G69*POWER($A$6,(-$A$3*D69)), G69)</f>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f>IF(D69&gt;24, G69/POWER(D69-23,$A$12), G69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G70">
+        <f>E70*F70</f>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f>IF(D70&gt;24, G70*POWER($A$6,(-$A$3*D70)), G70)</f>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f>IF(D70&gt;24, G70/POWER(D70-23,$A$12), G70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G71">
+        <f>E71*F71</f>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f>IF(D71&gt;24, G71*POWER($A$6,(-$A$3*D71)), G71)</f>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f>IF(D71&gt;24, G71/POWER(D71-23,$A$12), G71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G72">
+        <f>E72*F72</f>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f>IF(D72&gt;24, G72*POWER($A$6,(-$A$3*D72)), G72)</f>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f>IF(D72&gt;24, G72/POWER(D72-23,$A$12), G72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G73">
+        <f>E73*F73</f>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f>IF(D73&gt;24, G73*POWER($A$6,(-$A$3*D73)), G73)</f>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f>IF(D73&gt;24, G73/POWER(D73-23,$A$12), G73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G74">
+        <f>E74*F74</f>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f>IF(D74&gt;24, G74*POWER($A$6,(-$A$3*D74)), G74)</f>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f>IF(D74&gt;24, G74/POWER(D74-23,$A$12), G74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G75">
+        <f>E75*F75</f>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f>IF(D75&gt;24, G75*POWER($A$6,(-$A$3*D75)), G75)</f>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f>IF(D75&gt;24, G75/POWER(D75-23,$A$12), G75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G76">
+        <f>E76*F76</f>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f>IF(D76&gt;24, G76*POWER($A$6,(-$A$3*D76)), G76)</f>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f>IF(D76&gt;24, G76/POWER(D76-23,$A$12), G76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G77">
+        <f>E77*F77</f>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f>IF(D77&gt;24, G77*POWER($A$6,(-$A$3*D77)), G77)</f>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f>IF(D77&gt;24, G77/POWER(D77-23,$A$12), G77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G78">
+        <f>E78*F78</f>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f>IF(D78&gt;24, G78*POWER($A$6,(-$A$3*D78)), G78)</f>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f>IF(D78&gt;24, G78/POWER(D78-23,$A$12), G78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G79">
+        <f>E79*F79</f>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f>IF(D79&gt;24, G79*POWER($A$6,(-$A$3*D79)), G79)</f>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f>IF(D79&gt;24, G79/POWER(D79-23,$A$12), G79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G80">
+        <f>E80*F80</f>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f>IF(D80&gt;24, G80*POWER($A$6,(-$A$3*D80)), G80)</f>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f>IF(D80&gt;24, G80/POWER(D80-23,$A$12), G80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G81">
+        <f>E81*F81</f>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f>IF(D81&gt;24, G81*POWER($A$6,(-$A$3*D81)), G81)</f>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f>IF(D81&gt;24, G81/POWER(D81-23,$A$12), G81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G82">
+        <f>E82*F82</f>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f>IF(D82&gt;24, G82*POWER($A$6,(-$A$3*D82)), G82)</f>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f>IF(D82&gt;24, G82/POWER(D82-23,$A$12), G82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G83">
+        <f>E83*F83</f>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f>IF(D83&gt;24, G83*POWER($A$6,(-$A$3*D83)), G83)</f>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f>IF(D83&gt;24, G83/POWER(D83-23,$A$12), G83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G84">
+        <f>E84*F84</f>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f>IF(D84&gt;24, G84*POWER($A$6,(-$A$3*D84)), G84)</f>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f>IF(D84&gt;24, G84/POWER(D84-23,$A$12), G84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G85">
+        <f>E85*F85</f>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f>IF(D85&gt;24, G85*POWER($A$6,(-$A$3*D85)), G85)</f>
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f>IF(D85&gt;24, G85/POWER(D85-23,$A$12), G85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G86">
+        <f>E86*F86</f>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f>IF(D86&gt;24, G86*POWER($A$6,(-$A$3*D86)), G86)</f>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f>IF(D86&gt;24, G86/POWER(D86-23,$A$12), G86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G87">
+        <f>E87*F87</f>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f>IF(D87&gt;24, G87*POWER($A$6,(-$A$3*D87)), G87)</f>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f>IF(D87&gt;24, G87/POWER(D87-23,$A$12), G87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G88">
+        <f>E88*F88</f>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f>IF(D88&gt;24, G88*POWER($A$6,(-$A$3*D88)), G88)</f>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f>IF(D88&gt;24, G88/POWER(D88-23,$A$12), G88)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G89">
+        <f>E89*F89</f>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f>IF(D89&gt;24, G89*POWER($A$6,(-$A$3*D89)), G89)</f>
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f>IF(D89&gt;24, G89/POWER(D89-23,$A$12), G89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G90">
+        <f>E90*F90</f>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f>IF(D90&gt;24, G90*POWER($A$6,(-$A$3*D90)), G90)</f>
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f>IF(D90&gt;24, G90/POWER(D90-23,$A$12), G90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G91">
+        <f>E91*F91</f>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f>IF(D91&gt;24, G91*POWER($A$6,(-$A$3*D91)), G91)</f>
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <f>IF(D91&gt;24, G91/POWER(D91-23,$A$12), G91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G92">
+        <f>E92*F92</f>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f>IF(D92&gt;24, G92*POWER($A$6,(-$A$3*D92)), G92)</f>
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <f>IF(D92&gt;24, G92/POWER(D92-23,$A$12), G92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G93">
+        <f>E93*F93</f>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f>IF(D93&gt;24, G93*POWER($A$6,(-$A$3*D93)), G93)</f>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f>IF(D93&gt;24, G93/POWER(D93-23,$A$12), G93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G94">
+        <f>E94*F94</f>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f>IF(D94&gt;24, G94*POWER($A$6,(-$A$3*D94)), G94)</f>
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f>IF(D94&gt;24, G94/POWER(D94-23,$A$12), G94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G95">
+        <f>E95*F95</f>
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f>IF(D95&gt;24, G95*POWER($A$6,(-$A$3*D95)), G95)</f>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f>IF(D95&gt;24, G95/POWER(D95-23,$A$12), G95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G96">
+        <f>E96*F96</f>
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f>IF(D96&gt;24, G96*POWER($A$6,(-$A$3*D96)), G96)</f>
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <f>IF(D96&gt;24, G96/POWER(D96-23,$A$12), G96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G97">
+        <f>E97*F97</f>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f>IF(D97&gt;24, G97*POWER($A$6,(-$A$3*D97)), G97)</f>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f>IF(D97&gt;24, G97/POWER(D97-23,$A$12), G97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G98">
+        <f>E98*F98</f>
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f>IF(D98&gt;24, G98*POWER($A$6,(-$A$3*D98)), G98)</f>
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f>IF(D98&gt;24, G98/POWER(D98-23,$A$12), G98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G99">
+        <f>E99*F99</f>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f>IF(D99&gt;24, G99*POWER($A$6,(-$A$3*D99)), G99)</f>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f>IF(D99&gt;24, G99/POWER(D99-23,$A$12), G99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="7:9" ht="12.75" customHeight="1">
+      <c r="G100">
+        <f>E100*F100</f>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f>IF(D100&gt;24, G100*POWER($A$6,(-$A$3*D100)), G100)</f>
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <f>IF(D100&gt;24, G100/POWER(D100-23,$A$12), G100)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4672,4 +7079,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/decay_tests.xlsx
+++ b/decay_tests.xlsx
@@ -12,8 +12,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="foo" localSheetId="1">'zumic data'!$C$12:$D$14</definedName>
+    <definedName name="foo_1" localSheetId="1">'zumic data'!$C$9:$D$11</definedName>
     <definedName name="NamedRange1" localSheetId="1">'zumic data'!$A$1:$F$1</definedName>
     <definedName name="NamedRange1">'random numbers'!$A$1:$E$1</definedName>
+    <definedName name="post_dates" localSheetId="1">'zumic data'!$C$2:$C$51</definedName>
+    <definedName name="post_titles" localSheetId="1">'zumic data'!$B$2:$B$51</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,8 +28,45 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="foo.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:usdivad:Documents:tech:zumic:power_rankings:foo.csv" tab="0" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="foo.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:usdivad:Documents:tech:zumic:power_rankings:foo.csv" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="post_dates.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:usdivad:Documents:tech:zumic:power_rankings:post_dates.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="post_titles.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:usdivad:Documents:tech:zumic:power_rankings:post_titles.csv" delimited="0" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>Popularity</t>
   </si>
@@ -95,6 +136,156 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>Jonathan Wilson Shines at Bowery Ballroom in NYC 2.12.2014 [Zumic Photos]</t>
+  </si>
+  <si>
+    <t>Dean Ween Recalls His &amp;#8220;Worst Gig Nightmare&amp;#8221; Opening Up For Busta Rhymes in 1997</t>
+  </si>
+  <si>
+    <t>Behind The Boards Producer Profile: Lex Luger</t>
+  </si>
+  <si>
+    <t>Speedy Ortiz Play Free In-Store Show at Other Music NYC 2.10.2014 [Zumic Review &amp;#038; Pics]</t>
+  </si>
+  <si>
+    <t>Danny Malone Speaks on Phillip Seymour Hoffman&amp;#8217;s Legacy and The Culture of Drug Abuse [Zumic Exclusive]</t>
+  </si>
+  <si>
+    <t>&amp;#8220;Earth Song / Common People&amp;#8221; &amp;#8211; Bastille (Michael Jackson &amp;#038; Pulp Mash-Up) [YouTube Video]</t>
+  </si>
+  <si>
+    <t>Paul McCartney and Ringo Starr Return to the Ed Sullivan Theater for Interview with David Letterman [Videos]</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen 2014 US Tour Dates and Ticket Info Announced</t>
+  </si>
+  <si>
+    <t>DMX Never Confirmed George Zimmerman Boxing Match; Promotor Says Fight Is Off</t>
+  </si>
+  <si>
+    <t>Arctic Monkeys at Madison Square Garden, NYC 2.8.2014 [Zumic Review + Photos]</t>
+  </si>
+  <si>
+    <t>Rob Ford Declares February 6th Bob Marley Day, Stays Home to Celebrate [Video]</t>
+  </si>
+  <si>
+    <t>Amnesty International Human Rights Concert Brings Flaming Lips, Pussy Riot, Blondie To Brooklyn&amp;#8217;s Barclays Center 2.5.2014 [Zumic Review &amp;#038; Pics]</t>
+  </si>
+  <si>
+    <t>Behind The Boards Producer Profile: A-Trak</t>
+  </si>
+  <si>
+    <t>&amp;#8220;Which Rapper Are You?&amp;#8221; Personality Quiz</t>
+  </si>
+  <si>
+    <t>Marvin Gaye&amp;#8217;s Passport Discovered In Old Vinyl Record Sleeve; Appraised for $20,000 on PBS Antiques Roadshow [YouTube Video]</t>
+  </si>
+  <si>
+    <t>Action Bronson Knocks Down Security Guard During Altercation at Portland Concert [YouTube Video]</t>
+  </si>
+  <si>
+    <t>Melvins&amp;#8217; Buzz Osborne 2014 Solo Tour Dates and Ticket Info Announced</t>
+  </si>
+  <si>
+    <t>Jimi Hendrix&amp;#8217;s Last Interview Animated by PBS Blank On Blank [YouTube Video]</t>
+  </si>
+  <si>
+    <t>Baby DJ School Teaches Kids to be Real DJs [Vice YouTube Video]</t>
+  </si>
+  <si>
+    <t>Pharrell Williams Interviewed by Hard Knock TV / Grammy.com [YouTube Video]</t>
+  </si>
+  <si>
+    <t>Petition To Deport Justin Bieber From USA Reaches 200,000; State Department Responds</t>
+  </si>
+  <si>
+    <t>Pete Seeger Looks Back on His Life With &amp;#8220;The Power Of Song &amp;#8211; PBS American Masters&amp;#8221; [Full Documentary Video]</t>
+  </si>
+  <si>
+    <t>Zumic Podcast Number Two 1.29.2014 [SoundCloud Audio &amp;#038; Free Download]</t>
+  </si>
+  <si>
+    <t>Black Keys Roseland Ballroom Tickets Sell Out Hours Before They Are Scheduled To Go On Sale &amp;#8211; Citibank &amp;#038; Ticketmaster Blame Each Other</t>
+  </si>
+  <si>
+    <t>FIDLAR, Big Ups, Amanda X at Baby&amp;#8217;s All Right in Brooklyn, NYC 1.27.2014 [ Zumic Review, Pics, &amp;#038; Videos]</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar Interview Before 2014 Grammys [Hollywood Reporter Video]</t>
+  </si>
+  <si>
+    <t>Neil Young Releasing New Album &amp;#8220;A Letter Home&amp;#8221; On Jack White&amp;#8217;s Third Man Records Label</t>
+  </si>
+  <si>
+    <t>Avicii 2014 #TRUETOUR Dates and Ticket Pre-Sale Info Announced</t>
+  </si>
+  <si>
+    <t>Private: Rapper Personality</t>
+  </si>
+  <si>
+    <t>Zumic Podcast Number One 1.22.2014 [SoundCloud Audio &amp;#038; Free Download]</t>
+  </si>
+  <si>
+    <t>Foals 2014 Tour Dates and Ticket Pre-Sale Info Announced</t>
+  </si>
+  <si>
+    <t>Nielsen Music Industry Year End Review 2013: Vinyl and Streaming up More Than 30%</t>
+  </si>
+  <si>
+    <t>Cage The Elephant 2014 Tour Dates &amp;#038; Ticket Sales Announced</t>
+  </si>
+  <si>
+    <t>Tool 2014 West Coast Tour Dates &amp;#038; Ticket Sales Announced</t>
+  </si>
+  <si>
+    <t>Disclosure at Terminal 5 1.19.2014 [Zumic Review, Photos + Setlist]</t>
+  </si>
+  <si>
+    <t>The National 2014 Tour Dates and Ticket Pre-Sale Information Announced</t>
+  </si>
+  <si>
+    <t>&amp;#8220;That Metal Show&amp;#8221; featuring Zakk Wylde &amp;#038; M. Shadows 1.18.2014 [Season 13 Episode 1 Full Video]</t>
+  </si>
+  <si>
+    <t>Charles Bradley Shows the Music Hall of Williamsburg What Soul is All About 1.18.2014 [Zumic Review &amp;#038; Photos + YouTube Video]</t>
+  </si>
+  <si>
+    <t>Sharon Jones &amp;#038; The Dap-Kings on CBS Saturday Sessions 1.18.2014 [YouTube Videos]</t>
+  </si>
+  <si>
+    <t>Beck Shares Video of Vinyl Lacquer Cutting For 2014 Album &amp;#8220;Morning Phase&amp;#8221; on YouTube</t>
+  </si>
+  <si>
+    <t>Metallica&amp;#8217;s Kirk Hammett Says 2014 Grammy Performance Will Be &amp;#8220;Insane&amp;#8221;</t>
+  </si>
+  <si>
+    <t>Katy Perry &amp;#8220;Prismatic&amp;#8221; 2014 Tour Dates and Ticket Pre-Sale Info Announced</t>
+  </si>
+  <si>
+    <t>Sharon Jones Opens Up About Cancer in Interview With NPR [Audio]</t>
+  </si>
+  <si>
+    <t>Bob Dylan&amp;#8217;s 1965 Newport Folk Festival Electric Guitar Sells For Close To $1 Million At Auction</t>
+  </si>
+  <si>
+    <t>Wetlands Alumni Rusted Root at Gramercy Theater, NYC 1.11.2014 [Zumic Review &amp;#038; Pics]</t>
+  </si>
+  <si>
+    <t>OutKast to Play Over 40 Concerts in Spring / Summer 2014</t>
+  </si>
+  <si>
+    <t>Herbie Hancock Joins Harvard As 2014 Guest Lecturer [BBC Radio Interview &amp;#038; Full Schedule / Ticket Info]</t>
+  </si>
+  <si>
+    <t>Alt-J Guitar &amp;#038; Bass Player Gwil Sainsbury Calls It Quits Via Twitter</t>
+  </si>
+  <si>
+    <t>Miley Cyrus Poses Topless in NSFW Pics From Fan Site Miley HQ</t>
+  </si>
+  <si>
+    <t>Fall Out Boy &amp;#038; Paramore 2014 &amp;#8220;Monumentour&amp;#8221; Dates and Ticket Pre-Sale Info Announced</t>
+  </si>
 </sst>
 </file>
 
@@ -142,7 +333,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -186,16 +377,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -217,6 +436,17 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -238,6 +468,17 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -277,7 +518,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -329,298 +569,298 @@
                   <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.0</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.0</c:v>
+                  <c:v>102.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.0</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>115.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>135.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="31">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>115.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>129.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>103.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>138.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>121.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="59">
                   <c:v>23.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>105.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="60">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>133.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>121.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>101.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>142.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>106.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>113.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="84">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>141.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>106.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>106.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>130.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="88">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>76.0</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>123.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>123.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>130.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>143.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>124.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>118.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>108.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="95">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>138.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,301 +872,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>27221.20976186125</c:v>
+                  <c:v>46031.12488800045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33255.85628162923</c:v>
+                  <c:v>5268.222202258083</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7607.41230287506</c:v>
+                  <c:v>895.7924675360275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4796.820668244447</c:v>
+                  <c:v>7948.208795362733</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>457.2267313518059</c:v>
+                  <c:v>10680.68267521656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4696.218663896736</c:v>
+                  <c:v>7802.033237253457</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.5117395311212</c:v>
+                  <c:v>7139.873410739354</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1670.87176313523</c:v>
+                  <c:v>78810.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15151.4894033161</c:v>
+                  <c:v>51000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4010.106221875633</c:v>
+                  <c:v>19692.9286633277</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9018.607533466831</c:v>
+                  <c:v>1660.548032437601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1400.535479490084</c:v>
+                  <c:v>32296.81308264416</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1832.378552887551</c:v>
+                  <c:v>17658.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>571.6410071475173</c:v>
+                  <c:v>42240.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54656.0</c:v>
+                  <c:v>34313.32910033105</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15480.0</c:v>
+                  <c:v>6075.115601761628</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1568.763394428175</c:v>
+                  <c:v>6464.736098760467</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10461.84647035501</c:v>
+                  <c:v>491.7103692889999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6133.739735681774</c:v>
+                  <c:v>20366.13573231304</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3871.948377070546</c:v>
+                  <c:v>60282.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9068.428357385855</c:v>
+                  <c:v>84217.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7360.999711543806</c:v>
+                  <c:v>2635.631596776605</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20839.353080197</c:v>
+                  <c:v>15097.30215696946</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6643.904726467572</c:v>
+                  <c:v>17153.8226890049</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14843.91720652259</c:v>
+                  <c:v>4660.420377780957</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4692.279334822894</c:v>
+                  <c:v>33480.26276824349</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4130.0</c:v>
+                  <c:v>72270.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>285.7651021852168</c:v>
+                  <c:v>109440.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10563.16571025806</c:v>
+                  <c:v>6250.56832231105</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3103.271003270974</c:v>
+                  <c:v>6227.707443648494</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3721.982528976022</c:v>
+                  <c:v>2886.642267828957</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24624.0</c:v>
+                  <c:v>5041.43247656717</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5338.755935979775</c:v>
+                  <c:v>13364.80072892007</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17547.0247634325</c:v>
+                  <c:v>5250.283868718871</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6959.714685238223</c:v>
+                  <c:v>4121.048043892998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25012.0</c:v>
+                  <c:v>13430.53079162512</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>848.79226785101</c:v>
+                  <c:v>4003.412734827475</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8099.912970152334</c:v>
+                  <c:v>5385.809898903689</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4631.548548768252</c:v>
+                  <c:v>4210.125467455836</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5878.969091239598</c:v>
+                  <c:v>3227.93943615917</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13661.40865908558</c:v>
+                  <c:v>207.4987776395406</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6985.993088544342</c:v>
+                  <c:v>11816.25588686287</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6279.08996469692</c:v>
+                  <c:v>15114.58071717157</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>36449.0</c:v>
+                  <c:v>652.3087024714187</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13483.1571370351</c:v>
+                  <c:v>1078.731212843322</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4612.242830366787</c:v>
+                  <c:v>8243.201167781015</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>53246.86462295231</c:v>
+                  <c:v>6047.531927056822</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8382.662000086493</c:v>
+                  <c:v>34790.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2843.408034528634</c:v>
+                  <c:v>13113.70330351136</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2788.397585582427</c:v>
+                  <c:v>6718.28329133701</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>28886.0</c:v>
+                  <c:v>661.0265178872846</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>12212.56041052824</c:v>
+                  <c:v>22715.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>59958.99445001792</c:v>
+                  <c:v>2461.946976872241</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1564.671089539057</c:v>
+                  <c:v>6727.166118979892</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1005.615973343571</c:v>
+                  <c:v>5388.312373700167</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1292.660866512851</c:v>
+                  <c:v>11879.92603753992</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>31022.16234612702</c:v>
+                  <c:v>8141.075877884088</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>16498.4919503383</c:v>
+                  <c:v>5994.62047767462</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>512.8996696986714</c:v>
+                  <c:v>15410.30373879323</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>41140.0</c:v>
+                  <c:v>22230.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5009.591790729707</c:v>
+                  <c:v>10960.38103677885</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>808.6249270531028</c:v>
+                  <c:v>16828.52459506094</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63632.0</c:v>
+                  <c:v>3057.946386185094</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8809.437191305879</c:v>
+                  <c:v>3075.632204363114</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2218.468165259389</c:v>
+                  <c:v>83376.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4119.981206116922</c:v>
+                  <c:v>117.9307898248669</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>21362.17810447031</c:v>
+                  <c:v>54087.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3292.947520083911</c:v>
+                  <c:v>2424.883072381076</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10596.41513504835</c:v>
+                  <c:v>5335.09726226053</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>18338.27376341161</c:v>
+                  <c:v>21797.48232721017</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>24453.30909694625</c:v>
+                  <c:v>2154.840799264342</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6957.49513558718</c:v>
+                  <c:v>3798.952689387114</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4952.792931744731</c:v>
+                  <c:v>4443.891189313111</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5855.735734938696</c:v>
+                  <c:v>3019.843881356469</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3359.618024628061</c:v>
+                  <c:v>44917.29521491026</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5419.212814472312</c:v>
+                  <c:v>18221.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>15953.28301830372</c:v>
+                  <c:v>6191.755774624915</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>11536.0</c:v>
+                  <c:v>5230.632354657808</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11152.01354882455</c:v>
+                  <c:v>5182.390006648055</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>11497.58488787679</c:v>
+                  <c:v>12480.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3377.844485901691</c:v>
+                  <c:v>50968.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>17029.95645991912</c:v>
+                  <c:v>51054.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>53.73938860957458</c:v>
+                  <c:v>24420.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>45198.0</c:v>
+                  <c:v>2213.155222936646</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6415.628339253238</c:v>
+                  <c:v>3764.121072484832</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>20785.70788843473</c:v>
+                  <c:v>18447.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>645.9632632525721</c:v>
+                  <c:v>15584.44823447018</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>126392.0</c:v>
+                  <c:v>16745.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3724.0</c:v>
+                  <c:v>22340.17169528253</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>42294.0</c:v>
+                  <c:v>25164.78615272337</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>563.6899497314213</c:v>
+                  <c:v>5198.066317692723</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1449.70155712627</c:v>
+                  <c:v>3444.696575807759</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4312.446403999888</c:v>
+                  <c:v>13693.0694031636</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4015.883180733547</c:v>
+                  <c:v>22061.48387259731</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>45647.15702108266</c:v>
+                  <c:v>7089.984862770898</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>10770.1463199637</c:v>
+                  <c:v>34840.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>20498.94353966271</c:v>
+                  <c:v>16618.72776212392</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>8522.664085751574</c:v>
+                  <c:v>31115.83132117317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>77220.0</c:v>
+                  <c:v>41348.90358463447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,298 +1194,298 @@
                   <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.0</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.0</c:v>
+                  <c:v>102.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.0</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>115.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>135.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="31">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>115.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>129.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>103.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>138.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>121.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="59">
                   <c:v>23.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>105.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="60">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>133.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>121.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>101.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>142.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>106.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>113.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="84">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>141.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>106.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>106.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>130.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="88">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>76.0</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>123.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>123.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>130.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>143.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>124.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>118.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>108.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="95">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>138.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1257,301 +1497,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>30247.90677881694</c:v>
+                  <c:v>51149.27612391009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16176.86035084716</c:v>
+                  <c:v>5065.380753186999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3656.52133382343</c:v>
+                  <c:v>637.2497870845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4050.95549063388</c:v>
+                  <c:v>3808.296879342802</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>381.2686061033612</c:v>
+                  <c:v>5371.609641395666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2410.823425088723</c:v>
+                  <c:v>5963.852146350495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.80484858633795</c:v>
+                  <c:v>3944.338875354952</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1393.293314729374</c:v>
+                  <c:v>78810.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7670.448606058306</c:v>
+                  <c:v>51000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3805.13700765936</c:v>
+                  <c:v>12787.33501070713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9024.21694716134</c:v>
+                  <c:v>1956.405177957517</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1008.13124765578</c:v>
+                  <c:v>20997.81629802762</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2071.372930544208</c:v>
+                  <c:v>17658.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>514.7737367038065</c:v>
+                  <c:v>42240.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54656.0</c:v>
+                  <c:v>16947.91089190641</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15480.0</c:v>
+                  <c:v>6414.896300444345</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1156.438941055793</c:v>
+                  <c:v>3089.17275030873</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6177.921177924267</c:v>
+                  <c:v>579.3176070434149</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5114.754319613015</c:v>
+                  <c:v>10381.16919234052</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2514.196942883678</c:v>
+                  <c:v>60282.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9575.624783793484</c:v>
+                  <c:v>84217.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6628.722012606062</c:v>
+                  <c:v>1362.962480556327</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9982.002029740284</c:v>
+                  <c:v>7695.502480164776</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4671.322132066943</c:v>
+                  <c:v>8950.044469163267</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7465.415012062329</c:v>
+                  <c:v>4307.6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4822.799248630674</c:v>
+                  <c:v>18666.56734280935</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4130.0</c:v>
+                  <c:v>72270.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>341.3785202933059</c:v>
+                  <c:v>109440.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7880.964102999777</c:v>
+                  <c:v>4637.604985334564</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1532.755981883613</c:v>
+                  <c:v>4134.946689292097</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3026.510539291817</c:v>
+                  <c:v>2407.090395874871</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24624.0</c:v>
+                  <c:v>4151.207953418797</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2702.747692795073</c:v>
+                  <c:v>12035.2604615584</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10866.10990649368</c:v>
+                  <c:v>4667.140182653193</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3599.07280021905</c:v>
+                  <c:v>4991.943389102084</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25012.0</c:v>
+                  <c:v>7052.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1000.020207422949</c:v>
+                  <c:v>3255.354032632668</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6043.181097992391</c:v>
+                  <c:v>3700.01695586442</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3911.381792523164</c:v>
+                  <c:v>2737.218713532823</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4386.179829188026</c:v>
+                  <c:v>3022.922983857947</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6646.935669915874</c:v>
+                  <c:v>166.6316667369998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7084.535012673336</c:v>
+                  <c:v>5981.98507642283</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2983.840532171344</c:v>
+                  <c:v>7307.680708222913</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>36449.0</c:v>
+                  <c:v>453.3351731564397</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8659.431274627681</c:v>
+                  <c:v>984.1330287018204</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4493.805120556348</c:v>
+                  <c:v>3919.285807564857</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>27329.31968417802</c:v>
+                  <c:v>3760.375497287074</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4549.931320236376</c:v>
+                  <c:v>34790.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1459.675365933482</c:v>
+                  <c:v>6266.380294875183</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2577.3</c:v>
+                  <c:v>4268.039649449775</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>28886.0</c:v>
+                  <c:v>448.947569321853</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11288.0</c:v>
+                  <c:v>22715.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>29658.88683008855</c:v>
+                  <c:v>2367.155057861898</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>842.0348978698978</c:v>
+                  <c:v>3784.98366354907</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>555.5406866697114</c:v>
+                  <c:v>5926.541470816663</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1310.89467914592</c:v>
+                  <c:v>9192.743915593124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>19210.67703127612</c:v>
+                  <c:v>4275.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8148.873302487896</c:v>
+                  <c:v>3892.525160710019</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>329.4050047325589</c:v>
+                  <c:v>12850.22205230238</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>41140.0</c:v>
+                  <c:v>22230.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2928.971665344929</c:v>
+                  <c:v>6001.249869818786</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>979.5105070050721</c:v>
+                  <c:v>8768.507213317441</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63632.0</c:v>
+                  <c:v>3185.634442017027</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5308.75</c:v>
+                  <c:v>2065.255549922693</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1781.538436926689</c:v>
+                  <c:v>83376.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2034.925674318352</c:v>
+                  <c:v>131.4966479460698</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10176.0</c:v>
+                  <c:v>54087.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1667.056224170455</c:v>
+                  <c:v>2459.087607185454</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7538.08893620436</c:v>
+                  <c:v>4931.2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9786.55750727176</c:v>
+                  <c:v>10367.48336794496</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>12220.82531699768</c:v>
+                  <c:v>2402.717241031678</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6515.60302521403</c:v>
+                  <c:v>4353.905746568247</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4762.096401368028</c:v>
+                  <c:v>2363.022835919476</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5073.052559720253</c:v>
+                  <c:v>2050.979096269226</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3850.392837101171</c:v>
+                  <c:v>33326.35713665686</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3200.1492001508</c:v>
+                  <c:v>18221.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8894.584665044027</c:v>
+                  <c:v>2986.775136210577</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>11536.0</c:v>
+                  <c:v>4200.453599101203</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6520.278110582728</c:v>
+                  <c:v>2743.150046935092</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8179.164022152008</c:v>
+                  <c:v>12480.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2582.014774186555</c:v>
+                  <c:v>50968.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8365.895395546777</c:v>
+                  <c:v>51054.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>50.99259846329873</c:v>
+                  <c:v>24420.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>45198.0</c:v>
+                  <c:v>2336.936806240947</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6683.52025301615</c:v>
+                  <c:v>4140.11254175621</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>10049.58849903816</c:v>
+                  <c:v>18447.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>414.863850299968</c:v>
+                  <c:v>10584.44701499957</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>126392.0</c:v>
+                  <c:v>16745.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3724.0</c:v>
+                  <c:v>12142.83086159621</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>42294.0</c:v>
+                  <c:v>12299.30370729215</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>646.0340815179635</c:v>
+                  <c:v>2898.127044081464</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1638.783950001528</c:v>
+                  <c:v>2014.020121344454</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2097.73107801636</c:v>
+                  <c:v>6726.663485044101</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2856.82319803136</c:v>
+                  <c:v>10570.51750259784</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>28267.30068471342</c:v>
+                  <c:v>3848.293559586472</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>8980.924327852268</c:v>
+                  <c:v>34840.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>11031.60015242924</c:v>
+                  <c:v>10333.58028143372</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5658.705384638521</c:v>
+                  <c:v>15860.57923560451</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>77220.0</c:v>
+                  <c:v>19991.59557818997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1566,11 +1806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2056316664"/>
-        <c:axId val="2093168264"/>
+        <c:axId val="-2146701448"/>
+        <c:axId val="2134946584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2056316664"/>
+        <c:axId val="-2146701448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1832,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1614,12 +1853,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093168264"/>
+        <c:crossAx val="2134946584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2093168264"/>
+        <c:axId val="2134946584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1881,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1664,14 +1902,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056316664"/>
+        <c:crossAx val="-2146701448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1769,7 +2006,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'zumic data'!$D$2:$D$100</c:f>
+              <c:f>'zumic data'!$F$2:$F$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
@@ -1778,163 +2015,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'zumic data'!$H$2:$H$100</c:f>
+              <c:f>'zumic data'!$J$2:$J$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="51">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -2097,7 +2181,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'zumic data'!$D$2:$D$100</c:f>
+              <c:f>'zumic data'!$F$2:$F$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
@@ -2106,172 +2190,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'zumic data'!$I$2:$I$100</c:f>
+              <c:f>'zumic data'!$K$2:$K$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="54">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -2420,11 +2342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2117641176"/>
-        <c:axId val="2117646968"/>
+        <c:axId val="-2146517752"/>
+        <c:axId val="2135881976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2117641176"/>
+        <c:axId val="-2146517752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,12 +2390,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117646968"/>
+        <c:crossAx val="2135881976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117646968"/>
+        <c:axId val="2135881976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,7 +2440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117641176"/>
+        <c:crossAx val="-2146517752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2600,6 +2522,22 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="post_titles" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="post_dates" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="foo" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="foo_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2927,7 +2865,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C1" sqref="C1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2967,26 +2905,26 @@
       </c>
       <c r="C2">
         <f ca="1">D2*E2</f>
-        <v>42777</v>
+        <v>72336</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(0,300)</f>
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(100,430)</f>
-        <v>291</v>
+        <v>411</v>
       </c>
       <c r="F2">
         <v>25</v>
       </c>
       <c r="G2">
         <f ca="1">IF(F2&gt;24, C2*POWER($A$6,(-$A$3*F2)), C2)</f>
-        <v>27221.20976186125</v>
+        <v>46031.12488800045</v>
       </c>
       <c r="H2">
         <f ca="1">IF(F2&gt;24, C2/POWER(F2-23,$A$12), C2)</f>
-        <v>30247.906778816941</v>
+        <v>51149.276123910095</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
@@ -2998,27 +2936,27 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="1">D3*E3</f>
-        <v>98400</v>
+        <v>51408</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" ca="1" si="2">RANDBETWEEN(0,300)</f>
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>410</v>
+        <v>204</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F4" ca="1" si="3">RANDBETWEEN(1,144)</f>
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="4">IF(F3&gt;24, C3*POWER($A$6,(-$A$3*F3)), C3)</f>
-        <v>33255.856281629232</v>
+        <v>5268.2222022580836</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="5">IF(F3&gt;24, C3/POWER(F3-23,$A$12), C3)</f>
-        <v>16176.860350847159</v>
+        <v>5065.3807531869988</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
@@ -3027,27 +2965,27 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>21321</v>
+        <v>5664</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="4"/>
-        <v>7607.4123028750591</v>
+        <v>895.79246753602752</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="5"/>
-        <v>3656.5213338234307</v>
+        <v>637.24978708449999</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
@@ -3056,27 +2994,27 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>39066</v>
+        <v>21877</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>383</v>
+        <v>167</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(1,144)</f>
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="4"/>
-        <v>4796.820668244447</v>
+        <v>7948.2087953627333</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="5"/>
-        <v>4050.9554906338794</v>
+        <v>3808.2968793428017</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
@@ -3088,27 +3026,27 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>3657</v>
+        <v>35224</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>259</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F69" ca="1" si="6">RANDBETWEEN(1,144)</f>
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="4"/>
-        <v>457.22673135180594</v>
+        <v>10680.682675216563</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="5"/>
-        <v>381.26860610336126</v>
+        <v>5371.6096413956666</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
@@ -3117,27 +3055,27 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>16351</v>
+        <v>54984</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>197</v>
+        <v>316</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="4"/>
-        <v>4696.2186638967369</v>
+        <v>7802.0332372534576</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="5"/>
-        <v>2410.8234250887231</v>
+        <v>5963.8521463504958</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
@@ -3149,27 +3087,27 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>580</v>
+        <v>29252</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>284</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="6"/>
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="4"/>
-        <v>50.511739531121194</v>
+        <v>7139.8734107393539</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="5"/>
-        <v>54.804848586337947</v>
+        <v>3944.3388753549516</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
@@ -3178,53 +3116,53 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>13364</v>
+        <v>78810</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>257</v>
+        <v>355</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="4"/>
-        <v>1670.8717631352297</v>
+        <v>78810</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="5"/>
-        <v>1393.2933147293736</v>
+        <v>78810</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>50880</v>
+        <v>51000</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10" ca="1" si="7">RANDBETWEEN(100,430)</f>
-        <v>320</v>
+        <v>425</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="4"/>
-        <v>15151.489403316096</v>
+        <v>51000</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="5"/>
-        <v>7670.4486060583067</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
@@ -3233,27 +3171,27 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>38430</v>
+        <v>107748</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>183</v>
+        <v>292</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>369</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="6"/>
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="4"/>
-        <v>4010.1062218756333</v>
+        <v>19692.928663327693</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="5"/>
-        <v>3805.1370076593594</v>
+        <v>12787.335010707131</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
@@ -3262,105 +3200,105 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>92910</v>
+        <v>21252</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="6"/>
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="4"/>
-        <v>9018.6075334668312</v>
+        <v>1660.5480324376015</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="5"/>
-        <v>9024.2169471613415</v>
+        <v>1956.4051779575168</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>9017</v>
+        <v>55555</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="6"/>
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="4"/>
-        <v>1400.5354794900841</v>
+        <v>32296.813082644159</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="5"/>
-        <v>1008.1312476557802</v>
+        <v>20997.816298027617</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>22213</v>
+        <v>17658</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>229</v>
+        <v>327</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="6"/>
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="4"/>
-        <v>1832.3785528875508</v>
+        <v>17658</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="5"/>
-        <v>2071.3729305442089</v>
+        <v>17658</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>5096</v>
+        <v>42240</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>352</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="6"/>
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="4"/>
-        <v>571.64100714751737</v>
+        <v>42240</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="5"/>
-        <v>514.77373670380655</v>
+        <v>42240</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
@@ -3369,79 +3307,79 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>54656</v>
+        <v>107188</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="4"/>
-        <v>54656</v>
+        <v>34313.329100331051</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="5"/>
-        <v>54656</v>
+        <v>16947.910891906413</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="12.75" customHeight="1">
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>15480</v>
+        <v>67280</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>232</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="4"/>
-        <v>15480</v>
+        <v>6075.1156017616286</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="5"/>
-        <v>15480</v>
+        <v>6414.8963004443449</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="12.75" customHeight="1">
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>10472</v>
+        <v>17475</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="6"/>
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="4"/>
-        <v>1568.7633944281749</v>
+        <v>6464.736098760467</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="5"/>
-        <v>1156.4389410557928</v>
+        <v>3089.1727503087291</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="12.75" customHeight="1">
@@ -3450,79 +3388,79 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>48645</v>
+        <v>6293</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="4"/>
-        <v>10461.846470355014</v>
+        <v>491.71036928899991</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="5"/>
-        <v>6177.9211779242669</v>
+        <v>579.31760704341491</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="12.75" customHeight="1">
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>49059</v>
+        <v>69639</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>417</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="4"/>
-        <v>6133.7397356817737</v>
+        <v>20366.13573231304</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="5"/>
-        <v>5114.7543196130155</v>
+        <v>10381.169192340523</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="12.75" customHeight="1">
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>21185</v>
+        <v>60282</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>223</v>
+        <v>394</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="4"/>
-        <v>3871.948377070546</v>
+        <v>60282</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="5"/>
-        <v>2514.1969428836783</v>
+        <v>60282</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="12.75" customHeight="1">
@@ -3531,2055 +3469,2055 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>100430</v>
+        <v>84217</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="6"/>
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="4"/>
-        <v>9068.4283573858556</v>
+        <v>84217</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="5"/>
-        <v>9575.6247837934843</v>
+        <v>84217</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="12.75" customHeight="1">
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>65621</v>
+        <v>9344</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>311</v>
+        <v>146</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="6"/>
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="4"/>
-        <v>7360.9997115438064</v>
+        <v>2635.631596776605</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="5"/>
-        <v>6628.722012606062</v>
+        <v>1362.9624805563267</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="12.75" customHeight="1">
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>47872</v>
+        <v>51623</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="4"/>
-        <v>20839.353080197005</v>
+        <v>15097.302156969456</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="5"/>
-        <v>9982.0020297402843</v>
+        <v>7695.502480164776</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="12.75" customHeight="1">
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>41256</v>
+        <v>33488</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="6"/>
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="4"/>
-        <v>6643.9047264675728</v>
+        <v>17153.822689004905</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="5"/>
-        <v>4671.3221320669436</v>
+        <v>8950.0444691632674</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="12.75" customHeight="1">
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>48954</v>
+        <v>43076</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>398</v>
+        <v>242</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="4"/>
-        <v>14843.917206522588</v>
+        <v>4660.4203777809571</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="5"/>
-        <v>7465.415012062329</v>
+        <v>4307.6000000000004</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="12.75" customHeight="1">
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>50120</v>
+        <v>61910</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="6"/>
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="4"/>
-        <v>4692.2793348228943</v>
+        <v>33480.26276824349</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="5"/>
-        <v>4822.7992486306739</v>
+        <v>18666.567342809347</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="12.75" customHeight="1">
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>4130</v>
+        <v>72270</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="4"/>
-        <v>4130</v>
+        <v>72270</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="5"/>
-        <v>4130</v>
+        <v>72270</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="12.75" customHeight="1">
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>3724</v>
+        <v>109440</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>288</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>380</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="6"/>
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="4"/>
-        <v>285.76510218521685</v>
+        <v>109440</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="5"/>
-        <v>341.37852029330588</v>
+        <v>109440</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="12.75" customHeight="1">
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>71799</v>
+        <v>10370</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>273</v>
+        <v>122</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="6"/>
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="4"/>
-        <v>10563.165710258056</v>
+        <v>6250.5683223110491</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="5"/>
-        <v>7880.9641029997774</v>
+        <v>4637.6049853345639</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="12.75" customHeight="1">
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>9694</v>
+        <v>35329</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>343</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="4"/>
-        <v>3103.2710032709747</v>
+        <v>6227.7074436484936</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="5"/>
-        <v>1532.7559818836135</v>
+        <v>4134.9466892920973</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="12.75" customHeight="1">
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>28712</v>
+        <v>23088</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="6"/>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="4"/>
-        <v>3721.9825289760215</v>
+        <v>2886.6422678289568</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="5"/>
-        <v>3026.5105392918167</v>
+        <v>2407.0903958748713</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="12.75" customHeight="1">
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>24624</v>
+        <v>39600</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="4"/>
-        <v>24624</v>
+        <v>5041.4324765671699</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="5"/>
-        <v>24624</v>
+        <v>4151.2079534187969</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="12.75" customHeight="1">
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>17928</v>
+        <v>119143</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>421</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="4"/>
-        <v>5338.7559359797751</v>
+        <v>13364.800728920067</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="5"/>
-        <v>2702.7476927950734</v>
+        <v>12035.260461558404</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="12.75" customHeight="1">
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>30734</v>
+        <v>45966</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="4"/>
-        <v>17547.024763432491</v>
+        <v>5250.2838687188705</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="5"/>
-        <v>10866.109906493675</v>
+        <v>4667.1401826531937</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="12.75" customHeight="1">
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>24674</v>
+        <v>54684</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="4"/>
-        <v>6959.714685238223</v>
+        <v>4121.0480438929981</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="5"/>
-        <v>3599.0728002190504</v>
+        <v>4991.9433891020835</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="12.75" customHeight="1">
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>25012</v>
+        <v>49368</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="4"/>
-        <v>25012</v>
+        <v>13430.530791625119</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="5"/>
-        <v>25012</v>
+        <v>7052.5714285714284</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="12.75" customHeight="1">
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>10863</v>
+        <v>30883</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>347</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="6"/>
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="4"/>
-        <v>848.79226785101002</v>
+        <v>4003.4127348274756</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="5"/>
-        <v>1000.0202074229487</v>
+        <v>3255.3540326326688</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="12.75" customHeight="1">
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>55056</v>
+        <v>32256</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="6"/>
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="4"/>
-        <v>8099.9129701523343</v>
+        <v>5385.8098989036889</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="5"/>
-        <v>6043.1810979923912</v>
+        <v>3700.0169558644197</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="12.75" customHeight="1">
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>37720</v>
+        <v>7242</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="6"/>
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="4"/>
-        <v>4631.5485487682517</v>
+        <v>4210.1254674558368</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="5"/>
-        <v>3911.3817925231642</v>
+        <v>2737.2187135328236</v>
       </c>
     </row>
     <row r="41" spans="3:8" ht="12.75" customHeight="1">
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>39960</v>
+        <v>30380</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="6"/>
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="4"/>
-        <v>5878.9690912395981</v>
+        <v>3227.9394361591694</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="5"/>
-        <v>4386.1798291880259</v>
+        <v>3022.9229838579472</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="12.75" customHeight="1">
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>29726</v>
+        <v>1572</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>393</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="4"/>
-        <v>13661.408659085582</v>
+        <v>207.49877763954058</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="5"/>
-        <v>6646.9356699158743</v>
+        <v>166.63166673699979</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="12.75" customHeight="1">
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>73283</v>
+        <v>39680</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="6"/>
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="4"/>
-        <v>6985.9930885443418</v>
+        <v>11816.255886862868</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="5"/>
-        <v>7084.5350126733356</v>
+        <v>5981.9850764228304</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="12.75" customHeight="1">
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>15789</v>
+        <v>33488</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>299</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>277</v>
+        <v>112</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="4"/>
-        <v>6279.089964696921</v>
+        <v>15114.580717171571</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="5"/>
-        <v>2983.8405321713444</v>
+        <v>7307.6807082229134</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="12.75" customHeight="1">
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>36449</v>
+        <v>3978</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>287</v>
+        <v>153</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="4"/>
-        <v>36449</v>
+        <v>652.30870247141866</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="5"/>
-        <v>36449</v>
+        <v>453.33517315643974</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="12.75" customHeight="1">
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>72450</v>
+        <v>9792</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="4"/>
-        <v>13483.157137035105</v>
+        <v>1078.7312128433218</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="5"/>
-        <v>8659.431274627681</v>
+        <v>984.13302870182042</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="12.75" customHeight="1">
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>45828</v>
+        <v>21106</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>402</v>
+        <v>122</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="6"/>
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="4"/>
-        <v>4612.2428303667875</v>
+        <v>8243.2011677810151</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="5"/>
-        <v>4493.8051205563488</v>
+        <v>3919.2858075648569</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="12.75" customHeight="1">
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>105846</v>
+        <v>30780</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>299</v>
+        <v>108</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>354</v>
+        <v>285</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="4"/>
-        <v>53246.864622952315</v>
+        <v>6047.5319270568225</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="5"/>
-        <v>27329.319684178015</v>
+        <v>3760.3754972870747</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="12.75" customHeight="1">
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>33124</v>
+        <v>34790</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>355</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="4"/>
-        <v>8382.6620000864932</v>
+        <v>34790</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="5"/>
-        <v>4549.9313202363755</v>
+        <v>34790</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="12.75" customHeight="1">
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>9900</v>
+        <v>35448</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="4"/>
-        <v>2843.4080345286343</v>
+        <v>13113.703303511362</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="5"/>
-        <v>1459.6753659334815</v>
+        <v>6266.3802948751836</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="12.75" customHeight="1">
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>25773</v>
+        <v>35453</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>363</v>
+        <v>293</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="6"/>
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="4"/>
-        <v>2788.3975855824269</v>
+        <v>6718.2832913370103</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="5"/>
-        <v>2577.3000000000002</v>
+        <v>4268.0396494497754</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="12.75" customHeight="1">
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>28886</v>
+        <v>3888</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="2"/>
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="4"/>
-        <v>28886</v>
+        <v>661.02651788728463</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="5"/>
-        <v>28886</v>
+        <v>448.94756932185294</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="12.75" customHeight="1">
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>112880</v>
+        <v>22715</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="2"/>
-        <v>272</v>
+        <v>59</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="6"/>
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="4"/>
-        <v>12212.56041052824</v>
+        <v>22715</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="5"/>
-        <v>11288</v>
+        <v>22715</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="12.75" customHeight="1">
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>125832</v>
+        <v>24024</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="2"/>
-        <v>294</v>
+        <v>56</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="4"/>
-        <v>59958.994450017919</v>
+        <v>2461.9469768722415</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="5"/>
-        <v>29658.886830088552</v>
+        <v>2367.1550578618981</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="12.75" customHeight="1">
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>6072</v>
+        <v>28576</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="4"/>
-        <v>1564.6710895390565</v>
+        <v>6727.1661189798924</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="5"/>
-        <v>842.0348978698978</v>
+        <v>3784.9836635490692</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="12.75" customHeight="1">
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>4120</v>
+        <v>63000</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <v>360</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="4"/>
-        <v>1005.615973343571</v>
+        <v>5388.3123737001679</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="5"/>
-        <v>555.54068666971148</v>
+        <v>5926.5414708166627</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="12.75" customHeight="1">
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>13560</v>
+        <v>85250</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="6"/>
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="4"/>
-        <v>1292.6608665128513</v>
+        <v>11879.926037539923</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="5"/>
-        <v>1310.8946791459198</v>
+        <v>9192.7439155931243</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="12.75" customHeight="1">
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>54336</v>
+        <v>29925</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>283</v>
+        <v>105</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="4"/>
-        <v>31022.162346127021</v>
+        <v>8141.0758778840882</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="5"/>
-        <v>19210.677031276122</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="59" spans="3:8" ht="12.75" customHeight="1">
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>51538</v>
+        <v>32799</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="4"/>
-        <v>16498.491950338303</v>
+        <v>5994.6204776746208</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="5"/>
-        <v>8148.8733024878966</v>
+        <v>3892.5251607100195</v>
       </c>
     </row>
     <row r="60" spans="3:8" ht="12.75" customHeight="1">
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>2756</v>
+        <v>123255</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>212</v>
+        <v>415</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="4"/>
-        <v>512.89966969867146</v>
+        <v>15410.303738793229</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="5"/>
-        <v>329.40500473255889</v>
+        <v>12850.222052302375</v>
       </c>
     </row>
     <row r="61" spans="3:8" ht="12.75" customHeight="1">
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>41140</v>
+        <v>22230</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="4"/>
-        <v>41140</v>
+        <v>22230</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="5"/>
-        <v>41140</v>
+        <v>22230</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="12.75" customHeight="1">
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>22876</v>
+        <v>44100</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>300</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="4"/>
-        <v>5009.5917907297071</v>
+        <v>10960.381036778846</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="5"/>
-        <v>2928.9716653449286</v>
+        <v>6001.2498698187865</v>
       </c>
     </row>
     <row r="63" spans="3:8" ht="12.75" customHeight="1">
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>10730</v>
+        <v>60750</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>290</v>
+        <v>375</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="6"/>
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="4"/>
-        <v>808.62492705310285</v>
+        <v>16828.524595060935</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="5"/>
-        <v>979.5105070050721</v>
+        <v>8768.5072133174417</v>
       </c>
     </row>
     <row r="64" spans="3:8" ht="12.75" customHeight="1">
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>63632</v>
+        <v>33259</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="2"/>
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="4"/>
-        <v>63632</v>
+        <v>3057.9463861850936</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="5"/>
-        <v>63632</v>
+        <v>3185.6344420170271</v>
       </c>
     </row>
     <row r="65" spans="3:8" ht="12.75" customHeight="1">
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>42470</v>
+        <v>17766</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="2"/>
-        <v>274</v>
+        <v>94</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="4"/>
-        <v>8809.4371913058785</v>
+        <v>3075.6322043631139</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="5"/>
-        <v>5308.75</v>
+        <v>2065.2555499226933</v>
       </c>
     </row>
     <row r="66" spans="3:8" ht="12.75" customHeight="1">
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>16807</v>
+        <v>83376</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E100" ca="1" si="8">RANDBETWEEN(100,430)</f>
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="6"/>
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="4"/>
-        <v>2218.4681652593886</v>
+        <v>83376</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="5"/>
-        <v>1781.5384369266894</v>
+        <v>83376</v>
       </c>
     </row>
     <row r="67" spans="3:8" ht="12.75" customHeight="1">
       <c r="C67">
         <f t="shared" ref="C67:C100" ca="1" si="9">D67*E67</f>
-        <v>12870</v>
+        <v>1404</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D100" ca="1" si="10">RANDBETWEEN(0,300)</f>
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="8"/>
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G100" ca="1" si="11">IF(F67&gt;24, C67*POWER($A$6,(-$A$3*F67)), C67)</f>
-        <v>4119.9812061169223</v>
+        <v>117.93078982486695</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H100" ca="1" si="12">IF(F67&gt;24, C67/POWER(F67-23,$A$12), C67)</f>
-        <v>2034.9256743183519</v>
+        <v>131.49664794606983</v>
       </c>
     </row>
     <row r="68" spans="3:8" ht="12.75" customHeight="1">
       <c r="C68">
         <f t="shared" ca="1" si="9"/>
-        <v>50880</v>
+        <v>54087</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="10"/>
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="8"/>
-        <v>212</v>
+        <v>363</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="11"/>
-        <v>21362.178104470313</v>
+        <v>54087</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="12"/>
-        <v>10176</v>
+        <v>54087</v>
       </c>
     </row>
     <row r="69" spans="3:8" ht="12.75" customHeight="1">
       <c r="C69">
         <f t="shared" ca="1" si="9"/>
-        <v>11058</v>
+        <v>25437</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="8"/>
-        <v>291</v>
+        <v>417</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="11"/>
-        <v>3292.9475200839111</v>
+        <v>2424.8830723810765</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="12"/>
-        <v>1667.0562241704552</v>
+        <v>2459.0876071854541</v>
       </c>
     </row>
     <row r="70" spans="3:8" ht="12.75" customHeight="1">
       <c r="C70">
         <f t="shared" ca="1" si="9"/>
-        <v>67000</v>
+        <v>49312</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="10"/>
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="8"/>
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="F70">
         <f t="shared" ref="F70:F100" ca="1" si="13">RANDBETWEEN(1,144)</f>
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="11"/>
-        <v>10596.415135048348</v>
+        <v>5335.0972622605295</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="12"/>
-        <v>7538.0889362043599</v>
+        <v>4931.2</v>
       </c>
     </row>
     <row r="71" spans="3:8" ht="12.75" customHeight="1">
       <c r="C71">
         <f t="shared" ca="1" si="9"/>
-        <v>69890</v>
+        <v>52864</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="10"/>
-        <v>290</v>
+        <v>128</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="8"/>
-        <v>241</v>
+        <v>413</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="13"/>
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="11"/>
-        <v>18338.273763411613</v>
+        <v>21797.482327210171</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="12"/>
-        <v>9786.5575072717602</v>
+        <v>10367.483367944962</v>
       </c>
     </row>
     <row r="72" spans="3:8" ht="12.75" customHeight="1">
       <c r="C72">
         <f t="shared" ca="1" si="9"/>
-        <v>79200</v>
+        <v>25654</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="10"/>
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="8"/>
-        <v>360</v>
+        <v>127</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="11"/>
-        <v>24453.309096946254</v>
+        <v>2154.8407992643424</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="12"/>
-        <v>12220.82531699768</v>
+        <v>2402.7172410316775</v>
       </c>
     </row>
     <row r="73" spans="3:8" ht="12.75" customHeight="1">
       <c r="C73">
         <f t="shared" ca="1" si="9"/>
-        <v>65481</v>
+        <v>46893</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="10"/>
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="8"/>
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="13"/>
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="11"/>
-        <v>6957.4951355871808</v>
+        <v>3798.9526893871143</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="12"/>
-        <v>6515.6030252140299</v>
+        <v>4353.9057465682472</v>
       </c>
     </row>
     <row r="74" spans="3:8" ht="12.75" customHeight="1">
       <c r="C74">
         <f t="shared" ca="1" si="9"/>
-        <v>48330</v>
+        <v>8520</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="10"/>
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="8"/>
-        <v>270</v>
+        <v>142</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="13"/>
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="11"/>
-        <v>4952.7929317447315</v>
+        <v>4443.8911893131117</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="12"/>
-        <v>4762.0964013680286</v>
+        <v>2363.0228359194762</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="12.75" customHeight="1">
       <c r="C75">
         <f t="shared" ca="1" si="9"/>
-        <v>49446</v>
+        <v>17762</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="10"/>
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="8"/>
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="13"/>
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="11"/>
-        <v>5855.7357349386957</v>
+        <v>3019.8438813564685</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="12"/>
-        <v>5073.0525597202532</v>
+        <v>2050.9790962692264</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="12.75" customHeight="1">
       <c r="C76">
         <f t="shared" ca="1" si="9"/>
-        <v>41470</v>
+        <v>74520</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="10"/>
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="8"/>
-        <v>286</v>
+        <v>405</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="13"/>
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="11"/>
-        <v>3359.6180246280605</v>
+        <v>44917.295214910257</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="12"/>
-        <v>3850.3928371011707</v>
+        <v>33326.357136656865</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="12.75" customHeight="1">
       <c r="C77">
         <f t="shared" ca="1" si="9"/>
-        <v>25198</v>
+        <v>18221</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="10"/>
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="8"/>
-        <v>293</v>
+        <v>133</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="13"/>
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="11"/>
-        <v>5419.2128144723129</v>
+        <v>18221</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="12"/>
-        <v>3200.1492001508</v>
+        <v>18221</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="12.75" customHeight="1">
       <c r="C78">
         <f t="shared" ca="1" si="9"/>
-        <v>29500</v>
+        <v>17670</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="10"/>
-        <v>295</v>
+        <v>62</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="13"/>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="11"/>
-        <v>15953.283018303717</v>
+        <v>6191.7557746249149</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="12"/>
-        <v>8894.5846650440271</v>
+        <v>2986.7751362105773</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="12.75" customHeight="1">
       <c r="C79">
         <f t="shared" ca="1" si="9"/>
-        <v>11536</v>
+        <v>39627</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="10"/>
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="8"/>
-        <v>103</v>
+        <v>333</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="13"/>
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="11"/>
-        <v>11536</v>
+        <v>5230.6323546578087</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="12"/>
-        <v>11536</v>
+        <v>4200.4535991012026</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="12.75" customHeight="1">
       <c r="C80">
         <f t="shared" ca="1" si="9"/>
-        <v>50925</v>
+        <v>19397</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="10"/>
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="8"/>
-        <v>291</v>
+        <v>163</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="13"/>
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="11"/>
-        <v>11152.013548824545</v>
+        <v>5182.3900066480546</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="12"/>
-        <v>6520.278110582728</v>
+        <v>2743.1500469350922</v>
       </c>
     </row>
     <row r="81" spans="3:8" ht="12.75" customHeight="1">
       <c r="C81">
         <f t="shared" ca="1" si="9"/>
-        <v>72698</v>
+        <v>12480</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="10"/>
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="8"/>
-        <v>326</v>
+        <v>192</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="11"/>
-        <v>11497.584887876788</v>
+        <v>12480</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="12"/>
-        <v>8179.1640221520083</v>
+        <v>12480</v>
       </c>
     </row>
     <row r="82" spans="3:8" ht="12.75" customHeight="1">
       <c r="C82">
         <f t="shared" ca="1" si="9"/>
-        <v>23805</v>
+        <v>50968</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="10"/>
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="8"/>
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="13"/>
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="11"/>
-        <v>3377.8444859016909</v>
+        <v>50968</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="12"/>
-        <v>2582.0147741865553</v>
+        <v>50968</v>
       </c>
     </row>
     <row r="83" spans="3:8" ht="12.75" customHeight="1">
       <c r="C83">
         <f t="shared" ca="1" si="9"/>
-        <v>52245</v>
+        <v>51054</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="10"/>
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="8"/>
-        <v>405</v>
+        <v>254</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="13"/>
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="11"/>
-        <v>17029.956459919118</v>
+        <v>51054</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="12"/>
-        <v>8365.8953955467769</v>
+        <v>51054</v>
       </c>
     </row>
     <row r="84" spans="3:8" ht="12.75" customHeight="1">
       <c r="C84">
         <f t="shared" ca="1" si="9"/>
-        <v>515</v>
+        <v>24420</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="8"/>
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="13"/>
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="11"/>
-        <v>53.739388609574583</v>
+        <v>24420</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="12"/>
-        <v>50.992598463298727</v>
+        <v>24420</v>
       </c>
     </row>
     <row r="85" spans="3:8" ht="12.75" customHeight="1">
       <c r="C85">
         <f t="shared" ca="1" si="9"/>
-        <v>45198</v>
+        <v>24510</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="10"/>
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="8"/>
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="11"/>
-        <v>45198</v>
+        <v>2213.1552229366457</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="12"/>
-        <v>45198</v>
+        <v>2336.9368062409467</v>
       </c>
     </row>
     <row r="86" spans="3:8" ht="12.75" customHeight="1">
       <c r="C86">
         <f t="shared" ca="1" si="9"/>
-        <v>69778</v>
+        <v>44010</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="10"/>
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="8"/>
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="13"/>
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="11"/>
-        <v>6415.6283392532387</v>
+        <v>3764.1210724848315</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="12"/>
-        <v>6683.5202530161496</v>
+        <v>4140.1125417562116</v>
       </c>
     </row>
     <row r="87" spans="3:8" ht="12.75" customHeight="1">
       <c r="C87">
         <f t="shared" ca="1" si="9"/>
-        <v>46053</v>
+        <v>18447</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="10"/>
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="8"/>
-        <v>387</v>
+        <v>129</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="11"/>
-        <v>20785.707888434732</v>
+        <v>18447</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="12"/>
-        <v>10049.588499038158</v>
+        <v>18447</v>
       </c>
     </row>
     <row r="88" spans="3:8" ht="12.75" customHeight="1">
       <c r="C88">
         <f t="shared" ca="1" si="9"/>
-        <v>3471</v>
+        <v>91664</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>272</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="8"/>
-        <v>267</v>
+        <v>337</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="13"/>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="11"/>
-        <v>645.96326325257212</v>
+        <v>15584.448234470179</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="12"/>
-        <v>414.86385029996802</v>
+        <v>10584.44701499957</v>
       </c>
     </row>
     <row r="89" spans="3:8" ht="12.75" customHeight="1">
       <c r="C89">
         <f t="shared" ca="1" si="9"/>
-        <v>126392</v>
+        <v>16745</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="10"/>
-        <v>296</v>
+        <v>85</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="8"/>
-        <v>427</v>
+        <v>197</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="13"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="11"/>
-        <v>126392</v>
+        <v>16745</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="12"/>
-        <v>126392</v>
+        <v>16745</v>
       </c>
     </row>
     <row r="90" spans="3:8" ht="12.75" customHeight="1">
       <c r="C90">
         <f t="shared" ca="1" si="9"/>
-        <v>3724</v>
+        <v>42064</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="10"/>
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="8"/>
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="11"/>
-        <v>3724</v>
+        <v>22340.171695282534</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="12"/>
-        <v>3724</v>
+        <v>12142.830861596211</v>
       </c>
     </row>
     <row r="91" spans="3:8" ht="12.75" customHeight="1">
       <c r="C91">
         <f t="shared" ca="1" si="9"/>
-        <v>42294</v>
+        <v>75818</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="10"/>
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="8"/>
-        <v>266</v>
+        <v>334</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="13"/>
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="11"/>
-        <v>42294</v>
+        <v>25164.786152723373</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="12"/>
-        <v>42294</v>
+        <v>12299.303707292154</v>
       </c>
     </row>
     <row r="92" spans="3:8" ht="12.75" customHeight="1">
       <c r="C92">
         <f t="shared" ca="1" si="9"/>
-        <v>6958</v>
+        <v>9612</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="8"/>
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="13"/>
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="11"/>
-        <v>563.68994973142139</v>
+        <v>5198.0663176927228</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="12"/>
-        <v>646.0340815179635</v>
+        <v>2898.1270440814642</v>
       </c>
     </row>
     <row r="93" spans="3:8" ht="12.75" customHeight="1">
       <c r="C93">
         <f t="shared" ca="1" si="9"/>
-        <v>17574</v>
+        <v>15730</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="10"/>
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="8"/>
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="13"/>
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="11"/>
-        <v>1449.7015571262691</v>
+        <v>3444.6965758077586</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="12"/>
-        <v>1638.7839500015275</v>
+        <v>2014.0201213444539</v>
       </c>
     </row>
     <row r="94" spans="3:8" ht="12.75" customHeight="1">
       <c r="C94">
         <f t="shared" ca="1" si="9"/>
-        <v>12760</v>
+        <v>42008</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="8"/>
-        <v>232</v>
+        <v>356</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="13"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="11"/>
-        <v>4312.4464039998884</v>
+        <v>13693.069403163601</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="12"/>
-        <v>2097.7310780163593</v>
+        <v>6726.6634850441005</v>
       </c>
     </row>
     <row r="95" spans="3:8" ht="12.75" customHeight="1">
       <c r="C95">
         <f t="shared" ca="1" si="9"/>
-        <v>25392</v>
+        <v>60723</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="10"/>
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="8"/>
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="11"/>
-        <v>4015.8831807335469</v>
+        <v>22061.483872597306</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="12"/>
-        <v>2856.8231980313599</v>
+        <v>10570.517502597841</v>
       </c>
     </row>
     <row r="96" spans="3:8" ht="12.75" customHeight="1">
       <c r="C96">
         <f t="shared" ca="1" si="9"/>
-        <v>79952</v>
+        <v>28016</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="10"/>
-        <v>263</v>
+        <v>68</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="8"/>
-        <v>304</v>
+        <v>412</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="11"/>
-        <v>45647.157021082661</v>
+        <v>7089.984862770898</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="12"/>
-        <v>28267.30068471342</v>
+        <v>3848.2935595864719</v>
       </c>
     </row>
     <row r="97" spans="3:8" ht="12.75" customHeight="1">
       <c r="C97">
         <f t="shared" ca="1" si="9"/>
-        <v>86142</v>
+        <v>34840</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>104</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="8"/>
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="13"/>
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="11"/>
-        <v>10770.146319963704</v>
+        <v>34840</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="12"/>
-        <v>8980.9243278522681</v>
+        <v>34840</v>
       </c>
     </row>
     <row r="98" spans="3:8" ht="12.75" customHeight="1">
       <c r="C98">
         <f t="shared" ca="1" si="9"/>
-        <v>79550</v>
+        <v>84584</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="10"/>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="8"/>
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="13"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="11"/>
-        <v>20498.943539662705</v>
+        <v>16618.727762123919</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="12"/>
-        <v>11031.600152429244</v>
+        <v>10333.58028143372</v>
       </c>
     </row>
     <row r="99" spans="3:8" ht="12.75" customHeight="1">
       <c r="C99">
         <f t="shared" ca="1" si="9"/>
-        <v>48348</v>
+        <v>106396</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="10"/>
-        <v>158</v>
+        <v>268</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="8"/>
-        <v>306</v>
+        <v>397</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="13"/>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="11"/>
-        <v>8522.664085751574</v>
+        <v>31115.831321173166</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="12"/>
-        <v>5658.7053846385206</v>
+        <v>15860.579235604508</v>
       </c>
     </row>
     <row r="100" spans="3:8" ht="12.75" customHeight="1">
       <c r="C100">
         <f t="shared" ca="1" si="9"/>
-        <v>77220</v>
+        <v>91613</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="10"/>
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="8"/>
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="11"/>
-        <v>77220</v>
+        <v>41348.90358463447</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="12"/>
-        <v>77220</v>
+        <v>19991.595578189972</v>
       </c>
     </row>
   </sheetData>
@@ -5595,13 +5533,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="80.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="6" width="8.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -5632,1440 +5576,1910 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1">
+    <row r="2" spans="1:9" ht="12">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="C2" s="2">
+        <v>41683.540960648148</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2" ca="1" si="0">ABS(TODAY()-C2)*24</f>
+        <v>12.98305555555271</v>
       </c>
       <c r="G2">
-        <f>E2*F2</f>
+        <f t="shared" ref="G2:G33" si="1">E2*F2</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>IF(D2&gt;24, G2*POWER($A$6,(-$A$3*D2)), G2)</f>
+        <f t="shared" ref="H2:H33" ca="1" si="2">IF(D2&gt;24, G2*POWER($A$6,(-$A$3*D2)), G2)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>IF(D2&gt;24, G2/POWER(D2-23,$A$12), G2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+        <f t="shared" ref="I2:I33" ca="1" si="3">IF(D2&gt;24, G2/POWER(D2-23,$A$12), G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12">
       <c r="A3">
         <v>0.25</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="2">
+        <v>41682.653090277781</v>
+      </c>
+      <c r="D3" s="3">
+        <f ca="1">ABS(TODAY()-C3)*24</f>
+        <v>8.3258333332487382</v>
       </c>
       <c r="G3">
-        <f>E3*F3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>IF(D3&gt;24, G3*POWER($A$6,(-$A$3*D3)), G3)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>IF(D3&gt;24, G3/POWER(D3-23,$A$12), G3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="C4" s="2">
+        <v>41682.642106481479</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D51" ca="1" si="4">ABS(TODAY()-C4)*24</f>
+        <v>8.589444444514811</v>
       </c>
       <c r="G4">
-        <f>E4*F4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>IF(D4&gt;24, G4*POWER($A$6,(-$A$3*D4)), G4)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>IF(D4&gt;24, G4/POWER(D4-23,$A$12), G4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12">
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41681.036423611113</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>47.125833333295304</v>
+      </c>
       <c r="G5">
-        <f>E5*F5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>IF(D5&gt;24, G5*POWER($A$6,(-$A$3*D5)), G5)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>IF(D5&gt;24, G5/POWER(D5-23,$A$12), G5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24">
       <c r="A6">
         <v>1.075</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="2">
+        <v>41680.769050925926</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>53.542777777765878</v>
       </c>
       <c r="G6">
-        <f>E6*F6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>IF(D6&gt;24, G6*POWER($A$6,(-$A$3*D6)), G6)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>IF(D6&gt;24, G6/POWER(D6-23,$A$12), G6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="2">
+        <v>41680.623865740738</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>57.027222222299315</v>
       </c>
       <c r="G7">
-        <f>E7*F7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>IF(D7&gt;24, G7*POWER($A$6,(-$A$3*D7)), G7)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>IF(D7&gt;24, G7/POWER(D7-23,$A$12), G7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="C8" s="2">
+        <v>41680.560162037036</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>58.556111111131031</v>
       </c>
       <c r="G8">
-        <f>E8*F8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>IF(D8&gt;24, G8*POWER($A$6,(-$A$3*D8)), G8)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>IF(D8&gt;24, G8/POWER(D8-23,$A$12), G8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="C9" s="2">
+        <v>41680.533715277779</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>59.190833333297633</v>
       </c>
       <c r="G9">
-        <f>E9*F9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>IF(D9&gt;24, G9*POWER($A$6,(-$A$3*D9)), G9)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>IF(D9&gt;24, G9/POWER(D9-23,$A$12), G9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2">
+        <v>41679.679745370369</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>79.686111111135688</v>
+      </c>
       <c r="G10">
-        <f>E10*F10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>IF(D10&gt;24, G10*POWER($A$6,(-$A$3*D10)), G10)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>IF(D10&gt;24, G10/POWER(D10-23,$A$12), G10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12">
       <c r="A11" t="s">
         <v>17</v>
       </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2">
+        <v>41679.171585648146</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>91.881944444496185</v>
+      </c>
       <c r="G11">
-        <f>E11*F11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>IF(D11&gt;24, G11*POWER($A$6,(-$A$3*D11)), G11)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>IF(D11&gt;24, G11/POWER(D11-23,$A$12), G11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12">
       <c r="A12">
         <v>0.5</v>
       </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2">
+        <v>41676.767569444448</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>149.57833333325107</v>
+      </c>
       <c r="G12">
-        <f>E12*F12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>IF(D12&gt;24, G12*POWER($A$6,(-$A$3*D12)), G12)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>IF(D12&gt;24, G12/POWER(D12-23,$A$12), G12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2">
+        <v>41676.633206018516</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>152.8030555556179</v>
+      </c>
       <c r="G13">
-        <f>E13*F13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>IF(D13&gt;24, G13*POWER($A$6,(-$A$3*D13)), G13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>IF(D13&gt;24, G13/POWER(D13-23,$A$12), G13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2">
+        <v>41675.726793981485</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>174.55694444436813</v>
+      </c>
       <c r="G14">
-        <f>E14*F14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>IF(D14&gt;24, G14*POWER($A$6,(-$A$3*D14)), G14)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>IF(D14&gt;24, G14/POWER(D14-23,$A$12), G14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2">
+        <v>41675.666006944448</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>176.01583333325107</v>
+      </c>
       <c r="G15">
-        <f>E15*F15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f>IF(D15&gt;24, G15*POWER($A$6,(-$A$3*D15)), G15)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>IF(D15&gt;24, G15/POWER(D15-23,$A$12), G15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="24">
       <c r="B16" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="C16" s="2">
+        <v>41674.783726851849</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>197.19055555562954</v>
       </c>
       <c r="G16">
-        <f>E16*F16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <f>IF(D16&gt;24, G16*POWER($A$6,(-$A$3*D16)), G16)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>IF(D16&gt;24, G16/POWER(D16-23,$A$12), G16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="12">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2">
+        <v>41674.764444444445</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>197.65333333332092</v>
+      </c>
       <c r="G17">
-        <f>E17*F17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17">
-        <f>IF(D17&gt;24, G17*POWER($A$6,(-$A$3*D17)), G17)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>IF(D17&gt;24, G17/POWER(D17-23,$A$12), G17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="12">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2">
+        <v>41674.756469907406</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>197.84472222224576</v>
+      </c>
       <c r="G18">
-        <f>E18*F18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18">
-        <f>IF(D18&gt;24, G18*POWER($A$6,(-$A$3*D18)), G18)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>IF(D18&gt;24, G18/POWER(D18-23,$A$12), G18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="12">
       <c r="B19" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="C19" s="2">
+        <v>41674.671678240738</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>199.87972222227836</v>
       </c>
       <c r="G19">
-        <f>E19*F19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19">
-        <f>IF(D19&gt;24, G19*POWER($A$6,(-$A$3*D19)), G19)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I19">
-        <f>IF(D19&gt;24, G19/POWER(D19-23,$A$12), G19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="12">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2">
+        <v>41674.582627314812</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>202.0169444445055</v>
+      </c>
       <c r="G20">
-        <f>E20*F20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20">
-        <f>IF(D20&gt;24, G20*POWER($A$6,(-$A$3*D20)), G20)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I20">
-        <f>IF(D20&gt;24, G20/POWER(D20-23,$A$12), G20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="12">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2">
+        <v>41670.772581018522</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>293.45805555547122</v>
+      </c>
       <c r="G21">
-        <f>E21*F21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21">
-        <f>IF(D21&gt;24, G21*POWER($A$6,(-$A$3*D21)), G21)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I21">
-        <f>IF(D21&gt;24, G21/POWER(D21-23,$A$12), G21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="12">
       <c r="B22" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="C22" s="2">
+        <v>41670.653483796297</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>296.31638888886664</v>
       </c>
       <c r="G22">
-        <f>E22*F22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H22">
-        <f>IF(D22&gt;24, G22*POWER($A$6,(-$A$3*D22)), G22)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I22">
-        <f>IF(D22&gt;24, G22/POWER(D22-23,$A$12), G22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="24">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2">
+        <v>41669.768252314818</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>317.56194444437278</v>
+      </c>
       <c r="G23">
-        <f>E23*F23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23">
-        <f>IF(D23&gt;24, G23*POWER($A$6,(-$A$3*D23)), G23)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I23">
-        <f>IF(D23&gt;24, G23/POWER(D23-23,$A$12), G23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="12">
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2">
+        <v>41668.903101851851</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>338.32555555558065</v>
+      </c>
       <c r="G24">
-        <f>E24*F24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24">
-        <f>IF(D24&gt;24, G24*POWER($A$6,(-$A$3*D24)), G24)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I24">
-        <f>IF(D24&gt;24, G24/POWER(D24-23,$A$12), G24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="24">
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2">
+        <v>41667.807615740741</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>364.61722222220851</v>
+      </c>
       <c r="G25">
-        <f>E25*F25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25">
-        <f>IF(D25&gt;24, G25*POWER($A$6,(-$A$3*D25)), G25)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I25">
-        <f>IF(D25&gt;24, G25/POWER(D25-23,$A$12), G25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="24">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2">
+        <v>41667.623541666668</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>369.03499999997439</v>
+      </c>
       <c r="G26">
-        <f>E26*F26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26">
-        <f>IF(D26&gt;24, G26*POWER($A$6,(-$A$3*D26)), G26)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I26">
-        <f>IF(D26&gt;24, G26/POWER(D26-23,$A$12), G26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="12">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2">
+        <v>41663.690081018518</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>463.43805555556901</v>
+      </c>
       <c r="G27">
-        <f>E27*F27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f>IF(D27&gt;24, G27*POWER($A$6,(-$A$3*D27)), G27)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I27">
-        <f>IF(D27&gt;24, G27/POWER(D27-23,$A$12), G27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="24">
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="2">
+        <v>41663.543240740742</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>466.96222222218057</v>
+      </c>
       <c r="G28">
-        <f>E28*F28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28">
-        <f>IF(D28&gt;24, G28*POWER($A$6,(-$A$3*D28)), G28)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I28">
-        <f>IF(D28&gt;24, G28/POWER(D28-23,$A$12), G28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="12">
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2">
+        <v>41662.622337962966</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>489.0638888888061</v>
+      </c>
       <c r="G29">
-        <f>E29*F29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H29">
-        <f>IF(D29&gt;24, G29*POWER($A$6,(-$A$3*D29)), G29)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I29">
-        <f>IF(D29&gt;24, G29/POWER(D29-23,$A$12), G29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="12">
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="2">
+        <v>41662.484398148146</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>492.3744444444892</v>
+      </c>
       <c r="G30">
-        <f>E30*F30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f>IF(D30&gt;24, G30*POWER($A$6,(-$A$3*D30)), G30)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I30">
-        <f>IF(D30&gt;24, G30/POWER(D30-23,$A$12), G30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="12">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="2">
+        <v>41661.859849537039</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>507.36361111106817</v>
+      </c>
       <c r="G31">
-        <f>E31*F31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H31">
-        <f>IF(D31&gt;24, G31*POWER($A$6,(-$A$3*D31)), G31)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f>IF(D31&gt;24, G31/POWER(D31-23,$A$12), G31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="12">
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="2">
+        <v>41661.651944444442</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>512.35333333339076</v>
+      </c>
       <c r="G32">
-        <f>E32*F32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H32">
-        <f>IF(D32&gt;24, G32*POWER($A$6,(-$A$3*D32)), G32)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I32">
-        <f>IF(D32&gt;24, G32/POWER(D32-23,$A$12), G32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="12">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="2">
+        <v>41660.780659722222</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>533.26416666666046</v>
+      </c>
       <c r="G33">
-        <f>E33*F33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H33">
-        <f>IF(D33&gt;24, G33*POWER($A$6,(-$A$3*D33)), G33)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f>IF(D33&gt;24, G33/POWER(D33-23,$A$12), G33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="12">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="2">
+        <v>41660.756736111114</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>533.83833333326038</v>
+      </c>
       <c r="G34">
-        <f>E34*F34</f>
+        <f t="shared" ref="G34:I65" si="5">E34*F34</f>
         <v>0</v>
       </c>
       <c r="H34">
-        <f>IF(D34&gt;24, G34*POWER($A$6,(-$A$3*D34)), G34)</f>
+        <f t="shared" ref="H34:J65" ca="1" si="6">IF(D34&gt;24, G34*POWER($A$6,(-$A$3*D34)), G34)</f>
         <v>0</v>
       </c>
       <c r="I34">
-        <f>IF(D34&gt;24, G34/POWER(D34-23,$A$12), G34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ref="I34:K65" ca="1" si="7">IF(D34&gt;24, G34/POWER(D34-23,$A$12), G34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="12">
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="2">
+        <v>41660.656539351854</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>536.24305555550382</v>
+      </c>
       <c r="G35">
-        <f>E35*F35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H35">
-        <f>IF(D35&gt;24, G35*POWER($A$6,(-$A$3*D35)), G35)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I35">
-        <f>IF(D35&gt;24, G35/POWER(D35-23,$A$12), G35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="12">
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="2">
+        <v>41660.564143518517</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>538.46055555558996</v>
+      </c>
       <c r="G36">
-        <f>E36*F36</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H36">
-        <f>IF(D36&gt;24, G36*POWER($A$6,(-$A$3*D36)), G36)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I36">
-        <f>IF(D36&gt;24, G36/POWER(D36-23,$A$12), G36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="12">
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="2">
+        <v>41660.553263888891</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>538.72166666662088</v>
+      </c>
       <c r="G37">
-        <f>E37*F37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H37">
-        <f>IF(D37&gt;24, G37*POWER($A$6,(-$A$3*D37)), G37)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I37">
-        <f>IF(D37&gt;24, G37/POWER(D37-23,$A$12), G37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="24">
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="2">
+        <v>41659.868159722224</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>555.16416666662553</v>
+      </c>
       <c r="G38">
-        <f>E38*F38</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H38">
-        <f>IF(D38&gt;24, G38*POWER($A$6,(-$A$3*D38)), G38)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I38">
-        <f>IF(D38&gt;24, G38/POWER(D38-23,$A$12), G38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="24">
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="2">
+        <v>41658.770219907405</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>581.51472222228767</v>
+      </c>
       <c r="G39">
-        <f>E39*F39</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H39">
-        <f>IF(D39&gt;24, G39*POWER($A$6,(-$A$3*D39)), G39)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I39">
-        <f>IF(D39&gt;24, G39/POWER(D39-23,$A$12), G39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="12">
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="2">
+        <v>41658.55263888889</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>586.73666666663485</v>
+      </c>
       <c r="G40">
-        <f>E40*F40</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H40">
-        <f>IF(D40&gt;24, G40*POWER($A$6,(-$A$3*D40)), G40)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f>IF(D40&gt;24, G40/POWER(D40-23,$A$12), G40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="12">
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="2">
+        <v>41656.614016203705</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>633.26361111109145</v>
+      </c>
       <c r="G41">
-        <f>E41*F41</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H41">
-        <f>IF(D41&gt;24, G41*POWER($A$6,(-$A$3*D41)), G41)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I41">
-        <f>IF(D41&gt;24, G41/POWER(D41-23,$A$12), G41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="12">
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="2">
+        <v>41656.594074074077</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>633.7422222221503</v>
+      </c>
       <c r="G42">
-        <f>E42*F42</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H42">
-        <f>IF(D42&gt;24, G42*POWER($A$6,(-$A$3*D42)), G42)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I42">
-        <f>IF(D42&gt;24, G42/POWER(D42-23,$A$12), G42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="12">
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="2">
+        <v>41654.729120370372</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>678.50111111107981</v>
+      </c>
       <c r="G43">
-        <f>E43*F43</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H43">
-        <f>IF(D43&gt;24, G43*POWER($A$6,(-$A$3*D43)), G43)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <f>IF(D43&gt;24, G43/POWER(D43-23,$A$12), G43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="12">
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="2">
+        <v>41653.543981481482</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>706.94444444443798</v>
+      </c>
       <c r="G44">
-        <f>E44*F44</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H44">
-        <f>IF(D44&gt;24, G44*POWER($A$6,(-$A$3*D44)), G44)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f>IF(D44&gt;24, G44/POWER(D44-23,$A$12), G44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="12">
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="2">
+        <v>41652.73847222222</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>726.27666666673031</v>
+      </c>
       <c r="G45">
-        <f>E45*F45</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H45">
-        <f>IF(D45&gt;24, G45*POWER($A$6,(-$A$3*D45)), G45)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I45">
-        <f>IF(D45&gt;24, G45/POWER(D45-23,$A$12), G45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="12">
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="2">
+        <v>41652.538576388892</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>731.07416666659992</v>
+      </c>
       <c r="G46">
-        <f>E46*F46</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H46">
-        <f>IF(D46&gt;24, G46*POWER($A$6,(-$A$3*D46)), G46)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I46">
-        <f>IF(D46&gt;24, G46/POWER(D46-23,$A$12), G46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="12">
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="2">
+        <v>41652.499525462961</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>732.01138888893183</v>
+      </c>
       <c r="G47">
-        <f>E47*F47</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H47">
-        <f>IF(D47&gt;24, G47*POWER($A$6,(-$A$3*D47)), G47)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I47">
-        <f>IF(D47&gt;24, G47/POWER(D47-23,$A$12), G47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="24">
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="2">
+        <v>41650.717442129629</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>774.78138888889225</v>
+      </c>
       <c r="G48">
-        <f>E48*F48</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H48">
-        <f>IF(D48&gt;24, G48*POWER($A$6,(-$A$3*D48)), G48)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I48">
-        <f>IF(D48&gt;24, G48/POWER(D48-23,$A$12), G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="12">
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="2">
+        <v>41650.643472222226</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>776.55666666658362</v>
+      </c>
       <c r="G49">
-        <f>E49*F49</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H49">
-        <f>IF(D49&gt;24, G49*POWER($A$6,(-$A$3*D49)), G49)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I49">
-        <f>IF(D49&gt;24, G49/POWER(D49-23,$A$12), G49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="12">
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="2">
+        <v>41648.868136574078</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>819.16472222213633</v>
+      </c>
       <c r="G50">
-        <f>E50*F50</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H50">
-        <f>IF(D50&gt;24, G50*POWER($A$6,(-$A$3*D50)), G50)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I50">
-        <f>IF(D50&gt;24, G50/POWER(D50-23,$A$12), G50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="24">
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="2">
+        <v>41648.771782407406</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>821.47722222225275</v>
+      </c>
       <c r="G51">
-        <f>E51*F51</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H51">
-        <f>IF(D51&gt;24, G51*POWER($A$6,(-$A$3*D51)), G51)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I51">
-        <f>IF(D51&gt;24, G51/POWER(D51-23,$A$12), G51)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="7:9" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="12.75" customHeight="1">
       <c r="G52">
-        <f>E52*F52</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H52">
-        <f>IF(D52&gt;24, G52*POWER($A$6,(-$A$3*D52)), G52)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I52">
-        <f>IF(D52&gt;24, G52/POWER(D52-23,$A$12), G52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G53">
-        <f>E53*F53</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="12.75" customHeight="1">
       <c r="H53">
-        <f>IF(D53&gt;24, G53*POWER($A$6,(-$A$3*D53)), G53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I53">
-        <f>IF(D53&gt;24, G53/POWER(D53-23,$A$12), G53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G54">
-        <f>E54*F54</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="12.75" customHeight="1">
       <c r="H54">
-        <f>IF(D54&gt;24, G54*POWER($A$6,(-$A$3*D54)), G54)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I54">
-        <f>IF(D54&gt;24, G54/POWER(D54-23,$A$12), G54)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G55">
-        <f>E55*F55</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="12.75" customHeight="1">
       <c r="H55">
-        <f>IF(D55&gt;24, G55*POWER($A$6,(-$A$3*D55)), G55)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I55">
-        <f>IF(D55&gt;24, G55/POWER(D55-23,$A$12), G55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G56">
-        <f>E56*F56</f>
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <f>IF(D56&gt;24, G56*POWER($A$6,(-$A$3*D56)), G56)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="12.75" customHeight="1">
       <c r="I56">
-        <f>IF(D56&gt;24, G56/POWER(D56-23,$A$12), G56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G57">
-        <f>E57*F57</f>
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <f>IF(D57&gt;24, G57*POWER($A$6,(-$A$3*D57)), G57)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="12.75" customHeight="1">
       <c r="I57">
-        <f>IF(D57&gt;24, G57/POWER(D57-23,$A$12), G57)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G58">
-        <f>E58*F58</f>
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <f>IF(D58&gt;24, G58*POWER($A$6,(-$A$3*D58)), G58)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="12.75" customHeight="1">
       <c r="I58">
-        <f>IF(D58&gt;24, G58/POWER(D58-23,$A$12), G58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G59">
-        <f>E59*F59</f>
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <f>IF(D59&gt;24, G59*POWER($A$6,(-$A$3*D59)), G59)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="12.75" customHeight="1">
       <c r="I59">
-        <f>IF(D59&gt;24, G59/POWER(D59-23,$A$12), G59)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G60">
-        <f>E60*F60</f>
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <f>IF(D60&gt;24, G60*POWER($A$6,(-$A$3*D60)), G60)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="12.75" customHeight="1">
       <c r="I60">
-        <f>IF(D60&gt;24, G60/POWER(D60-23,$A$12), G60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G61">
-        <f>E61*F61</f>
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <f>IF(D61&gt;24, G61*POWER($A$6,(-$A$3*D61)), G61)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="12.75" customHeight="1">
       <c r="I61">
-        <f>IF(D61&gt;24, G61/POWER(D61-23,$A$12), G61)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G62">
-        <f>E62*F62</f>
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <f>IF(D62&gt;24, G62*POWER($A$6,(-$A$3*D62)), G62)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="12.75" customHeight="1">
       <c r="I62">
-        <f>IF(D62&gt;24, G62/POWER(D62-23,$A$12), G62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G63">
-        <f>E63*F63</f>
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <f>IF(D63&gt;24, G63*POWER($A$6,(-$A$3*D63)), G63)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="12.75" customHeight="1">
       <c r="I63">
-        <f>IF(D63&gt;24, G63/POWER(D63-23,$A$12), G63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G64">
-        <f>E64*F64</f>
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <f>IF(D64&gt;24, G64*POWER($A$6,(-$A$3*D64)), G64)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="12.75" customHeight="1">
       <c r="I64">
-        <f>IF(D64&gt;24, G64/POWER(D64-23,$A$12), G64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G65">
-        <f>E65*F65</f>
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <f>IF(D65&gt;24, G65*POWER($A$6,(-$A$3*D65)), G65)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" ht="12.75" customHeight="1">
       <c r="I65">
-        <f>IF(D65&gt;24, G65/POWER(D65-23,$A$12), G65)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G66">
-        <f>E66*F66</f>
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <f>IF(D66&gt;24, G66*POWER($A$6,(-$A$3*D66)), G66)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" ht="12.75" customHeight="1">
       <c r="I66">
-        <f>IF(D66&gt;24, G66/POWER(D66-23,$A$12), G66)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G67">
-        <f>E67*F67</f>
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <f>IF(D67&gt;24, G67*POWER($A$6,(-$A$3*D67)), G67)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="I66:I97" si="8">G66*H66</f>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66:J97" si="9">IF(F66&gt;24, I66*POWER($A$6,(-$A$3*F66)), I66)</f>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ref="K66:K100" si="10">IF(F66&gt;24, I66/POWER(F66-23,$A$12), I66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" ht="12.75" customHeight="1">
       <c r="I67">
-        <f>IF(D67&gt;24, G67/POWER(D67-23,$A$12), G67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G68">
-        <f>E68*F68</f>
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <f>IF(D68&gt;24, G68*POWER($A$6,(-$A$3*D68)), G68)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" ht="12.75" customHeight="1">
       <c r="I68">
-        <f>IF(D68&gt;24, G68/POWER(D68-23,$A$12), G68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G69">
-        <f>E69*F69</f>
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <f>IF(D69&gt;24, G69*POWER($A$6,(-$A$3*D69)), G69)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" ht="12.75" customHeight="1">
       <c r="I69">
-        <f>IF(D69&gt;24, G69/POWER(D69-23,$A$12), G69)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G70">
-        <f>E70*F70</f>
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <f>IF(D70&gt;24, G70*POWER($A$6,(-$A$3*D70)), G70)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11" ht="12.75" customHeight="1">
       <c r="I70">
-        <f>IF(D70&gt;24, G70/POWER(D70-23,$A$12), G70)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G71">
-        <f>E71*F71</f>
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <f>IF(D71&gt;24, G71*POWER($A$6,(-$A$3*D71)), G71)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11" ht="12.75" customHeight="1">
       <c r="I71">
-        <f>IF(D71&gt;24, G71/POWER(D71-23,$A$12), G71)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G72">
-        <f>E72*F72</f>
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <f>IF(D72&gt;24, G72*POWER($A$6,(-$A$3*D72)), G72)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11" ht="12.75" customHeight="1">
       <c r="I72">
-        <f>IF(D72&gt;24, G72/POWER(D72-23,$A$12), G72)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G73">
-        <f>E73*F73</f>
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <f>IF(D73&gt;24, G73*POWER($A$6,(-$A$3*D73)), G73)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11" ht="12.75" customHeight="1">
       <c r="I73">
-        <f>IF(D73&gt;24, G73/POWER(D73-23,$A$12), G73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G74">
-        <f>E74*F74</f>
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <f>IF(D74&gt;24, G74*POWER($A$6,(-$A$3*D74)), G74)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11" ht="12.75" customHeight="1">
       <c r="I74">
-        <f>IF(D74&gt;24, G74/POWER(D74-23,$A$12), G74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G75">
-        <f>E75*F75</f>
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <f>IF(D75&gt;24, G75*POWER($A$6,(-$A$3*D75)), G75)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="9:11" ht="12.75" customHeight="1">
       <c r="I75">
-        <f>IF(D75&gt;24, G75/POWER(D75-23,$A$12), G75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G76">
-        <f>E76*F76</f>
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <f>IF(D76&gt;24, G76*POWER($A$6,(-$A$3*D76)), G76)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="9:11" ht="12.75" customHeight="1">
       <c r="I76">
-        <f>IF(D76&gt;24, G76/POWER(D76-23,$A$12), G76)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G77">
-        <f>E77*F77</f>
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <f>IF(D77&gt;24, G77*POWER($A$6,(-$A$3*D77)), G77)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="9:11" ht="12.75" customHeight="1">
       <c r="I77">
-        <f>IF(D77&gt;24, G77/POWER(D77-23,$A$12), G77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G78">
-        <f>E78*F78</f>
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <f>IF(D78&gt;24, G78*POWER($A$6,(-$A$3*D78)), G78)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="9:11" ht="12.75" customHeight="1">
       <c r="I78">
-        <f>IF(D78&gt;24, G78/POWER(D78-23,$A$12), G78)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G79">
-        <f>E79*F79</f>
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <f>IF(D79&gt;24, G79*POWER($A$6,(-$A$3*D79)), G79)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="9:11" ht="12.75" customHeight="1">
       <c r="I79">
-        <f>IF(D79&gt;24, G79/POWER(D79-23,$A$12), G79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G80">
-        <f>E80*F80</f>
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <f>IF(D80&gt;24, G80*POWER($A$6,(-$A$3*D80)), G80)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="9:11" ht="12.75" customHeight="1">
       <c r="I80">
-        <f>IF(D80&gt;24, G80/POWER(D80-23,$A$12), G80)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G81">
-        <f>E81*F81</f>
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <f>IF(D81&gt;24, G81*POWER($A$6,(-$A$3*D81)), G81)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="9:11" ht="12.75" customHeight="1">
       <c r="I81">
-        <f>IF(D81&gt;24, G81/POWER(D81-23,$A$12), G81)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G82">
-        <f>E82*F82</f>
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <f>IF(D82&gt;24, G82*POWER($A$6,(-$A$3*D82)), G82)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="9:11" ht="12.75" customHeight="1">
       <c r="I82">
-        <f>IF(D82&gt;24, G82/POWER(D82-23,$A$12), G82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G83">
-        <f>E83*F83</f>
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <f>IF(D83&gt;24, G83*POWER($A$6,(-$A$3*D83)), G83)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="9:11" ht="12.75" customHeight="1">
       <c r="I83">
-        <f>IF(D83&gt;24, G83/POWER(D83-23,$A$12), G83)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G84">
-        <f>E84*F84</f>
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <f>IF(D84&gt;24, G84*POWER($A$6,(-$A$3*D84)), G84)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="9:11" ht="12.75" customHeight="1">
       <c r="I84">
-        <f>IF(D84&gt;24, G84/POWER(D84-23,$A$12), G84)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G85">
-        <f>E85*F85</f>
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <f>IF(D85&gt;24, G85*POWER($A$6,(-$A$3*D85)), G85)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="9:11" ht="12.75" customHeight="1">
       <c r="I85">
-        <f>IF(D85&gt;24, G85/POWER(D85-23,$A$12), G85)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G86">
-        <f>E86*F86</f>
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <f>IF(D86&gt;24, G86*POWER($A$6,(-$A$3*D86)), G86)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="9:11" ht="12.75" customHeight="1">
       <c r="I86">
-        <f>IF(D86&gt;24, G86/POWER(D86-23,$A$12), G86)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G87">
-        <f>E87*F87</f>
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <f>IF(D87&gt;24, G87*POWER($A$6,(-$A$3*D87)), G87)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="9:11" ht="12.75" customHeight="1">
       <c r="I87">
-        <f>IF(D87&gt;24, G87/POWER(D87-23,$A$12), G87)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G88">
-        <f>E88*F88</f>
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <f>IF(D88&gt;24, G88*POWER($A$6,(-$A$3*D88)), G88)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="9:11" ht="12.75" customHeight="1">
       <c r="I88">
-        <f>IF(D88&gt;24, G88/POWER(D88-23,$A$12), G88)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G89">
-        <f>E89*F89</f>
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <f>IF(D89&gt;24, G89*POWER($A$6,(-$A$3*D89)), G89)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="9:11" ht="12.75" customHeight="1">
       <c r="I89">
-        <f>IF(D89&gt;24, G89/POWER(D89-23,$A$12), G89)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G90">
-        <f>E90*F90</f>
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <f>IF(D90&gt;24, G90*POWER($A$6,(-$A$3*D90)), G90)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="9:11" ht="12.75" customHeight="1">
       <c r="I90">
-        <f>IF(D90&gt;24, G90/POWER(D90-23,$A$12), G90)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G91">
-        <f>E91*F91</f>
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <f>IF(D91&gt;24, G91*POWER($A$6,(-$A$3*D91)), G91)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="9:11" ht="12.75" customHeight="1">
       <c r="I91">
-        <f>IF(D91&gt;24, G91/POWER(D91-23,$A$12), G91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G92">
-        <f>E92*F92</f>
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <f>IF(D92&gt;24, G92*POWER($A$6,(-$A$3*D92)), G92)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="9:11" ht="12.75" customHeight="1">
       <c r="I92">
-        <f>IF(D92&gt;24, G92/POWER(D92-23,$A$12), G92)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G93">
-        <f>E93*F93</f>
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <f>IF(D93&gt;24, G93*POWER($A$6,(-$A$3*D93)), G93)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="9:11" ht="12.75" customHeight="1">
       <c r="I93">
-        <f>IF(D93&gt;24, G93/POWER(D93-23,$A$12), G93)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G94">
-        <f>E94*F94</f>
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <f>IF(D94&gt;24, G94*POWER($A$6,(-$A$3*D94)), G94)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="9:11" ht="12.75" customHeight="1">
       <c r="I94">
-        <f>IF(D94&gt;24, G94/POWER(D94-23,$A$12), G94)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G95">
-        <f>E95*F95</f>
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <f>IF(D95&gt;24, G95*POWER($A$6,(-$A$3*D95)), G95)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="9:11" ht="12.75" customHeight="1">
       <c r="I95">
-        <f>IF(D95&gt;24, G95/POWER(D95-23,$A$12), G95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G96">
-        <f>E96*F96</f>
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <f>IF(D96&gt;24, G96*POWER($A$6,(-$A$3*D96)), G96)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="9:11" ht="12.75" customHeight="1">
       <c r="I96">
-        <f>IF(D96&gt;24, G96/POWER(D96-23,$A$12), G96)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G97">
-        <f>E97*F97</f>
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <f>IF(D97&gt;24, G97*POWER($A$6,(-$A$3*D97)), G97)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="9:11" ht="12.75" customHeight="1">
       <c r="I97">
-        <f>IF(D97&gt;24, G97/POWER(D97-23,$A$12), G97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G98">
-        <f>E98*F98</f>
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <f>IF(D98&gt;24, G98*POWER($A$6,(-$A$3*D98)), G98)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="9:11" ht="12.75" customHeight="1">
       <c r="I98">
-        <f>IF(D98&gt;24, G98/POWER(D98-23,$A$12), G98)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G99">
-        <f>E99*F99</f>
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <f>IF(D99&gt;24, G99*POWER($A$6,(-$A$3*D99)), G99)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="I98:I129" si="11">G98*H98</f>
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f t="shared" ref="J98:J129" si="12">IF(F98&gt;24, I98*POWER($A$6,(-$A$3*F98)), I98)</f>
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="9:11" ht="12.75" customHeight="1">
       <c r="I99">
-        <f>IF(D99&gt;24, G99/POWER(D99-23,$A$12), G99)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="7:9" ht="12.75" customHeight="1">
-      <c r="G100">
-        <f>E100*F100</f>
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <f>IF(D100&gt;24, G100*POWER($A$6,(-$A$3*D100)), G100)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="9:11" ht="12.75" customHeight="1">
       <c r="I100">
-        <f>IF(D100&gt;24, G100/POWER(D100-23,$A$12), G100)</f>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>

--- a/decay_tests.xlsx
+++ b/decay_tests.xlsx
@@ -16,8 +16,8 @@
     <definedName name="foo_1" localSheetId="1">'zumic data'!$C$9:$D$11</definedName>
     <definedName name="NamedRange1" localSheetId="1">'zumic data'!$A$1:$F$1</definedName>
     <definedName name="NamedRange1">'random numbers'!$A$1:$E$1</definedName>
-    <definedName name="post_dates" localSheetId="1">'zumic data'!$C$2:$C$51</definedName>
-    <definedName name="post_titles" localSheetId="1">'zumic data'!$B$2:$B$51</definedName>
+    <definedName name="post_dates" localSheetId="1">'zumic data'!$C$2:$C$101</definedName>
+    <definedName name="post_titles" localSheetId="1">'zumic data'!$B$2:$B$101</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
   <si>
     <t>Popularity</t>
   </si>
@@ -285,6 +285,156 @@
   </si>
   <si>
     <t>Fall Out Boy &amp;#038; Paramore 2014 &amp;#8220;Monumentour&amp;#8221; Dates and Ticket Pre-Sale Info Announced</t>
+  </si>
+  <si>
+    <t>Jack White Reveals He&amp;#8217;s Finishing a New Record in Chat With Fans</t>
+  </si>
+  <si>
+    <t>Earl Sweatshirt 2014 &amp;#8220;Wearld Tour&amp;#8221; Dates Announced</t>
+  </si>
+  <si>
+    <t>Coachella 2014 Lineup Announced, OutKast, Arcade Fire, and Muse to Headline</t>
+  </si>
+  <si>
+    <t>Insane Clown Posse Teams With ACLU to Sue FBI Over Gang Classification</t>
+  </si>
+  <si>
+    <t>Diplo Pranks Nardwuar, Receives GG Allin Bobblehead in New Interview [YouTube Video]</t>
+  </si>
+  <si>
+    <t>&amp;#8220;Dad Metal&amp;#8221; [Funny Or Die Video]</t>
+  </si>
+  <si>
+    <t>Barry White Is Brought Back To Life In Animation on PBS &amp;#8220;Blank on Blank&amp;#8221; [YouTube Video]</t>
+  </si>
+  <si>
+    <t>Queens Of The Stone Age To Record New Album In 2014</t>
+  </si>
+  <si>
+    <t>Private: The Best Rock Albums of 2013 &amp;#8211; Part 1: Artists In Their Prime</t>
+  </si>
+  <si>
+    <t>Childish Gambino 2014 &amp;#8220;The Deep Web Tour&amp;#8221; Dates &amp;#038; Ticket Info Announced</t>
+  </si>
+  <si>
+    <t>The Black Keys Announce Roseland Ballroom NYC Show To Take Place On 1.31.2014 Pre-Super Bowl [Exclusive Citi Ticket Sale Info]</t>
+  </si>
+  <si>
+    <t>Steve Albini Talks How To Make a Record &amp;#038; Gives Guided Tour of Electrical Audio [YouTube Video]</t>
+  </si>
+  <si>
+    <t>Black Lips 2014 &amp;#8220;Underneath The Rainbow&amp;#8221; Tour Dates, Ticket Info Announced</t>
+  </si>
+  <si>
+    <t>Phil Everly of The Everly Brothers Dead at 74</t>
+  </si>
+  <si>
+    <t>More Than 200 Phish Fans Arrested at NYC&amp;#8217;s New Year&amp;#8217;s Shows</t>
+  </si>
+  <si>
+    <t>Pixies 2014 Tour Dates &amp;#038; New EP Announced</t>
+  </si>
+  <si>
+    <t>NFL Films Presents &amp;#8220;Phish, Russell Wilson, and The Wilson Chant&amp;#8221; [YouTube Videos]</t>
+  </si>
+  <si>
+    <t>M.I.A. Announces Departure From Roc Nation via Twitter</t>
+  </si>
+  <si>
+    <t>The 11 Most Evil Music Industry Villains of 2013</t>
+  </si>
+  <si>
+    <t>Arcade Fire&amp;#8217;s Win Butler Interviewed By The Office&amp;#8217;s Rainn Wilson In A Magic Van [Soul Pancake YouTube Video]</t>
+  </si>
+  <si>
+    <t>Action Bronson 2014 Tour Dates For &amp;#8220;Blue Chips 2&amp;#8243; Announced</t>
+  </si>
+  <si>
+    <t>Flaming Lips Rehearse John Lennon Beatles Material for NYE Shows [SoundCloud &amp;#038; YouTube]</t>
+  </si>
+  <si>
+    <t>Iron Maiden *Did Not* Use BitTorrent Data Of Pirated Music To Plan Their Tour</t>
+  </si>
+  <si>
+    <t>David Bowie Wishes British Folk &amp;#8220;Merry Little Christmas And A Happy New Year&amp;#8221; As Elvis on BBC&amp;#8217;s &amp;#8220;This Is Radio Clash&amp;#8221; [Official Audio]</t>
+  </si>
+  <si>
+    <t>Justin Bieber &amp;#8220;Officially Retiring&amp;#8221; According to Twitter</t>
+  </si>
+  <si>
+    <t>Arcade Fire Are Headlining Glastonbury 2014 [Twitter Picture]</t>
+  </si>
+  <si>
+    <t>Trent Reznor Praises &amp;#8220;The Next Day,&amp;#8221; Calls David Bowie &amp;#8220;The Most Important Figure to Have Inspired Me&amp;#8221;</t>
+  </si>
+  <si>
+    <t>Billy Gibbons &amp;#038; Friends at B.B. King Blues Club in Times Square, NYC 12.17.2013 [Zumic Review]</t>
+  </si>
+  <si>
+    <t>Lostprophets Singer Ian Watkins Sentenced to 35 Years for Child Rape</t>
+  </si>
+  <si>
+    <t>Pusha T Plans to Record With The Neptunes For 20 Days In January [YouTube Video]</t>
+  </si>
+  <si>
+    <t>Justin Bieber Retiring? NOPE. [Power 106 Full Interview 12.17.2013]</t>
+  </si>
+  <si>
+    <t>Queens of the Stone Age Rock the Roof Off Barclays Center in Brooklyn, NYC 12.14.2013 [Zumic Review]</t>
+  </si>
+  <si>
+    <t>Nirvana, Peter Gabriel, KISS, Hall and Oates, Cat Stevens, and Linda Ronstadt to be Inducted into Rock and Roll Hall of Fame</t>
+  </si>
+  <si>
+    <t>Dev Hynes &amp;#8220;Lost Everything&amp;#8221; In Apartment Fire, GoFundMe Launched To Help</t>
+  </si>
+  <si>
+    <t>King Krule Talks About His Obscure Influences with Nardwuar [YouTube Video]</t>
+  </si>
+  <si>
+    <t>Justin Bieber and His Bodyguards Sued For Allegedly Roughing Up Paparazzi Photographer</t>
+  </si>
+  <si>
+    <t>Lorde 2014 North American Tour Dates, Ticket Pre-Sale Information Announced</t>
+  </si>
+  <si>
+    <t>Drake Is Being Sued For $202,800 After Bailing Out On Chicago Concert Promoter</t>
+  </si>
+  <si>
+    <t>Chicago Sun-Times Reporter Jim DeRogatis Talks &amp;#8220;Stomach Churning&amp;#8221; R. Kelly Rape Allegations with The Village Voice</t>
+  </si>
+  <si>
+    <t>Beyonce Releases Surprise Visual Album Exclusively on iTunes</t>
+  </si>
+  <si>
+    <t>Billboard Declares Top 25 Earning Music Tours of 2013 [Full List]</t>
+  </si>
+  <si>
+    <t>Nine Inch Nails&amp;#8217; Trent Reznor and Alessandro Cortini Talk Synthesizers In &amp;#8220;I Dream Of Wires&amp;#8221; Extended Interview [YouTube Video]</t>
+  </si>
+  <si>
+    <t>The xx Announce NYC Park Avenue Armory Residency Concerts: March 19th to 29th, 2014</t>
+  </si>
+  <si>
+    <t>The 10 Best Hip-Hop Albums of 2013 [Zumic Staff Picks]</t>
+  </si>
+  <si>
+    <t>Albert Hammond Jr. and Jake Bugg Announce 2014 North American Tour</t>
+  </si>
+  <si>
+    <t>Led Zeppelin and Spotify Make a &amp;#8220;Whole Lotta Love&amp;#8221; with Deal to Stream Albums</t>
+  </si>
+  <si>
+    <t>Johnny Cash&amp;#8217;s Lost &amp;#8220;Out Among The Stars&amp;#8221; To Be Released in 2014, 30 Years After Initial Recordings</t>
+  </si>
+  <si>
+    <t>&amp;#8220;Skyfall&amp;#8221; Actor Ben Whishaw to Play Freddie Mercury in Upcoming Biopic</t>
+  </si>
+  <si>
+    <t>Local Natives &amp;#038; Kings of Leon 2014 Spring Tour Dates Announced</t>
+  </si>
+  <si>
+    <t>Pixies Announce Paz Lenchantin as New Bassist</t>
   </si>
 </sst>
 </file>
@@ -333,8 +483,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -414,7 +570,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -447,6 +603,9 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -479,6 +638,9 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -569,298 +731,298 @@
                   <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.0</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>102.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>108.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="93">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>141.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>133.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>141.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>123.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>114.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>121.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>143.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>113.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>124.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>122.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="98">
                   <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>136.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>109.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>137.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>130.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>123.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>137.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>133.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>136.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,301 +1034,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>46031.12488800045</c:v>
+                  <c:v>17276.94426992386</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5268.222202258083</c:v>
+                  <c:v>11933.85026104039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>895.7924675360275</c:v>
+                  <c:v>23308.45423893024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7948.208795362733</c:v>
+                  <c:v>31257.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10680.68267521656</c:v>
+                  <c:v>556.4036077624153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7802.033237253457</c:v>
+                  <c:v>11600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7139.873410739354</c:v>
+                  <c:v>18221.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78810.0</c:v>
+                  <c:v>545.3038100514862</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51000.0</c:v>
+                  <c:v>84800.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19692.9286633277</c:v>
+                  <c:v>3312.004021861799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1660.548032437601</c:v>
+                  <c:v>40362.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32296.81308264416</c:v>
+                  <c:v>3501.379690894911</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17658.0</c:v>
+                  <c:v>7601.961377173106</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42240.0</c:v>
+                  <c:v>2142.551543048408</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34313.32910033105</c:v>
+                  <c:v>2363.441830949908</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6075.115601761628</c:v>
+                  <c:v>3667.174680739995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6464.736098760467</c:v>
+                  <c:v>46604.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>491.7103692889999</c:v>
+                  <c:v>3004.512681548935</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20366.13573231304</c:v>
+                  <c:v>10981.04481491897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>60282.0</c:v>
+                  <c:v>7427.943905525945</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84217.0</c:v>
+                  <c:v>6103.447149348908</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2635.631596776605</c:v>
+                  <c:v>2881.878744282316</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15097.30215696946</c:v>
+                  <c:v>16035.97875550902</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17153.8226890049</c:v>
+                  <c:v>65084.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4660.420377780957</c:v>
+                  <c:v>13128.53817063143</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>33480.26276824349</c:v>
+                  <c:v>1140.484694576811</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>72270.0</c:v>
+                  <c:v>8159.805329837863</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>109440.0</c:v>
+                  <c:v>74750.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6250.56832231105</c:v>
+                  <c:v>38874.97939121371</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6227.707443648494</c:v>
+                  <c:v>28449.94097976642</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2886.642267828957</c:v>
+                  <c:v>880.56755461828</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5041.43247656717</c:v>
+                  <c:v>13786.03701364429</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13364.80072892007</c:v>
+                  <c:v>9797.880161304465</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5250.283868718871</c:v>
+                  <c:v>2600.706007384049</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4121.048043892998</c:v>
+                  <c:v>3764.198526372739</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>13430.53079162512</c:v>
+                  <c:v>7224.457289462424</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4003.412734827475</c:v>
+                  <c:v>1060.276074567411</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5385.809898903689</c:v>
+                  <c:v>1082.697136419952</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4210.125467455836</c:v>
+                  <c:v>1101.531766133466</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3227.93943615917</c:v>
+                  <c:v>32041.54770977375</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>207.4987776395406</c:v>
+                  <c:v>718.2459061811122</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11816.25588686287</c:v>
+                  <c:v>6139.669030813387</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15114.58071717157</c:v>
+                  <c:v>8649.764084992128</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>652.3087024714187</c:v>
+                  <c:v>3163.952709934552</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1078.731212843322</c:v>
+                  <c:v>3540.448694703429</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8243.201167781015</c:v>
+                  <c:v>4660.349928056307</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6047.531927056822</c:v>
+                  <c:v>19521.58018029132</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>34790.0</c:v>
+                  <c:v>57024.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>13113.70330351136</c:v>
+                  <c:v>15780.0006497099</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6718.28329133701</c:v>
+                  <c:v>11386.95071545169</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>661.0265178872846</c:v>
+                  <c:v>6146.969598899991</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>22715.0</c:v>
+                  <c:v>2647.725451181918</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2461.946976872241</c:v>
+                  <c:v>12177.21876367113</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6727.166118979892</c:v>
+                  <c:v>937.983840321831</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5388.312373700167</c:v>
+                  <c:v>11481.40791248409</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>11879.92603753992</c:v>
+                  <c:v>9659.220749360978</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8141.075877884088</c:v>
+                  <c:v>39893.02593648409</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5994.62047767462</c:v>
+                  <c:v>537.5483058524692</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>15410.30373879323</c:v>
+                  <c:v>1470.414155592156</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>22230.0</c:v>
+                  <c:v>2844.237484075374</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10960.38103677885</c:v>
+                  <c:v>24987.60106289866</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>16828.52459506094</c:v>
+                  <c:v>2070.246815445786</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3057.946386185094</c:v>
+                  <c:v>22340.77158030337</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3075.632204363114</c:v>
+                  <c:v>1760.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>83376.0</c:v>
+                  <c:v>1953.933427793509</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>117.9307898248669</c:v>
+                  <c:v>579.1523120835507</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>54087.0</c:v>
+                  <c:v>25148.93905856097</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2424.883072381076</c:v>
+                  <c:v>7842.369899929457</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5335.09726226053</c:v>
+                  <c:v>4368.520999007544</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>21797.48232721017</c:v>
+                  <c:v>4216.739311875645</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2154.840799264342</c:v>
+                  <c:v>725.5443552256951</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3798.952689387114</c:v>
+                  <c:v>105.2037609544731</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4443.891189313111</c:v>
+                  <c:v>21896.02519223566</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3019.843881356469</c:v>
+                  <c:v>20615.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>44917.29521491026</c:v>
+                  <c:v>14291.11678261036</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>18221.0</c:v>
+                  <c:v>3321.053769311617</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6191.755774624915</c:v>
+                  <c:v>3158.858128785683</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5230.632354657808</c:v>
+                  <c:v>3848.371254547907</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5182.390006648055</c:v>
+                  <c:v>15114.84641436148</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12480.0</c:v>
+                  <c:v>4048.873121031382</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>50968.0</c:v>
+                  <c:v>2631.062605083339</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>51054.0</c:v>
+                  <c:v>56394.10969226233</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>24420.0</c:v>
+                  <c:v>2994.486347660684</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2213.155222936646</c:v>
+                  <c:v>26642.56513989965</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3764.121072484832</c:v>
+                  <c:v>23232.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>18447.0</c:v>
+                  <c:v>1477.346959716831</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>15584.44823447018</c:v>
+                  <c:v>7481.66464426909</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>16745.0</c:v>
+                  <c:v>29854.84830071284</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>22340.17169528253</c:v>
+                  <c:v>3255.009238834255</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>25164.78615272337</c:v>
+                  <c:v>22880.99046162629</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5198.066317692723</c:v>
+                  <c:v>28414.73133772559</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3444.696575807759</c:v>
+                  <c:v>24822.22679797087</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>13693.0694031636</c:v>
+                  <c:v>8535.017002657001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>22061.48387259731</c:v>
+                  <c:v>7106.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7089.984862770898</c:v>
+                  <c:v>18441.93657645786</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>34840.0</c:v>
+                  <c:v>11346.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>16618.72776212392</c:v>
+                  <c:v>2922.657148334021</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>31115.83132117317</c:v>
+                  <c:v>2129.051985124212</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>41348.90358463447</c:v>
+                  <c:v>6071.10904957946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,298 +1356,298 @@
                   <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.0</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>102.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>108.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="93">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>141.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>133.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>141.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>123.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>114.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>121.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>143.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>113.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>124.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>122.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="98">
                   <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>136.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>109.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>137.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>130.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>123.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>137.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>133.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>136.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,301 +1659,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>51149.27612391009</c:v>
+                  <c:v>19197.94910921477</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5065.380753186999</c:v>
+                  <c:v>7664.403457356799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>637.2497870845</c:v>
+                  <c:v>11164.69578627201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3808.296879342802</c:v>
+                  <c:v>31257.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5371.609641395666</c:v>
+                  <c:v>628.9744931580917</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5963.852146350495</c:v>
+                  <c:v>11600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3944.338875354952</c:v>
+                  <c:v>18221.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78810.0</c:v>
+                  <c:v>288.6409880803486</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51000.0</c:v>
+                  <c:v>84800.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12787.33501070713</c:v>
+                  <c:v>1955.801955802934</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1956.405177957517</c:v>
+                  <c:v>40362.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20997.81629802762</c:v>
+                  <c:v>2994.834730637032</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17658.0</c:v>
+                  <c:v>4277.179887434439</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42240.0</c:v>
+                  <c:v>1042.454891110402</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16947.91089190641</c:v>
+                  <c:v>1169.083211561759</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6414.896300444345</c:v>
+                  <c:v>3096.959931481888</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3089.17275030873</c:v>
+                  <c:v>46604.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>579.3176070434149</c:v>
+                  <c:v>1577.714285714286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10381.16919234052</c:v>
+                  <c:v>6828.050245073898</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>60282.0</c:v>
+                  <c:v>3559.017676014242</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84217.0</c:v>
+                  <c:v>3050.268622050633</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1362.962480556327</c:v>
+                  <c:v>1372.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7695.502480164776</c:v>
+                  <c:v>8703.98949517263</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8950.044469163267</c:v>
+                  <c:v>65084.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4307.6</c:v>
+                  <c:v>6494.068678417253</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18666.56734280935</c:v>
+                  <c:v>850.8925434400795</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>72270.0</c:v>
+                  <c:v>8733.772213716194</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>109440.0</c:v>
+                  <c:v>74750.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4637.604985334564</c:v>
+                  <c:v>18504.25888275453</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4134.946689292097</c:v>
+                  <c:v>15463.74960997494</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2407.090395874871</c:v>
+                  <c:v>611.9682955882557</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4151.207953418797</c:v>
+                  <c:v>8951.775369590416</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12035.2604615584</c:v>
+                  <c:v>7222.663531399262</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4667.140182653193</c:v>
+                  <c:v>1872.036110762824</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4991.943389102084</c:v>
+                  <c:v>3261.072192102662</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7052.571428571428</c:v>
+                  <c:v>5079.50800287607</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3255.354032632668</c:v>
+                  <c:v>1060.93554745284</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3700.01695586442</c:v>
+                  <c:v>987.7511648367537</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2737.218713532823</c:v>
+                  <c:v>1073.245549543712</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3022.922983857947</c:v>
+                  <c:v>15456.18101047511</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>166.6316667369998</c:v>
+                  <c:v>345.2266518918703</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5981.98507642283</c:v>
+                  <c:v>3009.93442838177</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7307.680708222913</c:v>
+                  <c:v>4249.16068937179</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>453.3351731564397</c:v>
+                  <c:v>1780.171487895419</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>984.1330287018204</c:v>
+                  <c:v>2432.265610495695</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3919.285807564857</c:v>
+                  <c:v>4540.676876854375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3760.375497287074</c:v>
+                  <c:v>9454.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>34790.0</c:v>
+                  <c:v>57024.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6266.380294875183</c:v>
+                  <c:v>8233.249818354146</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4268.039649449775</c:v>
+                  <c:v>5804.236184795453</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>448.947569321853</c:v>
+                  <c:v>3742.748116229365</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>22715.0</c:v>
+                  <c:v>2048.82269086533</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2367.155057861898</c:v>
+                  <c:v>9195.70189454472</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3784.98366354907</c:v>
+                  <c:v>926.129169228158</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5926.541470816663</c:v>
+                  <c:v>5640.193961476584</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9192.743915593124</c:v>
+                  <c:v>8923.525760594855</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4275.0</c:v>
+                  <c:v>27512.66879094066</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3892.525160710019</c:v>
+                  <c:v>591.2430657790908</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>12850.22205230238</c:v>
+                  <c:v>1595.388040571948</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>22230.0</c:v>
+                  <c:v>2495.927985823443</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6001.249869818786</c:v>
+                  <c:v>17232.97683706059</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8768.507213317441</c:v>
+                  <c:v>1770.743995577096</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3185.634442017027</c:v>
+                  <c:v>11235.78966496565</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2065.255549922693</c:v>
+                  <c:v>1760.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>83376.0</c:v>
+                  <c:v>2120.002729108755</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>131.4966479460698</c:v>
+                  <c:v>371.9551432248633</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>54087.0</c:v>
+                  <c:v>14283.2511536149</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2459.087607185454</c:v>
+                  <c:v>6539.533310865007</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4931.2</c:v>
+                  <c:v>4612.852006770175</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10367.48336794496</c:v>
+                  <c:v>4637.942025304811</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2402.717241031678</c:v>
+                  <c:v>653.36666581637</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4353.905746568247</c:v>
+                  <c:v>114.1452708487866</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2363.022835919476</c:v>
+                  <c:v>13195.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2050.979096269226</c:v>
+                  <c:v>20615.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>33326.35713665686</c:v>
+                  <c:v>6921.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>18221.0</c:v>
+                  <c:v>1717.414409896211</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2986.775136210577</c:v>
+                  <c:v>2881.845431474265</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4200.453599101203</c:v>
+                  <c:v>2498.887459492978</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2743.150046935092</c:v>
+                  <c:v>8134.12367744676</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12480.0</c:v>
+                  <c:v>4275.326250177236</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>50968.0</c:v>
+                  <c:v>1766.731613628565</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>51054.0</c:v>
+                  <c:v>62664.51005553302</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>24420.0</c:v>
+                  <c:v>2221.757142443791</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2336.936806240947</c:v>
+                  <c:v>13178.82048549448</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4140.11254175621</c:v>
+                  <c:v>23232.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>18447.0</c:v>
+                  <c:v>1539.035275093346</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>10584.44701499957</c:v>
+                  <c:v>6238.751268587677</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>16745.0</c:v>
+                  <c:v>14188.57531542478</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>12142.83086159621</c:v>
+                  <c:v>1607.701962429604</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>12299.30370729215</c:v>
+                  <c:v>10909.58525571036</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2898.127044081464</c:v>
+                  <c:v>13567.11131284033</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2014.020121344454</c:v>
+                  <c:v>13839.37071611935</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6726.663485044101</c:v>
+                  <c:v>6071.64936613738</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10570.51750259784</c:v>
+                  <c:v>7106.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3848.293559586472</c:v>
+                  <c:v>8972.893580111156</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>34840.0</c:v>
+                  <c:v>11346.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>10333.58028143372</c:v>
+                  <c:v>2847.606282206432</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>15860.57923560451</c:v>
+                  <c:v>2508.381718849351</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>19991.59557818997</c:v>
+                  <c:v>3775.035830609831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2496,10 +2658,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1216025</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>56092</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>407459</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>89959</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -2905,26 +3067,26 @@
       </c>
       <c r="C2">
         <f ca="1">D2*E2</f>
-        <v>72336</v>
+        <v>27150</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(0,300)</f>
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(100,430)</f>
-        <v>411</v>
+        <v>181</v>
       </c>
       <c r="F2">
         <v>25</v>
       </c>
       <c r="G2">
         <f ca="1">IF(F2&gt;24, C2*POWER($A$6,(-$A$3*F2)), C2)</f>
-        <v>46031.12488800045</v>
+        <v>17276.944269923857</v>
       </c>
       <c r="H2">
         <f ca="1">IF(F2&gt;24, C2/POWER(F2-23,$A$12), C2)</f>
-        <v>51149.276123910095</v>
+        <v>19197.949109214765</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
@@ -2936,27 +3098,27 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="1">D3*E3</f>
-        <v>51408</v>
+        <v>64125</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" ca="1" si="2">RANDBETWEEN(0,300)</f>
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F4" ca="1" si="3">RANDBETWEEN(1,144)</f>
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="4">IF(F3&gt;24, C3*POWER($A$6,(-$A$3*F3)), C3)</f>
-        <v>5268.2222022580836</v>
+        <v>11933.850261040388</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="5">IF(F3&gt;24, C3/POWER(F3-23,$A$12), C3)</f>
-        <v>5065.3807531869988</v>
+        <v>7664.4034573567988</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
@@ -2965,27 +3127,27 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>5664</v>
+        <v>53544</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="4"/>
-        <v>895.79246753602752</v>
+        <v>23308.454238930241</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="5"/>
-        <v>637.24978708449999</v>
+        <v>11164.695786272012</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
@@ -2994,27 +3156,27 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>21877</v>
+        <v>31257</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(1,144)</f>
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="4"/>
-        <v>7948.2087953627333</v>
+        <v>31257</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="5"/>
-        <v>3808.2968793428017</v>
+        <v>31257</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
@@ -3026,27 +3188,27 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>35224</v>
+        <v>6745</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>259</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>136</v>
+        <v>355</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F69" ca="1" si="6">RANDBETWEEN(1,144)</f>
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="4"/>
-        <v>10680.682675216563</v>
+        <v>556.40360776241528</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="5"/>
-        <v>5371.6096413956666</v>
+        <v>628.97449315809172</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
@@ -3055,27 +3217,27 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>54984</v>
+        <v>11600</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="6"/>
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="4"/>
-        <v>7802.0332372534576</v>
+        <v>11600</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="5"/>
-        <v>5963.8521463504958</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
@@ -3087,27 +3249,27 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>29252</v>
+        <v>18221</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="4"/>
-        <v>7139.8734107393539</v>
+        <v>18221</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="5"/>
-        <v>3944.3388753549516</v>
+        <v>18221</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
@@ -3116,53 +3278,53 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>78810</v>
+        <v>2041</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>355</v>
+        <v>157</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="4"/>
-        <v>78810</v>
+        <v>545.30381005148627</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="5"/>
-        <v>78810</v>
+        <v>288.64098808034868</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>51000</v>
+        <v>84800</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>265</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10" ca="1" si="7">RANDBETWEEN(100,430)</f>
-        <v>425</v>
+        <v>320</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="4"/>
-        <v>51000</v>
+        <v>84800</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="5"/>
-        <v>51000</v>
+        <v>84800</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
@@ -3171,27 +3333,27 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>107748</v>
+        <v>15400</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>369</v>
+        <v>175</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="4"/>
-        <v>19692.928663327693</v>
+        <v>3312.0040218617992</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="5"/>
-        <v>12787.335010707131</v>
+        <v>1955.8019558029337</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
@@ -3200,105 +3362,105 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>21252</v>
+        <v>40362</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>308</v>
+        <v>186</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="6"/>
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="4"/>
-        <v>1660.5480324376015</v>
+        <v>40362</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="5"/>
-        <v>1956.4051779575168</v>
+        <v>40362</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>55555</v>
+        <v>29036</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="4"/>
-        <v>32296.813082644159</v>
+        <v>3501.3796908949107</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="5"/>
-        <v>20997.816298027617</v>
+        <v>2994.8347306370324</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>17658</v>
+        <v>32292</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="4"/>
-        <v>17658</v>
+        <v>7601.9613771731065</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="5"/>
-        <v>17658</v>
+        <v>4277.1798874344395</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>42240</v>
+        <v>4662</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="4"/>
-        <v>42240</v>
+        <v>2142.5515430484083</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="5"/>
-        <v>42240</v>
+        <v>1042.4548911104018</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
@@ -3307,79 +3469,79 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>107188</v>
+        <v>4960</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>422</v>
+        <v>248</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="4"/>
-        <v>34313.329100331051</v>
+        <v>2363.4418309499083</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="5"/>
-        <v>16947.910891906413</v>
+        <v>1169.0832115617586</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="12.75" customHeight="1">
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>67280</v>
+        <v>29866</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="6"/>
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="4"/>
-        <v>6075.1156017616286</v>
+        <v>3667.174680739995</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="5"/>
-        <v>6414.8963004443449</v>
+        <v>3096.9599314818879</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="12.75" customHeight="1">
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>17475</v>
+        <v>46604</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="4"/>
-        <v>6464.736098760467</v>
+        <v>46604</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="5"/>
-        <v>3089.1727503087291</v>
+        <v>46604</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="12.75" customHeight="1">
@@ -3388,79 +3550,79 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>6293</v>
+        <v>11044</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="6"/>
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="4"/>
-        <v>491.71036928899991</v>
+        <v>3004.5126815489348</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="5"/>
-        <v>579.31760704341491</v>
+        <v>1577.7142857142858</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="12.75" customHeight="1">
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>69639</v>
+        <v>55890</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>417</v>
+        <v>270</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="4"/>
-        <v>20366.13573231304</v>
+        <v>10981.044814918967</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="5"/>
-        <v>10381.169192340523</v>
+        <v>6828.0502450738986</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="12.75" customHeight="1">
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>60282</v>
+        <v>20445</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>394</v>
+        <v>141</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="4"/>
-        <v>60282</v>
+        <v>7427.9439055259445</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="5"/>
-        <v>60282</v>
+        <v>3559.0176760142422</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="12.75" customHeight="1">
@@ -3469,2055 +3631,2055 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>84217</v>
+        <v>19768</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="4"/>
-        <v>84217</v>
+        <v>6103.4471493489082</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="5"/>
-        <v>84217</v>
+        <v>3050.268622050633</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="12.75" customHeight="1">
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>9344</v>
+        <v>6864</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="4"/>
-        <v>2635.631596776605</v>
+        <v>2881.8787442823159</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="5"/>
-        <v>1362.9624805563267</v>
+        <v>1372.8</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="12.75" customHeight="1">
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>51623</v>
+        <v>63366</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>247</v>
+        <v>177</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>209</v>
+        <v>358</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="4"/>
-        <v>15097.302156969456</v>
+        <v>16035.978755509021</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="5"/>
-        <v>7695.502480164776</v>
+        <v>8703.9894951726292</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="12.75" customHeight="1">
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>33488</v>
+        <v>65084</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>182</v>
+        <v>307</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="4"/>
-        <v>17153.822689004905</v>
+        <v>65084</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="5"/>
-        <v>8950.0444691632674</v>
+        <v>65084</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="12.75" customHeight="1">
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>43076</v>
+        <v>27552</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>242</v>
+        <v>112</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="6"/>
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="4"/>
-        <v>4660.4203777809571</v>
+        <v>13128.538170631427</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="5"/>
-        <v>4307.6000000000004</v>
+        <v>6494.0686784172531</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="12.75" customHeight="1">
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>61910</v>
+        <v>7752</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>302</v>
+        <v>102</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="4"/>
-        <v>33480.26276824349</v>
+        <v>1140.4846945768109</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="5"/>
-        <v>18666.567342809347</v>
+        <v>850.89254344007952</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="12.75" customHeight="1">
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>72270</v>
+        <v>92016</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="4"/>
-        <v>72270</v>
+        <v>8159.8053298378636</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="5"/>
-        <v>72270</v>
+        <v>8733.7722137161945</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="12.75" customHeight="1">
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>109440</v>
+        <v>74750</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>380</v>
+        <v>299</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="4"/>
-        <v>109440</v>
+        <v>74750</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="5"/>
-        <v>109440</v>
+        <v>74750</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="12.75" customHeight="1">
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>10370</v>
+        <v>101352</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>412</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="4"/>
-        <v>6250.5683223110491</v>
+        <v>38874.97939121371</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="5"/>
-        <v>4637.6049853345639</v>
+        <v>18504.258882754533</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="12.75" customHeight="1">
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>35329</v>
+        <v>53568</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>279</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>343</v>
+        <v>192</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="4"/>
-        <v>6227.7074436484936</v>
+        <v>28449.940979766419</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="5"/>
-        <v>4134.9466892920973</v>
+        <v>15463.749609974937</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="12.75" customHeight="1">
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>23088</v>
+        <v>5370</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="4"/>
-        <v>2886.6422678289568</v>
+        <v>880.56755461828004</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="5"/>
-        <v>2407.0903958748713</v>
+        <v>611.96829558825573</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="12.75" customHeight="1">
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>39600</v>
+        <v>75429</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>289</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>360</v>
+        <v>261</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="4"/>
-        <v>5041.4324765671699</v>
+        <v>13786.037013644287</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="5"/>
-        <v>4151.2079534187969</v>
+        <v>8951.7753695904157</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="12.75" customHeight="1">
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>119143</v>
+        <v>65404</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>283</v>
+        <v>166</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="6"/>
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="4"/>
-        <v>13364.800728920067</v>
+        <v>9797.8801613044652</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="5"/>
-        <v>12035.260461558404</v>
+        <v>7222.6635313992629</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="12.75" customHeight="1">
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>45966</v>
+        <v>16744</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="6"/>
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="4"/>
-        <v>5250.2838687188705</v>
+        <v>2600.7060073840489</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="5"/>
-        <v>4667.1401826531937</v>
+        <v>1872.0361107628239</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="12.75" customHeight="1">
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>54684</v>
+        <v>31785</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>294</v>
+        <v>163</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="6"/>
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="4"/>
-        <v>4121.0480438929981</v>
+        <v>3764.1985263727388</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="5"/>
-        <v>4991.9433891020835</v>
+        <v>3261.0721921026625</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="12.75" customHeight="1">
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>49368</v>
+        <v>44861</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="4"/>
-        <v>13430.530791625119</v>
+        <v>7224.4572894624243</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="5"/>
-        <v>7052.5714285714284</v>
+        <v>5079.5080028760703</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="12.75" customHeight="1">
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>30883</v>
+        <v>10923</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="6"/>
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="4"/>
-        <v>4003.4127348274756</v>
+        <v>1060.2760745674113</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="5"/>
-        <v>3255.3540326326688</v>
+        <v>1060.9355474528397</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="12.75" customHeight="1">
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>32256</v>
+        <v>9828</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="4"/>
-        <v>5385.8098989036889</v>
+        <v>1082.6971364199517</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="5"/>
-        <v>3700.0169558644197</v>
+        <v>987.75116483675367</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="12.75" customHeight="1">
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>7242</v>
+        <v>10945</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="4"/>
-        <v>4210.1254674558368</v>
+        <v>1101.5317661334661</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="5"/>
-        <v>2737.2187135328236</v>
+        <v>1073.2455495437123</v>
       </c>
     </row>
     <row r="41" spans="3:8" ht="12.75" customHeight="1">
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>30380</v>
+        <v>91440</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>310</v>
+        <v>381</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="6"/>
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="4"/>
-        <v>3227.9394361591694</v>
+        <v>32041.547709773753</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="5"/>
-        <v>3022.9229838579472</v>
+        <v>15456.181010475111</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="12.75" customHeight="1">
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>1572</v>
+        <v>2013</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>393</v>
+        <v>183</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="6"/>
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="4"/>
-        <v>207.49877763954058</v>
+        <v>718.24590618111222</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="5"/>
-        <v>166.63166673699979</v>
+        <v>345.22665189187029</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="12.75" customHeight="1">
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>39680</v>
+        <v>13120</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>320</v>
+        <v>205</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="4"/>
-        <v>11816.255886862868</v>
+        <v>6139.6690308133875</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="5"/>
-        <v>5981.9850764228304</v>
+        <v>3009.93442838177</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="12.75" customHeight="1">
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>33488</v>
+        <v>26536</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>299</v>
+        <v>62</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>428</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="4"/>
-        <v>15114.580717171571</v>
+        <v>8649.7640849921281</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="5"/>
-        <v>7307.6807082229134</v>
+        <v>4249.1606893717917</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="12.75" customHeight="1">
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>3978</v>
+        <v>13440</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="4"/>
-        <v>652.30870247141866</v>
+        <v>3163.9527099345519</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="5"/>
-        <v>453.33517315643974</v>
+        <v>1780.1714878954187</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="12.75" customHeight="1">
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>9792</v>
+        <v>21204</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>408</v>
+        <v>114</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="6"/>
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="4"/>
-        <v>1078.7312128433218</v>
+        <v>3540.4486947034293</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="5"/>
-        <v>984.13302870182042</v>
+        <v>2432.2656104956955</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="12.75" customHeight="1">
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>21106</v>
+        <v>46306</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="4"/>
-        <v>8243.2011677810151</v>
+        <v>4660.3499280563074</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="5"/>
-        <v>3919.2858075648569</v>
+        <v>4540.6768768543752</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="12.75" customHeight="1">
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>30780</v>
+        <v>56727</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>297</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="4"/>
-        <v>6047.5319270568225</v>
+        <v>19521.580180291319</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="5"/>
-        <v>3760.3754972870747</v>
+        <v>9454.5</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="12.75" customHeight="1">
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>34790</v>
+        <v>57024</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>355</v>
+        <v>192</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="4"/>
-        <v>34790</v>
+        <v>57024</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="5"/>
-        <v>34790</v>
+        <v>57024</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="12.75" customHeight="1">
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>35448</v>
+        <v>30806</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="4"/>
-        <v>13113.703303511362</v>
+        <v>15780.000649709898</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="5"/>
-        <v>6266.3802948751836</v>
+        <v>8233.2498183541466</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="12.75" customHeight="1">
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>35453</v>
+        <v>38936</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="4"/>
-        <v>6718.2832913370103</v>
+        <v>11386.950715451692</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="5"/>
-        <v>4268.0396494497754</v>
+        <v>5804.2361847954535</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="12.75" customHeight="1">
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>3888</v>
+        <v>30175</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>355</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="4"/>
-        <v>661.02651788728463</v>
+        <v>6146.9695988999911</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="5"/>
-        <v>448.94756932185294</v>
+        <v>3742.7481162293652</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="12.75" customHeight="1">
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>22715</v>
+        <v>19000</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>385</v>
+        <v>152</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="4"/>
-        <v>22715</v>
+        <v>2647.7254511819183</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="5"/>
-        <v>22715</v>
+        <v>2048.8226908653301</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="12.75" customHeight="1">
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>24024</v>
+        <v>84280</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="6"/>
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="4"/>
-        <v>2461.9469768722415</v>
+        <v>12177.218763671133</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="5"/>
-        <v>2367.1550578618981</v>
+        <v>9195.7018945447198</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="12.75" customHeight="1">
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>28576</v>
+        <v>9490</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="2"/>
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="4"/>
-        <v>6727.1661189798924</v>
+        <v>937.98384032183105</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="5"/>
-        <v>3784.9836635490692</v>
+        <v>926.12916922815805</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="12.75" customHeight="1">
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>63000</v>
+        <v>35223</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="2"/>
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>360</v>
+        <v>177</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="6"/>
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="4"/>
-        <v>5388.3123737001679</v>
+        <v>11481.407912484086</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="5"/>
-        <v>5926.5414708166627</v>
+        <v>5640.1939614765843</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="12.75" customHeight="1">
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>85250</v>
+        <v>15456</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>310</v>
+        <v>112</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="6"/>
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="4"/>
-        <v>11879.926037539923</v>
+        <v>9659.2207493609785</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="5"/>
-        <v>9192.7439155931243</v>
+        <v>8923.5257605948555</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="12.75" customHeight="1">
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>29925</v>
+        <v>67392</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>288</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="4"/>
-        <v>8141.0758778840882</v>
+        <v>39893.025936484089</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="5"/>
-        <v>4275</v>
+        <v>27512.668790940657</v>
       </c>
     </row>
     <row r="59" spans="3:8" ht="12.75" customHeight="1">
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>32799</v>
+        <v>6285</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="4"/>
-        <v>5994.6204776746208</v>
+        <v>537.54830585246918</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="5"/>
-        <v>3892.5251607100195</v>
+        <v>591.2430657790909</v>
       </c>
     </row>
     <row r="60" spans="3:8" ht="12.75" customHeight="1">
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>123255</v>
+        <v>16884</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>297</v>
+        <v>84</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>415</v>
+        <v>201</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="4"/>
-        <v>15410.303738793229</v>
+        <v>1470.4141555921556</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="5"/>
-        <v>12850.222052302375</v>
+        <v>1595.3880405719481</v>
       </c>
     </row>
     <row r="61" spans="3:8" ht="12.75" customHeight="1">
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>22230</v>
+        <v>24455</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="4"/>
-        <v>22230</v>
+        <v>2844.2374840753737</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="5"/>
-        <v>22230</v>
+        <v>2495.9279858234427</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="12.75" customHeight="1">
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>44100</v>
+        <v>42212</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="4"/>
-        <v>10960.381036778846</v>
+        <v>24987.601062898659</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="5"/>
-        <v>6001.2498698187865</v>
+        <v>17232.976837060589</v>
       </c>
     </row>
     <row r="63" spans="3:8" ht="12.75" customHeight="1">
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>60750</v>
+        <v>17168</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>375</v>
+        <v>296</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="4"/>
-        <v>16828.524595060935</v>
+        <v>2070.2468154457856</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="5"/>
-        <v>8768.5072133174417</v>
+        <v>1770.7439955770965</v>
       </c>
     </row>
     <row r="64" spans="3:8" ht="12.75" customHeight="1">
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>33259</v>
+        <v>73678</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="6"/>
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="4"/>
-        <v>3057.9463861850936</v>
+        <v>22340.771580303372</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="5"/>
-        <v>3185.6344420170271</v>
+        <v>11235.789664965647</v>
       </c>
     </row>
     <row r="65" spans="3:8" ht="12.75" customHeight="1">
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>17766</v>
+        <v>1760</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="4"/>
-        <v>3075.6322043631139</v>
+        <v>1760</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="5"/>
-        <v>2065.2555499226933</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="66" spans="3:8" ht="12.75" customHeight="1">
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>83376</v>
+        <v>22436</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="2"/>
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E100" ca="1" si="8">RANDBETWEEN(100,430)</f>
-        <v>386</v>
+        <v>284</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="4"/>
-        <v>83376</v>
+        <v>1953.9334277935086</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="5"/>
-        <v>83376</v>
+        <v>2120.0027291087554</v>
       </c>
     </row>
     <row r="67" spans="3:8" ht="12.75" customHeight="1">
       <c r="C67">
         <f t="shared" ref="C67:C100" ca="1" si="9">D67*E67</f>
-        <v>1404</v>
+        <v>3112</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D100" ca="1" si="10">RANDBETWEEN(0,300)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="8"/>
-        <v>117</v>
+        <v>389</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="6"/>
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G100" ca="1" si="11">IF(F67&gt;24, C67*POWER($A$6,(-$A$3*F67)), C67)</f>
-        <v>117.93078982486695</v>
+        <v>579.15231208355067</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H100" ca="1" si="12">IF(F67&gt;24, C67/POWER(F67-23,$A$12), C67)</f>
-        <v>131.49664794606983</v>
+        <v>371.95514322486332</v>
       </c>
     </row>
     <row r="68" spans="3:8" ht="12.75" customHeight="1">
       <c r="C68">
         <f t="shared" ca="1" si="9"/>
-        <v>54087</v>
+        <v>108778</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="10"/>
-        <v>149</v>
+        <v>274</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="8"/>
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="11"/>
-        <v>54087</v>
+        <v>25148.939058560973</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="12"/>
-        <v>54087</v>
+        <v>14283.2511536149</v>
       </c>
     </row>
     <row r="69" spans="3:8" ht="12.75" customHeight="1">
       <c r="C69">
         <f t="shared" ca="1" si="9"/>
-        <v>25437</v>
+        <v>62725</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="10"/>
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="8"/>
-        <v>417</v>
+        <v>325</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="11"/>
-        <v>2424.8830723810765</v>
+        <v>7842.3698999294575</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="12"/>
-        <v>2459.0876071854541</v>
+        <v>6539.5333108650075</v>
       </c>
     </row>
     <row r="70" spans="3:8" ht="12.75" customHeight="1">
       <c r="C70">
         <f t="shared" ca="1" si="9"/>
-        <v>49312</v>
+        <v>48380</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="10"/>
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="8"/>
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="F70">
         <f t="shared" ref="F70:F100" ca="1" si="13">RANDBETWEEN(1,144)</f>
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="11"/>
-        <v>5335.0972622605295</v>
+        <v>4368.5209990075446</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="12"/>
-        <v>4931.2</v>
+        <v>4612.8520067701756</v>
       </c>
     </row>
     <row r="71" spans="3:8" ht="12.75" customHeight="1">
       <c r="C71">
         <f t="shared" ca="1" si="9"/>
-        <v>52864</v>
+        <v>49302</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="10"/>
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="8"/>
-        <v>413</v>
+        <v>297</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="11"/>
-        <v>21797.482327210171</v>
+        <v>4216.7393118756454</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="12"/>
-        <v>10367.483367944962</v>
+        <v>4637.9420253048111</v>
       </c>
     </row>
     <row r="72" spans="3:8" ht="12.75" customHeight="1">
       <c r="C72">
         <f t="shared" ca="1" si="9"/>
-        <v>25654</v>
+        <v>6468</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="10"/>
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="8"/>
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="13"/>
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="11"/>
-        <v>2154.8407992643424</v>
+        <v>725.5443552256952</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="12"/>
-        <v>2402.7172410316775</v>
+        <v>653.36666581636996</v>
       </c>
     </row>
     <row r="73" spans="3:8" ht="12.75" customHeight="1">
       <c r="C73">
         <f t="shared" ca="1" si="9"/>
-        <v>46893</v>
+        <v>1208</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="10"/>
-        <v>231</v>
+        <v>4</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="8"/>
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="13"/>
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="11"/>
-        <v>3798.9526893871143</v>
+        <v>105.2037609544731</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="12"/>
-        <v>4353.9057465682472</v>
+        <v>114.14527084878662</v>
       </c>
     </row>
     <row r="74" spans="3:8" ht="12.75" customHeight="1">
       <c r="C74">
         <f t="shared" ca="1" si="9"/>
-        <v>8520</v>
+        <v>105560</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="8"/>
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="11"/>
-        <v>4443.8911893131117</v>
+        <v>21896.025192235662</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="12"/>
-        <v>2363.0228359194762</v>
+        <v>13195</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="12.75" customHeight="1">
       <c r="C75">
         <f t="shared" ca="1" si="9"/>
-        <v>17762</v>
+        <v>20615</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="10"/>
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="8"/>
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="13"/>
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="11"/>
-        <v>3019.8438813564685</v>
+        <v>20615</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="12"/>
-        <v>2050.9790962692264</v>
+        <v>20615</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="12.75" customHeight="1">
       <c r="C76">
         <f t="shared" ca="1" si="9"/>
-        <v>74520</v>
+        <v>41528</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="10"/>
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="8"/>
-        <v>405</v>
+        <v>232</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="13"/>
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="11"/>
-        <v>44917.295214910257</v>
+        <v>14291.116782610359</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="12"/>
-        <v>33326.357136656865</v>
+        <v>6921.333333333333</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="12.75" customHeight="1">
       <c r="C77">
         <f t="shared" ca="1" si="9"/>
-        <v>18221</v>
+        <v>11774</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="10"/>
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="8"/>
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="13"/>
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="11"/>
-        <v>18221</v>
+        <v>3321.0537693116171</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="12"/>
-        <v>18221</v>
+        <v>1717.4144098962106</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="12.75" customHeight="1">
       <c r="C78">
         <f t="shared" ca="1" si="9"/>
-        <v>17670</v>
+        <v>28674</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="8"/>
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="11"/>
-        <v>6191.7557746249149</v>
+        <v>3158.8581287856832</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="12"/>
-        <v>2986.7751362105773</v>
+        <v>2881.8454314742648</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="12.75" customHeight="1">
       <c r="C79">
         <f t="shared" ca="1" si="9"/>
-        <v>39627</v>
+        <v>21056</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="10"/>
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="8"/>
-        <v>333</v>
+        <v>224</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="13"/>
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="11"/>
-        <v>5230.6323546578087</v>
+        <v>3848.3712545479075</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="12"/>
-        <v>4200.4535991012026</v>
+        <v>2498.8874594929775</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="12.75" customHeight="1">
       <c r="C80">
         <f t="shared" ca="1" si="9"/>
-        <v>19397</v>
+        <v>58656</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="10"/>
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="8"/>
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="13"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="11"/>
-        <v>5182.3900066480546</v>
+        <v>15114.84641436148</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="12"/>
-        <v>2743.1500469350922</v>
+        <v>8134.1236774467607</v>
       </c>
     </row>
     <row r="81" spans="3:8" ht="12.75" customHeight="1">
       <c r="C81">
         <f t="shared" ca="1" si="9"/>
-        <v>12480</v>
+        <v>44840</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="8"/>
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="11"/>
-        <v>12480</v>
+        <v>4048.8731210313827</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="12"/>
-        <v>12480</v>
+        <v>4275.326250177236</v>
       </c>
     </row>
     <row r="82" spans="3:8" ht="12.75" customHeight="1">
       <c r="C82">
         <f t="shared" ca="1" si="9"/>
-        <v>50968</v>
+        <v>15198</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="10"/>
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="8"/>
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="11"/>
-        <v>50968</v>
+        <v>2631.0626050833393</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="12"/>
-        <v>50968</v>
+        <v>1766.7316136285654</v>
       </c>
     </row>
     <row r="83" spans="3:8" ht="12.75" customHeight="1">
       <c r="C83">
         <f t="shared" ca="1" si="9"/>
-        <v>51054</v>
+        <v>88621</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="10"/>
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="8"/>
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="11"/>
-        <v>51054</v>
+        <v>56394.109692262333</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="12"/>
-        <v>51054</v>
+        <v>62664.510055533021</v>
       </c>
     </row>
     <row r="84" spans="3:8" ht="12.75" customHeight="1">
       <c r="C84">
         <f t="shared" ca="1" si="9"/>
-        <v>24420</v>
+        <v>4968</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="10"/>
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="8"/>
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="11"/>
-        <v>24420</v>
+        <v>2994.4863476606838</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="12"/>
-        <v>24420</v>
+        <v>2221.7571424437911</v>
       </c>
     </row>
     <row r="85" spans="3:8" ht="12.75" customHeight="1">
       <c r="C85">
         <f t="shared" ca="1" si="9"/>
-        <v>24510</v>
+        <v>55913</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="10"/>
-        <v>129</v>
+        <v>299</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="8"/>
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="13"/>
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="11"/>
-        <v>2213.1552229366457</v>
+        <v>26642.565139899645</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="12"/>
-        <v>2336.9368062409467</v>
+        <v>13178.820485494478</v>
       </c>
     </row>
     <row r="86" spans="3:8" ht="12.75" customHeight="1">
       <c r="C86">
         <f t="shared" ca="1" si="9"/>
-        <v>44010</v>
+        <v>23232</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="10"/>
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="8"/>
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="13"/>
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="11"/>
-        <v>3764.1210724848315</v>
+        <v>23232</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="12"/>
-        <v>4140.1125417562116</v>
+        <v>23232</v>
       </c>
     </row>
     <row r="87" spans="3:8" ht="12.75" customHeight="1">
       <c r="C87">
         <f t="shared" ca="1" si="9"/>
-        <v>18447</v>
+        <v>16068</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="10"/>
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="8"/>
-        <v>129</v>
+        <v>309</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="11"/>
-        <v>18447</v>
+        <v>1477.346959716831</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="12"/>
-        <v>18447</v>
+        <v>1539.0352750933459</v>
       </c>
     </row>
     <row r="88" spans="3:8" ht="12.75" customHeight="1">
       <c r="C88">
         <f t="shared" ca="1" si="9"/>
-        <v>91664</v>
+        <v>59840</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="10"/>
-        <v>272</v>
+        <v>160</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="8"/>
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="13"/>
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="11"/>
-        <v>15584.448234470179</v>
+        <v>7481.6646442690917</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="12"/>
-        <v>10584.44701499957</v>
+        <v>6238.7512685876773</v>
       </c>
     </row>
     <row r="89" spans="3:8" ht="12.75" customHeight="1">
       <c r="C89">
         <f t="shared" ca="1" si="9"/>
-        <v>16745</v>
+        <v>73726</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="10"/>
-        <v>85</v>
+        <v>193</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="8"/>
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="13"/>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="11"/>
-        <v>16745</v>
+        <v>29854.848300712838</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="12"/>
-        <v>16745</v>
+        <v>14188.575315424783</v>
       </c>
     </row>
     <row r="90" spans="3:8" ht="12.75" customHeight="1">
       <c r="C90">
         <f t="shared" ca="1" si="9"/>
-        <v>42064</v>
+        <v>10168</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="10"/>
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="8"/>
-        <v>239</v>
+        <v>328</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="13"/>
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="11"/>
-        <v>22340.171695282534</v>
+        <v>3255.0092388342555</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="12"/>
-        <v>12142.830861596211</v>
+        <v>1607.701962429604</v>
       </c>
     </row>
     <row r="91" spans="3:8" ht="12.75" customHeight="1">
       <c r="C91">
         <f t="shared" ca="1" si="9"/>
-        <v>75818</v>
+        <v>60742</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="10"/>
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="8"/>
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="13"/>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="11"/>
-        <v>25164.786152723373</v>
+        <v>22880.990461626287</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="12"/>
-        <v>12299.303707292154</v>
+        <v>10909.585255710363</v>
       </c>
     </row>
     <row r="92" spans="3:8" ht="12.75" customHeight="1">
       <c r="C92">
         <f t="shared" ca="1" si="9"/>
-        <v>9612</v>
+        <v>66465</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>211</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="8"/>
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="13"/>
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="11"/>
-        <v>5198.0663176927228</v>
+        <v>28414.731337725592</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="12"/>
-        <v>2898.1270440814642</v>
+        <v>13567.111312840329</v>
       </c>
     </row>
     <row r="93" spans="3:8" ht="12.75" customHeight="1">
       <c r="C93">
         <f t="shared" ca="1" si="9"/>
-        <v>15730</v>
+        <v>45900</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="10"/>
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="8"/>
-        <v>130</v>
+        <v>255</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="13"/>
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="11"/>
-        <v>3444.6965758077586</v>
+        <v>24822.226797970867</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="12"/>
-        <v>2014.0201213444539</v>
+        <v>13839.370716119351</v>
       </c>
     </row>
     <row r="94" spans="3:8" ht="12.75" customHeight="1">
       <c r="C94">
         <f t="shared" ca="1" si="9"/>
-        <v>42008</v>
+        <v>53966</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="8"/>
-        <v>356</v>
+        <v>242</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="13"/>
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="11"/>
-        <v>13693.069403163601</v>
+        <v>8535.0170026570013</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="12"/>
-        <v>6726.6634850441005</v>
+        <v>6071.6493661373806</v>
       </c>
     </row>
     <row r="95" spans="3:8" ht="12.75" customHeight="1">
       <c r="C95">
         <f t="shared" ca="1" si="9"/>
-        <v>60723</v>
+        <v>7106</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="10"/>
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="8"/>
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="11"/>
-        <v>22061.483872597306</v>
+        <v>7106</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="12"/>
-        <v>10570.517502597841</v>
+        <v>7106</v>
       </c>
     </row>
     <row r="96" spans="3:8" ht="12.75" customHeight="1">
       <c r="C96">
         <f t="shared" ca="1" si="9"/>
-        <v>28016</v>
+        <v>40128</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="10"/>
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="8"/>
-        <v>412</v>
+        <v>304</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="13"/>
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="11"/>
-        <v>7089.984862770898</v>
+        <v>18441.936576457858</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="12"/>
-        <v>3848.2935595864719</v>
+        <v>8972.8935801111566</v>
       </c>
     </row>
     <row r="97" spans="3:8" ht="12.75" customHeight="1">
       <c r="C97">
         <f t="shared" ca="1" si="9"/>
-        <v>34840</v>
+        <v>11346</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="10"/>
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="8"/>
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="13"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="11"/>
-        <v>34840</v>
+        <v>11346</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="12"/>
-        <v>34840</v>
+        <v>11346</v>
       </c>
     </row>
     <row r="98" spans="3:8" ht="12.75" customHeight="1">
       <c r="C98">
         <f t="shared" ca="1" si="9"/>
-        <v>84584</v>
+        <v>29040</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="10"/>
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="8"/>
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="13"/>
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="11"/>
-        <v>16618.727762123919</v>
+        <v>2922.6571483340208</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="12"/>
-        <v>10333.58028143372</v>
+        <v>2847.6062822064323</v>
       </c>
     </row>
     <row r="99" spans="3:8" ht="12.75" customHeight="1">
       <c r="C99">
         <f t="shared" ca="1" si="9"/>
-        <v>106396</v>
+        <v>27248</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="10"/>
-        <v>268</v>
+        <v>104</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="8"/>
-        <v>397</v>
+        <v>262</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="11"/>
-        <v>31115.831321173166</v>
+        <v>2129.0519851242125</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="12"/>
-        <v>15860.579235604508</v>
+        <v>2508.3817188493517</v>
       </c>
     </row>
     <row r="100" spans="3:8" ht="12.75" customHeight="1">
       <c r="C100">
         <f t="shared" ca="1" si="9"/>
-        <v>91613</v>
+        <v>30900</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="10"/>
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="8"/>
-        <v>317</v>
+        <v>150</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="11"/>
-        <v>41348.90358463447</v>
+        <v>6071.1090495794606</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="12"/>
-        <v>19991.595578189972</v>
+        <v>3775.035830609831</v>
       </c>
     </row>
   </sheetData>
@@ -5533,16 +5695,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="80.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="6" width="8.5" customWidth="1"/>
   </cols>
@@ -5638,7 +5800,7 @@
         <v>41682.642106481479</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D51" ca="1" si="4">ABS(TODAY()-C4)*24</f>
+        <f t="shared" ref="D4:D67" ca="1" si="4">ABS(TODAY()-C4)*24</f>
         <v>8.589444444514811</v>
       </c>
       <c r="G4">
@@ -6781,7 +6943,7 @@
         <v>41648.771782407406</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">ABS(TODAY()-C51)*24</f>
         <v>821.47722222225275</v>
       </c>
       <c r="G51">
@@ -6797,21 +6959,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.75" customHeight="1">
+    <row r="52" spans="2:11" ht="12">
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="2">
+        <v>41648.708599537036</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>822.99361111113103</v>
+      </c>
       <c r="G52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H52">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I52">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="12.75" customHeight="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="12">
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="2">
+        <v>41648.62704861111</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>824.95083333336515</v>
+      </c>
       <c r="H53">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6825,7 +7007,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.75" customHeight="1">
+    <row r="54" spans="2:11" ht="12">
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="2">
+        <v>41648.539699074077</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>827.04722222214332</v>
+      </c>
       <c r="H54">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6839,7 +7031,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.75" customHeight="1">
+    <row r="55" spans="2:11" ht="12">
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="2">
+        <v>41647.805474537039</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>844.66861111106118</v>
+      </c>
       <c r="H55">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6853,7 +7055,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.75" customHeight="1">
+    <row r="56" spans="2:11" ht="12">
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="2">
+        <v>41647.703067129631</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>847.12638888886431</v>
+      </c>
       <c r="I56">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6867,7 +7079,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="12.75" customHeight="1">
+    <row r="57" spans="2:11" ht="12">
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="2">
+        <v>41647.692476851851</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>847.38055555557366</v>
+      </c>
       <c r="I57">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6881,7 +7103,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1">
+    <row r="58" spans="2:11" ht="12">
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="2">
+        <v>41646.846886574072</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>867.67472222226206</v>
+      </c>
       <c r="I58">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6895,7 +7127,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.75" customHeight="1">
+    <row r="59" spans="2:11" ht="12">
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="2">
+        <v>41646.766111111108</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>869.61333333340008</v>
+      </c>
       <c r="I59">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6909,7 +7151,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.75" customHeight="1">
+    <row r="60" spans="2:11" ht="12">
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="2">
+        <v>41646.750439814816</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>869.98944444442168</v>
+      </c>
       <c r="I60">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6923,7 +7175,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.75" customHeight="1">
+    <row r="61" spans="2:11" ht="12">
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="2">
+        <v>41646.718668981484</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>870.75194444437511</v>
+      </c>
       <c r="I61">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6937,7 +7199,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="12.75" customHeight="1">
+    <row r="62" spans="2:11" ht="24">
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="2">
+        <v>41646.671481481484</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>871.8844444443821</v>
+      </c>
       <c r="I62">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6951,7 +7223,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="12.75" customHeight="1">
+    <row r="63" spans="2:11" ht="12">
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="2">
+        <v>41646.583668981482</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>873.99194444442401</v>
+      </c>
       <c r="I63">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6965,7 +7247,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="12.75" customHeight="1">
+    <row r="64" spans="2:11" ht="12">
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="2">
+        <v>41645.623472222222</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>897.03666666668141</v>
+      </c>
       <c r="I64">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6979,7 +7271,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="9:11" ht="12.75" customHeight="1">
+    <row r="65" spans="2:11" ht="12">
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="2">
+        <v>41643.606828703705</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>945.43611111107748</v>
+      </c>
       <c r="I65">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6993,7 +7295,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="9:11" ht="12.75" customHeight="1">
+    <row r="66" spans="2:11" ht="12">
+      <c r="B66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="2">
+        <v>41642.620300925926</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>969.11277777777286</v>
+      </c>
       <c r="I66">
         <f t="shared" ref="I66:I97" si="8">G66*H66</f>
         <v>0</v>
@@ -7007,7 +7319,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="9:11" ht="12.75" customHeight="1">
+    <row r="67" spans="2:11" ht="12">
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="2">
+        <v>41642.519953703704</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>971.52111111109843</v>
+      </c>
       <c r="I67">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7021,7 +7343,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="9:11" ht="12.75" customHeight="1">
+    <row r="68" spans="2:11" ht="12">
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="2">
+        <v>41641.73741898148</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" ref="D68:D101" ca="1" si="11">ABS(TODAY()-C68)*24</f>
+        <v>990.30194444447989</v>
+      </c>
       <c r="I68">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7035,7 +7367,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="9:11" ht="12.75" customHeight="1">
+    <row r="69" spans="2:11" ht="12">
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="2">
+        <v>41641.66951388889</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>991.93166666664183</v>
+      </c>
       <c r="I69">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7049,7 +7391,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="9:11" ht="12.75" customHeight="1">
+    <row r="70" spans="2:11" ht="12">
+      <c r="B70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="2">
+        <v>41639.817245370374</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1036.3861111110309</v>
+      </c>
       <c r="I70">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7063,7 +7415,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="9:11" ht="12.75" customHeight="1">
+    <row r="71" spans="2:11" ht="24">
+      <c r="B71" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="2">
+        <v>41639.663530092592</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1040.0752777777961</v>
+      </c>
       <c r="I71">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7077,7 +7439,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="9:11" ht="12.75" customHeight="1">
+    <row r="72" spans="2:11" ht="12">
+      <c r="B72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="2">
+        <v>41638.613344907404</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1065.2797222223016</v>
+      </c>
       <c r="I72">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7091,7 +7463,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="9:11" ht="12.75" customHeight="1">
+    <row r="73" spans="2:11" ht="12">
+      <c r="B73" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="2">
+        <v>41638.543958333335</v>
+      </c>
+      <c r="D73" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1066.9449999999488</v>
+      </c>
       <c r="I73">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7105,7 +7487,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="9:11" ht="12.75" customHeight="1">
+    <row r="74" spans="2:11" ht="12">
+      <c r="B74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="2">
+        <v>41635.715474537035</v>
+      </c>
+      <c r="D74" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1134.828611111152</v>
+      </c>
       <c r="I74">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7119,7 +7511,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="9:11" ht="12.75" customHeight="1">
+    <row r="75" spans="2:11" ht="24">
+      <c r="B75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="2">
+        <v>41635.679548611108</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1135.690833333414</v>
+      </c>
       <c r="I75">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7133,7 +7535,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="9:11" ht="12.75" customHeight="1">
+    <row r="76" spans="2:11" ht="12">
+      <c r="B76" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="2">
+        <v>41633.096805555557</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1197.6766666666372</v>
+      </c>
       <c r="I76">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7147,7 +7559,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="9:11" ht="12.75" customHeight="1">
+    <row r="77" spans="2:11" ht="12">
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="2">
+        <v>41627.385833333334</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1334.7399999999907</v>
+      </c>
       <c r="I77">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7161,7 +7583,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="9:11" ht="12.75" customHeight="1">
+    <row r="78" spans="2:11" ht="24">
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="2">
+        <v>41627.302534722221</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1336.7391666666954</v>
+      </c>
       <c r="I78">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7175,7 +7607,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="9:11" ht="12.75" customHeight="1">
+    <row r="79" spans="2:11" ht="12">
+      <c r="B79" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="2">
+        <v>41626.680231481485</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1351.6744444443611</v>
+      </c>
       <c r="I79">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7189,7 +7631,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="9:11" ht="12.75" customHeight="1">
+    <row r="80" spans="2:11" ht="12">
+      <c r="B80" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="2">
+        <v>41626.646157407406</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1352.4922222222667</v>
+      </c>
       <c r="I80">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7203,7 +7655,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="9:11" ht="12.75" customHeight="1">
+    <row r="81" spans="2:11" ht="12">
+      <c r="B81" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="2">
+        <v>41626.625023148146</v>
+      </c>
+      <c r="D81" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1352.9994444444892</v>
+      </c>
       <c r="I81">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7217,7 +7679,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="9:11" ht="12.75" customHeight="1">
+    <row r="82" spans="2:11" ht="12">
+      <c r="B82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="2">
+        <v>41626.503368055557</v>
+      </c>
+      <c r="D82" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1355.9191666666302</v>
+      </c>
       <c r="I82">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7231,7 +7703,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="9:11" ht="12.75" customHeight="1">
+    <row r="83" spans="2:11" ht="12">
+      <c r="B83" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="2">
+        <v>41625.479490740741</v>
+      </c>
+      <c r="D83" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1380.4922222222085</v>
+      </c>
       <c r="I83">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7245,7 +7727,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="9:11" ht="12.75" customHeight="1">
+    <row r="84" spans="2:11" ht="24">
+      <c r="B84" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="2">
+        <v>41625.448541666665</v>
+      </c>
+      <c r="D84" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1381.2350000000442</v>
+      </c>
       <c r="I84">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7259,7 +7751,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="9:11" ht="12.75" customHeight="1">
+    <row r="85" spans="2:11" ht="12">
+      <c r="B85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="2">
+        <v>41625.41684027778</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1381.9958333332906</v>
+      </c>
       <c r="I85">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7273,7 +7775,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="9:11" ht="12.75" customHeight="1">
+    <row r="86" spans="2:11" ht="12">
+      <c r="B86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="2">
+        <v>41625.396192129629</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1382.4913888889132</v>
+      </c>
       <c r="I86">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7287,7 +7799,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="9:11" ht="12.75" customHeight="1">
+    <row r="87" spans="2:11" ht="12">
+      <c r="B87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" s="2">
+        <v>41625.323553240742</v>
+      </c>
+      <c r="D87" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1384.2347222222015</v>
+      </c>
       <c r="I87">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7301,7 +7823,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="9:11" ht="12.75" customHeight="1">
+    <row r="88" spans="2:11" ht="12">
+      <c r="B88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="2">
+        <v>41624.479687500003</v>
+      </c>
+      <c r="D88" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1404.4874999999302</v>
+      </c>
       <c r="I88">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7315,7 +7847,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="9:11" ht="12.75" customHeight="1">
+    <row r="89" spans="2:11" ht="12">
+      <c r="B89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="2">
+        <v>41624.416388888887</v>
+      </c>
+      <c r="D89" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1406.0066666667117</v>
+      </c>
       <c r="I89">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7329,7 +7871,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="9:11" ht="12.75" customHeight="1">
+    <row r="90" spans="2:11" ht="24">
+      <c r="B90" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="2">
+        <v>41624.270879629628</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1409.4988888889202</v>
+      </c>
       <c r="I90">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7343,7 +7895,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="9:11" ht="12.75" customHeight="1">
+    <row r="91" spans="2:11" ht="12">
+      <c r="B91" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="2">
+        <v>41622.673113425924</v>
+      </c>
+      <c r="D91" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1447.8452777778148</v>
+      </c>
       <c r="I91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7357,7 +7919,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="9:11" ht="12.75" customHeight="1">
+    <row r="92" spans="2:11" ht="12">
+      <c r="B92" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="2">
+        <v>41621.458460648151</v>
+      </c>
+      <c r="D92" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1476.9969444443705</v>
+      </c>
       <c r="I92">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7371,7 +7943,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="9:11" ht="12.75" customHeight="1">
+    <row r="93" spans="2:11" ht="24">
+      <c r="B93" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="2">
+        <v>41621.417291666665</v>
+      </c>
+      <c r="D93" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1477.9850000000442</v>
+      </c>
       <c r="I93">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7385,7 +7967,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="9:11" ht="12.75" customHeight="1">
+    <row r="94" spans="2:11" ht="12">
+      <c r="B94" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="2">
+        <v>41621.415659722225</v>
+      </c>
+      <c r="D94" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1478.0241666666116</v>
+      </c>
       <c r="I94">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7399,7 +7991,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="9:11" ht="12.75" customHeight="1">
+    <row r="95" spans="2:11" ht="12">
+      <c r="B95" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="2">
+        <v>41620.465787037036</v>
+      </c>
+      <c r="D95" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1500.821111111145</v>
+      </c>
       <c r="I95">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7413,7 +8015,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="9:11" ht="12.75" customHeight="1">
+    <row r="96" spans="2:11" ht="12">
+      <c r="B96" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="2">
+        <v>41619.810243055559</v>
+      </c>
+      <c r="D96" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1516.5541666665813</v>
+      </c>
       <c r="I96">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7427,7 +8039,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="9:11" ht="12.75" customHeight="1">
+    <row r="97" spans="2:11" ht="12">
+      <c r="B97" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="2">
+        <v>41619.651250000003</v>
+      </c>
+      <c r="D97" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1520.3699999999371</v>
+      </c>
       <c r="I97">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7441,13 +8063,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="9:11" ht="12.75" customHeight="1">
+    <row r="98" spans="2:11" ht="24">
+      <c r="B98" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="2">
+        <v>41618.385451388887</v>
+      </c>
+      <c r="D98" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1550.7491666667047</v>
+      </c>
       <c r="I98">
-        <f t="shared" ref="I98:I129" si="11">G98*H98</f>
+        <f t="shared" ref="I98:I129" si="12">G98*H98</f>
         <v>0</v>
       </c>
       <c r="J98">
-        <f t="shared" ref="J98:J129" si="12">IF(F98&gt;24, I98*POWER($A$6,(-$A$3*F98)), I98)</f>
+        <f t="shared" ref="J98:J129" si="13">IF(F98&gt;24, I98*POWER($A$6,(-$A$3*F98)), I98)</f>
         <v>0</v>
       </c>
       <c r="K98">
@@ -7455,13 +8087,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="9:11" ht="12.75" customHeight="1">
+    <row r="99" spans="2:11" ht="12">
+      <c r="B99" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" s="2">
+        <v>41618.344293981485</v>
+      </c>
+      <c r="D99" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1551.7369444443611</v>
+      </c>
       <c r="I99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K99">
@@ -7469,18 +8111,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="9:11" ht="12.75" customHeight="1">
+    <row r="100" spans="2:11" ht="12">
+      <c r="B100" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" s="2">
+        <v>41617.486689814818</v>
+      </c>
+      <c r="D100" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1572.3194444443798</v>
+      </c>
       <c r="I100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K100">
         <f t="shared" si="10"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" ht="12">
+      <c r="B101" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" s="2">
+        <v>41617.479629629626</v>
+      </c>
+      <c r="D101" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1572.4888888889691</v>
       </c>
     </row>
   </sheetData>
